--- a/original-sources/DSHS_nursing.xlsx
+++ b/original-sources/DSHS_nursing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DEE6C714-3445-408E-9CD5-E47488DBDE9F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{13F79DD7-682D-4F6E-B778-F2D09461846C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20120" windowHeight="4620" xr2:uid="{EC65792F-41A1-456F-806B-7C13A0F54FFB}"/>
   </bookViews>
@@ -82,10 +82,10 @@
     <t>Number of Assisted Living Facilities with Confirmed Resident or Staff Cases of COVID-19</t>
   </si>
   <si>
-    <t>COVID-19 in Texas Assisted Living Facilities (as of June 27, 2020)</t>
-  </si>
-  <si>
-    <t>COVID-19 in Texas Nursing Homes (as of June 27, 2020)</t>
+    <t>COVID-19 in Texas Nursing Homes (as of June 28, 2020)</t>
+  </si>
+  <si>
+    <t>COVID-19 in Texas Assisted Living Facilities (as of June 28, 2020)</t>
   </si>
 </sst>
 </file>
@@ -522,9 +522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C9F9139-321F-4562-8C43-20E63D860525}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
@@ -537,7 +535,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="135.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -579,16 +577,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="8">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C4" s="8">
-        <v>1607</v>
+        <v>1630</v>
       </c>
       <c r="D4" s="8">
         <v>259</v>
       </c>
       <c r="E4" s="8">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -596,10 +594,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C5" s="8">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D5" s="8">
         <v>112</v>
@@ -613,16 +611,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C6" s="8">
-        <v>1980</v>
+        <v>2026</v>
       </c>
       <c r="D6" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E6" s="8">
-        <v>960</v>
+        <v>962</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -647,10 +645,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C8" s="8">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="D8" s="8">
         <v>34</v>
@@ -664,16 +662,16 @@
         <v>4</v>
       </c>
       <c r="B9" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" s="8">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D9" s="8">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E9" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -684,7 +682,7 @@
         <v>50</v>
       </c>
       <c r="C10" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D10" s="8">
         <v>42</v>
@@ -699,19 +697,19 @@
       </c>
       <c r="B11" s="1">
         <f>SUM(B3:B10)</f>
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" ref="C11:E11" si="0">SUM(C3:C10)</f>
-        <v>6149</v>
+        <v>6224</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="0"/>
-        <v>3107</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -750,7 +748,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34EF1D6-84E8-4381-85A2-E83F48B2185C}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
@@ -763,7 +763,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="131" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -808,10 +808,10 @@
         <v>85</v>
       </c>
       <c r="C4" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D4" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E4" s="8">
         <v>84</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="8">
         <v>17</v>
@@ -839,10 +839,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C6" s="8">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="D6" s="8">
         <v>36</v>
@@ -873,16 +873,16 @@
         <v>8</v>
       </c>
       <c r="B8" s="8">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" s="8">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D8" s="8">
         <v>5</v>
       </c>
       <c r="E8" s="8">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -893,7 +893,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="8">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
@@ -925,19 +925,19 @@
       </c>
       <c r="B11" s="1">
         <f>SUM(B3:B10)</f>
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" ref="C11:E11" si="0">SUM(C3:C10)</f>
-        <v>715</v>
+        <v>738</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="0"/>
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">

--- a/original-sources/DSHS_nursing.xlsx
+++ b/original-sources/DSHS_nursing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E50D48D4-7225-4D22-A86F-2CFDABD237AA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{54E600E6-BC7F-4444-B477-F737C03B13CB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8630" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="14">
   <si>
     <t>4/5N</t>
   </si>
@@ -70,9 +70,6 @@
   </si>
   <si>
     <t>Recoveries are determined by daily facility reports.</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
 </sst>
 </file>
@@ -446,11 +443,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36587124-AB08-4074-9D3F-CC49D1169958}">
-  <dimension ref="A1:AU15"/>
+  <dimension ref="A1:AV15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AK1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AP13" sqref="AP13"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AU6" sqref="AU6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -458,16 +455,16 @@
     <col min="1" max="1" width="19.33203125" style="2" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="47" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="16384" width="9.06640625" style="2"/>
+    <col min="28" max="48" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:47" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:48" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -609,8 +606,11 @@
       <c r="AU3" s="5">
         <v>44011</v>
       </c>
+      <c r="AV3" s="5">
+        <v>44012</v>
+      </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -752,8 +752,11 @@
       <c r="AU4" s="2">
         <v>38</v>
       </c>
+      <c r="AV4" s="2">
+        <v>39</v>
+      </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -895,8 +898,11 @@
       <c r="AU5" s="2">
         <v>197</v>
       </c>
+      <c r="AV5" s="2">
+        <v>203</v>
+      </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -1038,8 +1044,11 @@
       <c r="AU6" s="2">
         <v>67</v>
       </c>
+      <c r="AV6" s="2">
+        <v>68</v>
+      </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -1181,8 +1190,11 @@
       <c r="AU7" s="2">
         <v>146</v>
       </c>
+      <c r="AV7" s="2">
+        <v>147</v>
+      </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1324,8 +1336,11 @@
       <c r="AU8" s="2">
         <v>57</v>
       </c>
+      <c r="AV8" s="2">
+        <v>57</v>
+      </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1467,8 +1482,11 @@
       <c r="AU9" s="2">
         <v>86</v>
       </c>
+      <c r="AV9" s="2">
+        <v>86</v>
+      </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -1610,8 +1628,11 @@
       <c r="AU10" s="2">
         <v>32</v>
       </c>
+      <c r="AV10" s="2">
+        <v>32</v>
+      </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -1753,8 +1774,11 @@
       <c r="AU11" s="2">
         <v>50</v>
       </c>
+      <c r="AV11" s="2">
+        <v>50</v>
+      </c>
     </row>
-    <row r="12" spans="1:47" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -1897,16 +1921,20 @@
       <c r="AU12" s="3">
         <v>673</v>
       </c>
+      <c r="AV12" s="3">
+        <f>SUM(AV4:AV11)</f>
+        <v>682</v>
+      </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.3">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -1919,11 +1947,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001C2592-E91A-4D15-BF1F-41D54F92301C}">
-  <dimension ref="A1:AU15"/>
+  <dimension ref="A1:AV15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AJ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AU12" sqref="AU12"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AU1" sqref="AU1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1931,16 +1959,16 @@
     <col min="1" max="1" width="19.33203125" style="2" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="47" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="16384" width="9.06640625" style="2"/>
+    <col min="28" max="48" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:47" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:48" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -2082,8 +2110,11 @@
       <c r="AU3" s="5">
         <v>44011</v>
       </c>
+      <c r="AV3" s="5">
+        <v>44012</v>
+      </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -2225,8 +2256,11 @@
       <c r="AU4" s="2">
         <v>330</v>
       </c>
+      <c r="AV4" s="2">
+        <v>332</v>
+      </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -2368,8 +2402,11 @@
       <c r="AU5" s="2">
         <v>1638</v>
       </c>
+      <c r="AV5" s="2">
+        <v>1680</v>
+      </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -2511,8 +2548,11 @@
       <c r="AU6" s="2">
         <v>669</v>
       </c>
+      <c r="AV6" s="2">
+        <v>666</v>
+      </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -2636,26 +2676,29 @@
       <c r="AO7" s="2">
         <v>1432</v>
       </c>
-      <c r="AP7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AQ7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AR7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AS7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AT7" s="2" t="s">
-        <v>14</v>
+      <c r="AP7" s="2">
+        <v>1452</v>
+      </c>
+      <c r="AQ7" s="2">
+        <v>1499</v>
+      </c>
+      <c r="AR7" s="2">
+        <v>1522</v>
+      </c>
+      <c r="AS7" s="2">
+        <v>1578</v>
+      </c>
+      <c r="AT7" s="2">
+        <v>1624</v>
       </c>
       <c r="AU7" s="2">
         <v>1653</v>
       </c>
+      <c r="AV7" s="2">
+        <v>1693</v>
+      </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -2797,8 +2840,11 @@
       <c r="AU8" s="2">
         <v>646</v>
       </c>
+      <c r="AV8" s="2">
+        <v>646</v>
+      </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -2940,8 +2986,11 @@
       <c r="AU9" s="2">
         <v>379</v>
       </c>
+      <c r="AV9" s="2">
+        <v>379</v>
+      </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -3083,8 +3132,11 @@
       <c r="AU10" s="2">
         <v>316</v>
       </c>
+      <c r="AV10" s="2">
+        <v>316</v>
+      </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -3226,8 +3278,11 @@
       <c r="AU11" s="2">
         <v>276</v>
       </c>
+      <c r="AV11" s="2">
+        <v>276</v>
+      </c>
     </row>
-    <row r="12" spans="1:47" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -3351,34 +3406,37 @@
       <c r="AO12" s="3">
         <v>5392</v>
       </c>
-      <c r="AP12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AQ12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AR12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AS12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AT12" s="3" t="s">
-        <v>14</v>
+      <c r="AP12" s="3">
+        <v>5517</v>
+      </c>
+      <c r="AQ12" s="3">
+        <v>5570</v>
+      </c>
+      <c r="AR12" s="3">
+        <v>5649</v>
+      </c>
+      <c r="AS12" s="3">
+        <v>5747</v>
+      </c>
+      <c r="AT12" s="3">
+        <v>5822</v>
       </c>
       <c r="AU12" s="3">
         <v>5907</v>
       </c>
+      <c r="AV12" s="3">
+        <v>5988</v>
+      </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.3">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -3391,11 +3449,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC07078-FDB2-4744-9C93-DA564120E1E6}">
-  <dimension ref="A1:AU15"/>
+  <dimension ref="A1:AV15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AS7" sqref="AS7"/>
+      <selection pane="topRight" activeCell="AV5" sqref="AV5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -3403,16 +3461,16 @@
     <col min="1" max="1" width="19.33203125" style="2" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="47" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="16384" width="9.06640625" style="2"/>
+    <col min="28" max="48" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:47" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:48" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -3554,8 +3612,11 @@
       <c r="AU3" s="5">
         <v>44011</v>
       </c>
+      <c r="AV3" s="5">
+        <v>44012</v>
+      </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -3697,8 +3758,11 @@
       <c r="AU4" s="2">
         <v>75</v>
       </c>
+      <c r="AV4" s="2">
+        <v>75</v>
+      </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -3840,8 +3904,11 @@
       <c r="AU5" s="2">
         <v>260</v>
       </c>
+      <c r="AV5" s="2">
+        <v>263</v>
+      </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -3983,8 +4050,11 @@
       <c r="AU6" s="2">
         <v>113</v>
       </c>
+      <c r="AV6" s="2">
+        <v>114</v>
+      </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -4126,8 +4196,11 @@
       <c r="AU7" s="2">
         <v>220</v>
       </c>
+      <c r="AV7" s="2">
+        <v>222</v>
+      </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -4269,8 +4342,11 @@
       <c r="AU8" s="2">
         <v>122</v>
       </c>
+      <c r="AV8" s="2">
+        <v>122</v>
+      </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -4412,8 +4488,11 @@
       <c r="AU9" s="2">
         <v>35</v>
       </c>
+      <c r="AV9" s="2">
+        <v>35</v>
+      </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -4555,8 +4634,11 @@
       <c r="AU10" s="2">
         <v>56</v>
       </c>
+      <c r="AV10" s="2">
+        <v>56</v>
+      </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -4698,8 +4780,11 @@
       <c r="AU11" s="2">
         <v>42</v>
       </c>
+      <c r="AV11" s="2">
+        <v>42</v>
+      </c>
     </row>
-    <row r="12" spans="1:47" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -4841,16 +4926,19 @@
       <c r="AU12" s="3">
         <v>923</v>
       </c>
+      <c r="AV12" s="3">
+        <v>929</v>
+      </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.3">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -4862,11 +4950,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCD14BD-3EDB-4A02-AA3B-BFB82E165626}">
-  <dimension ref="A1:AU16"/>
+  <dimension ref="A1:AV16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AK1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AP13" sqref="AP13"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AS10" sqref="AS10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -4874,16 +4962,16 @@
     <col min="1" max="1" width="19.33203125" style="2" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="47" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="16384" width="9.06640625" style="2"/>
+    <col min="28" max="48" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:47" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:48" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -5025,8 +5113,11 @@
       <c r="AU3" s="5">
         <v>44011</v>
       </c>
+      <c r="AV3" s="5">
+        <v>44012</v>
+      </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -5168,8 +5259,11 @@
       <c r="AU4" s="2">
         <v>216</v>
       </c>
+      <c r="AV4" s="2">
+        <v>216</v>
+      </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -5311,8 +5405,11 @@
       <c r="AU5" s="2">
         <v>901</v>
       </c>
+      <c r="AV5" s="2">
+        <v>909</v>
+      </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -5454,8 +5551,11 @@
       <c r="AU6" s="2">
         <v>326</v>
       </c>
+      <c r="AV6" s="2">
+        <v>327</v>
+      </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -5579,26 +5679,29 @@
       <c r="AO7" s="2">
         <v>519</v>
       </c>
-      <c r="AP7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AQ7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AR7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AS7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AT7" s="2" t="s">
-        <v>14</v>
+      <c r="AP7" s="2">
+        <v>529</v>
+      </c>
+      <c r="AQ7" s="2">
+        <v>532</v>
+      </c>
+      <c r="AR7" s="2">
+        <v>552</v>
+      </c>
+      <c r="AS7" s="2">
+        <v>558</v>
+      </c>
+      <c r="AT7" s="2">
+        <v>560</v>
       </c>
       <c r="AU7" s="2">
         <v>559</v>
       </c>
+      <c r="AV7" s="2">
+        <v>586</v>
+      </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -5740,8 +5843,11 @@
       <c r="AU8" s="2">
         <v>295</v>
       </c>
+      <c r="AV8" s="2">
+        <v>295</v>
+      </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -5883,8 +5989,11 @@
       <c r="AU9" s="2">
         <v>146</v>
       </c>
+      <c r="AV9" s="2">
+        <v>146</v>
+      </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -6026,8 +6135,11 @@
       <c r="AU10" s="2">
         <v>167</v>
       </c>
+      <c r="AV10" s="2">
+        <v>167</v>
+      </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -6169,8 +6281,11 @@
       <c r="AU11" s="2">
         <v>113</v>
       </c>
+      <c r="AV11" s="2">
+        <v>113</v>
+      </c>
     </row>
-    <row r="12" spans="1:47" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -6294,37 +6409,39 @@
       <c r="AO12" s="3">
         <v>2501</v>
       </c>
-      <c r="AP12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AQ12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AR12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AS12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AT12" s="3" t="s">
-        <v>14</v>
+      <c r="AP12" s="3">
+        <v>2557</v>
+      </c>
+      <c r="AQ12" s="3">
+        <v>2629</v>
+      </c>
+      <c r="AR12" s="3">
+        <v>2684</v>
+      </c>
+      <c r="AS12" s="3">
+        <v>2705</v>
+      </c>
+      <c r="AT12" s="3">
+        <v>2707</v>
       </c>
       <c r="AU12" s="3">
-        <f>SUM(AU4:AU11)</f>
         <v>2723</v>
       </c>
+      <c r="AV12" s="3">
+        <v>2759</v>
+      </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>

--- a/original-sources/DSHS_nursing.xlsx
+++ b/original-sources/DSHS_nursing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{54E600E6-BC7F-4444-B477-F737C03B13CB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1443F132-5AE1-41D0-AEB3-669668825392}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8630" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8628" activeTab="3" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
   </bookViews>
   <sheets>
     <sheet name="Facilities" sheetId="1" r:id="rId1"/>
@@ -443,28 +443,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36587124-AB08-4074-9D3F-CC49D1169958}">
-  <dimension ref="A1:AV15"/>
+  <dimension ref="A1:AW15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AU6" sqref="AU6"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AQ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AW4" sqref="AW4:AW12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.078125" defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.31640625" style="2" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="48" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="16384" width="9.06640625" style="2"/>
+    <col min="19" max="27" width="5.91796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="48" width="7.078125" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="6.83984375" style="2" customWidth="1"/>
+    <col min="50" max="16384" width="9.078125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:48" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:49" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -609,8 +610,11 @@
       <c r="AV3" s="5">
         <v>44012</v>
       </c>
+      <c r="AW3" s="5">
+        <v>44013</v>
+      </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -755,8 +759,11 @@
       <c r="AV4" s="2">
         <v>39</v>
       </c>
+      <c r="AW4" s="2">
+        <v>39</v>
+      </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -901,8 +908,11 @@
       <c r="AV5" s="2">
         <v>203</v>
       </c>
+      <c r="AW5" s="2">
+        <v>205</v>
+      </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -1047,8 +1057,11 @@
       <c r="AV6" s="2">
         <v>68</v>
       </c>
+      <c r="AW6" s="2">
+        <v>69</v>
+      </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -1193,8 +1206,11 @@
       <c r="AV7" s="2">
         <v>147</v>
       </c>
+      <c r="AW7" s="2">
+        <v>151</v>
+      </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1339,8 +1355,11 @@
       <c r="AV8" s="2">
         <v>57</v>
       </c>
+      <c r="AW8" s="2">
+        <v>57</v>
+      </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1485,8 +1504,11 @@
       <c r="AV9" s="2">
         <v>86</v>
       </c>
+      <c r="AW9" s="2">
+        <v>89</v>
+      </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -1631,8 +1653,11 @@
       <c r="AV10" s="2">
         <v>32</v>
       </c>
+      <c r="AW10" s="2">
+        <v>33</v>
+      </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -1777,8 +1802,11 @@
       <c r="AV11" s="2">
         <v>50</v>
       </c>
+      <c r="AW11" s="2">
+        <v>50</v>
+      </c>
     </row>
-    <row r="12" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -1925,16 +1953,19 @@
         <f>SUM(AV4:AV11)</f>
         <v>682</v>
       </c>
+      <c r="AW12" s="3">
+        <v>693</v>
+      </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.45">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -1947,28 +1978,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001C2592-E91A-4D15-BF1F-41D54F92301C}">
-  <dimension ref="A1:AV15"/>
+  <dimension ref="A1:AW15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AU1" sqref="AU1"/>
+      <pane xSplit="1" topLeftCell="AO1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AW4" sqref="AW4:AW12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.078125" defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.31640625" style="2" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="48" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="16384" width="9.06640625" style="2"/>
+    <col min="19" max="27" width="5.91796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="48" width="7.078125" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="7.27734375" style="2" customWidth="1"/>
+    <col min="50" max="16384" width="9.078125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:48" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:49" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -2113,8 +2145,11 @@
       <c r="AV3" s="5">
         <v>44012</v>
       </c>
+      <c r="AW3" s="5">
+        <v>44013</v>
+      </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -2259,8 +2294,11 @@
       <c r="AV4" s="2">
         <v>332</v>
       </c>
+      <c r="AW4" s="2">
+        <v>333</v>
+      </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -2405,8 +2443,11 @@
       <c r="AV5" s="2">
         <v>1680</v>
       </c>
+      <c r="AW5" s="2">
+        <v>1703</v>
+      </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -2551,8 +2592,11 @@
       <c r="AV6" s="2">
         <v>666</v>
       </c>
+      <c r="AW6" s="2">
+        <v>665</v>
+      </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -2697,8 +2741,11 @@
       <c r="AV7" s="2">
         <v>1693</v>
       </c>
+      <c r="AW7" s="2">
+        <v>1766</v>
+      </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -2843,8 +2890,11 @@
       <c r="AV8" s="2">
         <v>646</v>
       </c>
+      <c r="AW8" s="2">
+        <v>661</v>
+      </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -2989,8 +3039,11 @@
       <c r="AV9" s="2">
         <v>379</v>
       </c>
+      <c r="AW9" s="2">
+        <v>381</v>
+      </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -3135,8 +3188,11 @@
       <c r="AV10" s="2">
         <v>316</v>
       </c>
+      <c r="AW10" s="2">
+        <v>409</v>
+      </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -3281,8 +3337,11 @@
       <c r="AV11" s="2">
         <v>276</v>
       </c>
+      <c r="AW11" s="2">
+        <v>276</v>
+      </c>
     </row>
-    <row r="12" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -3427,16 +3486,19 @@
       <c r="AV12" s="3">
         <v>5988</v>
       </c>
+      <c r="AW12" s="3">
+        <v>6194</v>
+      </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.45">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -3449,28 +3511,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC07078-FDB2-4744-9C93-DA564120E1E6}">
-  <dimension ref="A1:AV15"/>
+  <dimension ref="A1:AW15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AV5" sqref="AV5"/>
+      <pane xSplit="1" topLeftCell="AQ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AV3" sqref="AV3:AW3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.078125" defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.31640625" style="2" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="48" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="16384" width="9.06640625" style="2"/>
+    <col min="19" max="27" width="5.91796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="48" width="7.078125" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="8.27734375" style="2" customWidth="1"/>
+    <col min="50" max="16384" width="9.078125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:48" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:49" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -3615,8 +3678,11 @@
       <c r="AV3" s="5">
         <v>44012</v>
       </c>
+      <c r="AW3" s="5">
+        <v>44013</v>
+      </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -3761,8 +3827,11 @@
       <c r="AV4" s="2">
         <v>75</v>
       </c>
+      <c r="AW4" s="2">
+        <v>75</v>
+      </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -3907,8 +3976,11 @@
       <c r="AV5" s="2">
         <v>263</v>
       </c>
+      <c r="AW5" s="2">
+        <v>269</v>
+      </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -4053,8 +4125,11 @@
       <c r="AV6" s="2">
         <v>114</v>
       </c>
+      <c r="AW6" s="2">
+        <v>116</v>
+      </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -4199,8 +4274,11 @@
       <c r="AV7" s="2">
         <v>222</v>
       </c>
+      <c r="AW7" s="2">
+        <v>228</v>
+      </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -4345,8 +4423,11 @@
       <c r="AV8" s="2">
         <v>122</v>
       </c>
+      <c r="AW8" s="2">
+        <v>125</v>
+      </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -4491,8 +4572,11 @@
       <c r="AV9" s="2">
         <v>35</v>
       </c>
+      <c r="AW9" s="2">
+        <v>35</v>
+      </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -4637,8 +4721,11 @@
       <c r="AV10" s="2">
         <v>56</v>
       </c>
+      <c r="AW10" s="2">
+        <v>59</v>
+      </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -4783,8 +4870,11 @@
       <c r="AV11" s="2">
         <v>42</v>
       </c>
+      <c r="AW11" s="2">
+        <v>42</v>
+      </c>
     </row>
-    <row r="12" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -4929,16 +5019,19 @@
       <c r="AV12" s="3">
         <v>929</v>
       </c>
+      <c r="AW12" s="3">
+        <v>949</v>
+      </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.45">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -4950,28 +5043,29 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCD14BD-3EDB-4A02-AA3B-BFB82E165626}">
-  <dimension ref="A1:AV16"/>
+  <dimension ref="A1:AW16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AS10" sqref="AS10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AO1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AW4" sqref="AW4:AW12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.078125" defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.31640625" style="2" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="48" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="16384" width="9.06640625" style="2"/>
+    <col min="19" max="27" width="5.91796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="48" width="7.078125" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="7.27734375" style="2" customWidth="1"/>
+    <col min="50" max="16384" width="9.078125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:48" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:49" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -5116,8 +5210,11 @@
       <c r="AV3" s="5">
         <v>44012</v>
       </c>
+      <c r="AW3" s="5">
+        <v>44013</v>
+      </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -5262,8 +5359,11 @@
       <c r="AV4" s="2">
         <v>216</v>
       </c>
+      <c r="AW4" s="2">
+        <v>216</v>
+      </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -5408,8 +5508,11 @@
       <c r="AV5" s="2">
         <v>909</v>
       </c>
+      <c r="AW5" s="2">
+        <v>914</v>
+      </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -5554,8 +5657,11 @@
       <c r="AV6" s="2">
         <v>327</v>
       </c>
+      <c r="AW6" s="2">
+        <v>332</v>
+      </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -5700,8 +5806,11 @@
       <c r="AV7" s="2">
         <v>586</v>
       </c>
+      <c r="AW7" s="2">
+        <v>606</v>
+      </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -5846,8 +5955,11 @@
       <c r="AV8" s="2">
         <v>295</v>
       </c>
+      <c r="AW8" s="2">
+        <v>311</v>
+      </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -5992,8 +6104,11 @@
       <c r="AV9" s="2">
         <v>146</v>
       </c>
+      <c r="AW9" s="2">
+        <v>146</v>
+      </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -6138,8 +6253,11 @@
       <c r="AV10" s="2">
         <v>167</v>
       </c>
+      <c r="AW10" s="2">
+        <v>186</v>
+      </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -6284,8 +6402,11 @@
       <c r="AV11" s="2">
         <v>113</v>
       </c>
+      <c r="AW11" s="2">
+        <v>113</v>
+      </c>
     </row>
-    <row r="12" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -6430,18 +6551,21 @@
       <c r="AV12" s="3">
         <v>2759</v>
       </c>
+      <c r="AW12" s="3">
+        <v>2824</v>
+      </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>

--- a/original-sources/DSHS_nursing.xlsx
+++ b/original-sources/DSHS_nursing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1443F132-5AE1-41D0-AEB3-669668825392}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DEA3BD3B-03D1-4510-AD1C-61C4EB52AB31}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8628" activeTab="3" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8630" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
   </bookViews>
   <sheets>
     <sheet name="Facilities" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Fatalities" sheetId="2" r:id="rId3"/>
     <sheet name="Recoveries" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -443,29 +443,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36587124-AB08-4074-9D3F-CC49D1169958}">
-  <dimension ref="A1:AW15"/>
+  <dimension ref="A1:AX15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AQ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AW4" sqref="AW4:AW12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AY15" sqref="AY15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.078125" defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.31640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="2" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="5.91796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="48" width="7.078125" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="6.83984375" style="2" customWidth="1"/>
-    <col min="50" max="16384" width="9.078125" style="2"/>
+    <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="48" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="50" width="6.86328125" style="2" customWidth="1"/>
+    <col min="51" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:49" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:50" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -613,8 +613,11 @@
       <c r="AW3" s="5">
         <v>44013</v>
       </c>
+      <c r="AX3" s="5">
+        <v>44014</v>
+      </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -762,8 +765,11 @@
       <c r="AW4" s="2">
         <v>39</v>
       </c>
+      <c r="AX4" s="2">
+        <v>40</v>
+      </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -911,8 +917,11 @@
       <c r="AW5" s="2">
         <v>205</v>
       </c>
+      <c r="AX5" s="2">
+        <v>210</v>
+      </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -1060,8 +1069,11 @@
       <c r="AW6" s="2">
         <v>69</v>
       </c>
+      <c r="AX6" s="2">
+        <v>69</v>
+      </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -1209,8 +1221,11 @@
       <c r="AW7" s="2">
         <v>151</v>
       </c>
+      <c r="AX7" s="2">
+        <v>153</v>
+      </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1358,8 +1373,11 @@
       <c r="AW8" s="2">
         <v>57</v>
       </c>
+      <c r="AX8" s="2">
+        <v>63</v>
+      </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1507,8 +1525,11 @@
       <c r="AW9" s="2">
         <v>89</v>
       </c>
+      <c r="AX9" s="2">
+        <v>89</v>
+      </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -1656,8 +1677,11 @@
       <c r="AW10" s="2">
         <v>33</v>
       </c>
+      <c r="AX10" s="2">
+        <v>33</v>
+      </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -1805,8 +1829,11 @@
       <c r="AW11" s="2">
         <v>50</v>
       </c>
+      <c r="AX11" s="2">
+        <v>50</v>
+      </c>
     </row>
-    <row r="12" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:50" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -1956,16 +1983,19 @@
       <c r="AW12" s="3">
         <v>693</v>
       </c>
+      <c r="AX12" s="3">
+        <v>707</v>
+      </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -1978,29 +2008,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001C2592-E91A-4D15-BF1F-41D54F92301C}">
-  <dimension ref="A1:AW15"/>
+  <dimension ref="A1:AX15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AO1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AW4" sqref="AW4:AW12"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AX5" sqref="AX5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.078125" defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.31640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="2" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="5.91796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="48" width="7.078125" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="7.27734375" style="2" customWidth="1"/>
-    <col min="50" max="16384" width="9.078125" style="2"/>
+    <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="48" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="50" width="7.265625" style="2" customWidth="1"/>
+    <col min="51" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:49" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:50" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -2148,8 +2178,11 @@
       <c r="AW3" s="5">
         <v>44013</v>
       </c>
+      <c r="AX3" s="5">
+        <v>44014</v>
+      </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -2297,8 +2330,11 @@
       <c r="AW4" s="2">
         <v>333</v>
       </c>
+      <c r="AX4" s="2">
+        <v>337</v>
+      </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -2446,8 +2482,11 @@
       <c r="AW5" s="2">
         <v>1703</v>
       </c>
+      <c r="AX5" s="2">
+        <v>1729</v>
+      </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -2595,8 +2634,11 @@
       <c r="AW6" s="2">
         <v>665</v>
       </c>
+      <c r="AX6" s="2">
+        <v>665</v>
+      </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -2744,8 +2786,11 @@
       <c r="AW7" s="2">
         <v>1766</v>
       </c>
+      <c r="AX7" s="2">
+        <v>1793</v>
+      </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -2893,8 +2938,11 @@
       <c r="AW8" s="2">
         <v>661</v>
       </c>
+      <c r="AX8" s="2">
+        <v>667</v>
+      </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -3042,8 +3090,11 @@
       <c r="AW9" s="2">
         <v>381</v>
       </c>
+      <c r="AX9" s="2">
+        <v>381</v>
+      </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -3191,8 +3242,11 @@
       <c r="AW10" s="2">
         <v>409</v>
       </c>
+      <c r="AX10" s="2">
+        <v>414</v>
+      </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -3340,8 +3394,11 @@
       <c r="AW11" s="2">
         <v>276</v>
       </c>
+      <c r="AX11" s="2">
+        <v>276</v>
+      </c>
     </row>
-    <row r="12" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:50" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -3489,16 +3546,19 @@
       <c r="AW12" s="3">
         <v>6194</v>
       </c>
+      <c r="AX12" s="3">
+        <v>6262</v>
+      </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -3511,29 +3571,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC07078-FDB2-4744-9C93-DA564120E1E6}">
-  <dimension ref="A1:AW15"/>
+  <dimension ref="A1:AX15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AQ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AV3" sqref="AV3:AW3"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AW1" sqref="AW1:AX1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.078125" defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.31640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="2" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="5.91796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="48" width="7.078125" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="8.27734375" style="2" customWidth="1"/>
-    <col min="50" max="16384" width="9.078125" style="2"/>
+    <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="50" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="51" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:49" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:50" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -3681,8 +3740,11 @@
       <c r="AW3" s="5">
         <v>44013</v>
       </c>
+      <c r="AX3" s="5">
+        <v>44014</v>
+      </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -3830,8 +3892,11 @@
       <c r="AW4" s="2">
         <v>75</v>
       </c>
+      <c r="AX4" s="2">
+        <v>75</v>
+      </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -3979,8 +4044,11 @@
       <c r="AW5" s="2">
         <v>269</v>
       </c>
+      <c r="AX5" s="2">
+        <v>267</v>
+      </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -4128,8 +4196,11 @@
       <c r="AW6" s="2">
         <v>116</v>
       </c>
+      <c r="AX6" s="2">
+        <v>115</v>
+      </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -4277,8 +4348,11 @@
       <c r="AW7" s="2">
         <v>228</v>
       </c>
+      <c r="AX7" s="2">
+        <v>227</v>
+      </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -4426,8 +4500,11 @@
       <c r="AW8" s="2">
         <v>125</v>
       </c>
+      <c r="AX8" s="2">
+        <v>126</v>
+      </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -4575,8 +4652,11 @@
       <c r="AW9" s="2">
         <v>35</v>
       </c>
+      <c r="AX9" s="2">
+        <v>35</v>
+      </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -4724,8 +4804,11 @@
       <c r="AW10" s="2">
         <v>59</v>
       </c>
+      <c r="AX10" s="2">
+        <v>59</v>
+      </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -4873,8 +4956,11 @@
       <c r="AW11" s="2">
         <v>42</v>
       </c>
+      <c r="AX11" s="2">
+        <v>42</v>
+      </c>
     </row>
-    <row r="12" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:50" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -5022,16 +5108,20 @@
       <c r="AW12" s="3">
         <v>949</v>
       </c>
+      <c r="AX12" s="3">
+        <f>SUM(AX4:AX11)</f>
+        <v>946</v>
+      </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -5043,29 +5133,28 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCD14BD-3EDB-4A02-AA3B-BFB82E165626}">
-  <dimension ref="A1:AW16"/>
+  <dimension ref="A1:AX16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AO1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AW4" sqref="AW4:AW12"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AW3" sqref="AW3:AX3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.078125" defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.31640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="2" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="5.91796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="48" width="7.078125" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="7.27734375" style="2" customWidth="1"/>
-    <col min="50" max="16384" width="9.078125" style="2"/>
+    <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="50" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="51" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:49" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:50" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -5213,8 +5302,11 @@
       <c r="AW3" s="5">
         <v>44013</v>
       </c>
+      <c r="AX3" s="5">
+        <v>44014</v>
+      </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -5362,8 +5454,11 @@
       <c r="AW4" s="2">
         <v>216</v>
       </c>
+      <c r="AX4" s="2">
+        <v>216</v>
+      </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -5511,8 +5606,11 @@
       <c r="AW5" s="2">
         <v>914</v>
       </c>
+      <c r="AX5" s="2">
+        <v>921</v>
+      </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -5660,8 +5758,11 @@
       <c r="AW6" s="2">
         <v>332</v>
       </c>
+      <c r="AX6" s="2">
+        <v>339</v>
+      </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -5809,8 +5910,11 @@
       <c r="AW7" s="2">
         <v>606</v>
       </c>
+      <c r="AX7" s="2">
+        <v>615</v>
+      </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -5958,8 +6062,11 @@
       <c r="AW8" s="2">
         <v>311</v>
       </c>
+      <c r="AX8" s="2">
+        <v>311</v>
+      </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -6107,8 +6214,11 @@
       <c r="AW9" s="2">
         <v>146</v>
       </c>
+      <c r="AX9" s="2">
+        <v>146</v>
+      </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -6256,8 +6366,11 @@
       <c r="AW10" s="2">
         <v>186</v>
       </c>
+      <c r="AX10" s="2">
+        <v>186</v>
+      </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -6405,8 +6518,11 @@
       <c r="AW11" s="2">
         <v>113</v>
       </c>
+      <c r="AX11" s="2">
+        <v>113</v>
+      </c>
     </row>
-    <row r="12" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:50" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -6554,18 +6670,21 @@
       <c r="AW12" s="3">
         <v>2824</v>
       </c>
+      <c r="AX12" s="3">
+        <v>2847</v>
+      </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>

--- a/original-sources/DSHS_nursing.xlsx
+++ b/original-sources/DSHS_nursing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DEA3BD3B-03D1-4510-AD1C-61C4EB52AB31}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{413771D4-8BBB-4E64-980C-4676E8BA9D8C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8630" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
   </bookViews>
@@ -443,11 +443,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36587124-AB08-4074-9D3F-CC49D1169958}">
-  <dimension ref="A1:AX15"/>
+  <dimension ref="A1:AY15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AY15" sqref="AY15"/>
+      <selection pane="topRight" activeCell="AW3" sqref="AW3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -456,16 +456,16 @@
     <col min="2" max="18" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
     <col min="28" max="48" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="50" width="6.86328125" style="2" customWidth="1"/>
-    <col min="51" max="16384" width="9.06640625" style="2"/>
+    <col min="49" max="51" width="6.86328125" style="2" customWidth="1"/>
+    <col min="52" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:50" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:51" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -616,8 +616,11 @@
       <c r="AX3" s="5">
         <v>44014</v>
       </c>
+      <c r="AY3" s="5">
+        <v>44015</v>
+      </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -768,8 +771,11 @@
       <c r="AX4" s="2">
         <v>40</v>
       </c>
+      <c r="AY4" s="2">
+        <v>40</v>
+      </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -920,8 +926,11 @@
       <c r="AX5" s="2">
         <v>210</v>
       </c>
+      <c r="AY5" s="2">
+        <v>212</v>
+      </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -1072,8 +1081,11 @@
       <c r="AX6" s="2">
         <v>69</v>
       </c>
+      <c r="AY6" s="2">
+        <v>71</v>
+      </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -1224,8 +1236,11 @@
       <c r="AX7" s="2">
         <v>153</v>
       </c>
+      <c r="AY7" s="2">
+        <v>155</v>
+      </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1376,8 +1391,11 @@
       <c r="AX8" s="2">
         <v>63</v>
       </c>
+      <c r="AY8" s="2">
+        <v>63</v>
+      </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1528,8 +1546,11 @@
       <c r="AX9" s="2">
         <v>89</v>
       </c>
+      <c r="AY9" s="2">
+        <v>89</v>
+      </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -1680,8 +1701,11 @@
       <c r="AX10" s="2">
         <v>33</v>
       </c>
+      <c r="AY10" s="2">
+        <v>35</v>
+      </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -1832,8 +1856,11 @@
       <c r="AX11" s="2">
         <v>50</v>
       </c>
+      <c r="AY11" s="2">
+        <v>50</v>
+      </c>
     </row>
-    <row r="12" spans="1:50" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:51" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -1986,16 +2013,19 @@
       <c r="AX12" s="3">
         <v>707</v>
       </c>
+      <c r="AY12" s="3">
+        <v>715</v>
+      </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.3">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -2008,11 +2038,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001C2592-E91A-4D15-BF1F-41D54F92301C}">
-  <dimension ref="A1:AX15"/>
+  <dimension ref="A1:AY15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AX5" sqref="AX5"/>
+      <selection pane="topRight" activeCell="AY1" sqref="AY1:AY1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2021,16 +2051,16 @@
     <col min="2" max="18" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
     <col min="28" max="48" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="50" width="7.265625" style="2" customWidth="1"/>
-    <col min="51" max="16384" width="9.06640625" style="2"/>
+    <col min="49" max="51" width="7.265625" style="2" customWidth="1"/>
+    <col min="52" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:50" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:51" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -2181,8 +2211,11 @@
       <c r="AX3" s="5">
         <v>44014</v>
       </c>
+      <c r="AY3" s="5">
+        <v>44015</v>
+      </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -2333,8 +2366,11 @@
       <c r="AX4" s="2">
         <v>337</v>
       </c>
+      <c r="AY4" s="2">
+        <v>337</v>
+      </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -2485,8 +2521,11 @@
       <c r="AX5" s="2">
         <v>1729</v>
       </c>
+      <c r="AY5" s="2">
+        <v>1797</v>
+      </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -2637,8 +2676,11 @@
       <c r="AX6" s="2">
         <v>665</v>
       </c>
+      <c r="AY6" s="2">
+        <v>667</v>
+      </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -2789,8 +2831,11 @@
       <c r="AX7" s="2">
         <v>1793</v>
       </c>
+      <c r="AY7" s="2">
+        <v>1831</v>
+      </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -2941,8 +2986,11 @@
       <c r="AX8" s="2">
         <v>667</v>
       </c>
+      <c r="AY8" s="2">
+        <v>678</v>
+      </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -3093,8 +3141,11 @@
       <c r="AX9" s="2">
         <v>381</v>
       </c>
+      <c r="AY9" s="2">
+        <v>381</v>
+      </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -3245,8 +3296,11 @@
       <c r="AX10" s="2">
         <v>414</v>
       </c>
+      <c r="AY10" s="2">
+        <v>415</v>
+      </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -3397,8 +3451,11 @@
       <c r="AX11" s="2">
         <v>276</v>
       </c>
+      <c r="AY11" s="2">
+        <v>276</v>
+      </c>
     </row>
-    <row r="12" spans="1:50" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:51" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -3549,16 +3606,19 @@
       <c r="AX12" s="3">
         <v>6262</v>
       </c>
+      <c r="AY12" s="3">
+        <v>6382</v>
+      </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.3">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -3571,11 +3631,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC07078-FDB2-4744-9C93-DA564120E1E6}">
-  <dimension ref="A1:AX15"/>
+  <dimension ref="A1:AY15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AW1" sqref="AW1:AX1048576"/>
+      <selection pane="topRight" activeCell="AY1" sqref="AY1:AY1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -3583,16 +3643,16 @@
     <col min="1" max="1" width="19.33203125" style="2" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="50" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="16384" width="9.06640625" style="2"/>
+    <col min="28" max="51" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="52" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:50" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:51" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -3743,8 +3803,11 @@
       <c r="AX3" s="5">
         <v>44014</v>
       </c>
+      <c r="AY3" s="5">
+        <v>44015</v>
+      </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -3895,8 +3958,11 @@
       <c r="AX4" s="2">
         <v>75</v>
       </c>
+      <c r="AY4" s="2">
+        <v>75</v>
+      </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -4047,8 +4113,11 @@
       <c r="AX5" s="2">
         <v>267</v>
       </c>
+      <c r="AY5" s="2">
+        <v>270</v>
+      </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -4199,8 +4268,11 @@
       <c r="AX6" s="2">
         <v>115</v>
       </c>
+      <c r="AY6" s="2">
+        <v>120</v>
+      </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -4351,8 +4423,11 @@
       <c r="AX7" s="2">
         <v>227</v>
       </c>
+      <c r="AY7" s="2">
+        <v>230</v>
+      </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -4503,8 +4578,11 @@
       <c r="AX8" s="2">
         <v>126</v>
       </c>
+      <c r="AY8" s="2">
+        <v>126</v>
+      </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -4655,8 +4733,11 @@
       <c r="AX9" s="2">
         <v>35</v>
       </c>
+      <c r="AY9" s="2">
+        <v>35</v>
+      </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -4807,8 +4888,11 @@
       <c r="AX10" s="2">
         <v>59</v>
       </c>
+      <c r="AY10" s="2">
+        <v>59</v>
+      </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -4959,8 +5043,11 @@
       <c r="AX11" s="2">
         <v>42</v>
       </c>
+      <c r="AY11" s="2">
+        <v>42</v>
+      </c>
     </row>
-    <row r="12" spans="1:50" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:51" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -5112,16 +5199,19 @@
         <f>SUM(AX4:AX11)</f>
         <v>946</v>
       </c>
+      <c r="AY12" s="3">
+        <v>957</v>
+      </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.3">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -5133,11 +5223,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCD14BD-3EDB-4A02-AA3B-BFB82E165626}">
-  <dimension ref="A1:AX16"/>
+  <dimension ref="A1:AY16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AW3" sqref="AW3:AX3"/>
+      <selection pane="topRight" activeCell="AY3" sqref="AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -5145,16 +5235,16 @@
     <col min="1" max="1" width="19.33203125" style="2" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="50" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="16384" width="9.06640625" style="2"/>
+    <col min="28" max="51" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="52" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:50" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:51" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -5305,8 +5395,11 @@
       <c r="AX3" s="5">
         <v>44014</v>
       </c>
+      <c r="AY3" s="5">
+        <v>44015</v>
+      </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -5457,8 +5550,11 @@
       <c r="AX4" s="2">
         <v>216</v>
       </c>
+      <c r="AY4" s="2">
+        <v>216</v>
+      </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -5609,8 +5705,11 @@
       <c r="AX5" s="2">
         <v>921</v>
       </c>
+      <c r="AY5" s="2">
+        <v>945</v>
+      </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -5761,8 +5860,11 @@
       <c r="AX6" s="2">
         <v>339</v>
       </c>
+      <c r="AY6" s="2">
+        <v>339</v>
+      </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -5913,8 +6015,11 @@
       <c r="AX7" s="2">
         <v>615</v>
       </c>
+      <c r="AY7" s="2">
+        <v>617</v>
+      </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -6065,8 +6170,11 @@
       <c r="AX8" s="2">
         <v>311</v>
       </c>
+      <c r="AY8" s="2">
+        <v>318</v>
+      </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -6217,8 +6325,11 @@
       <c r="AX9" s="2">
         <v>146</v>
       </c>
+      <c r="AY9" s="2">
+        <v>146</v>
+      </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -6369,8 +6480,11 @@
       <c r="AX10" s="2">
         <v>186</v>
       </c>
+      <c r="AY10" s="2">
+        <v>186</v>
+      </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -6521,8 +6635,11 @@
       <c r="AX11" s="2">
         <v>113</v>
       </c>
+      <c r="AY11" s="2">
+        <v>113</v>
+      </c>
     </row>
-    <row r="12" spans="1:50" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:51" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -6673,18 +6790,21 @@
       <c r="AX12" s="3">
         <v>2847</v>
       </c>
+      <c r="AY12" s="3">
+        <v>2880</v>
+      </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>

--- a/original-sources/DSHS_nursing.xlsx
+++ b/original-sources/DSHS_nursing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{413771D4-8BBB-4E64-980C-4676E8BA9D8C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1687A3FC-BBE2-430E-9CB8-6650334BE05F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8630" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
   </bookViews>
@@ -443,11 +443,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36587124-AB08-4074-9D3F-CC49D1169958}">
-  <dimension ref="A1:AY15"/>
+  <dimension ref="A1:AZ15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AW3" sqref="AW3"/>
+      <selection pane="topRight" activeCell="AZ1" sqref="AZ1:AZ1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -456,16 +456,16 @@
     <col min="2" max="18" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
     <col min="28" max="48" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="51" width="6.86328125" style="2" customWidth="1"/>
-    <col min="52" max="16384" width="9.06640625" style="2"/>
+    <col min="49" max="52" width="6.86328125" style="2" customWidth="1"/>
+    <col min="53" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:51" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:52" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -619,8 +619,11 @@
       <c r="AY3" s="5">
         <v>44015</v>
       </c>
+      <c r="AZ3" s="5">
+        <v>44016</v>
+      </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -774,8 +777,11 @@
       <c r="AY4" s="2">
         <v>40</v>
       </c>
+      <c r="AZ4" s="2">
+        <v>41</v>
+      </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -929,8 +935,11 @@
       <c r="AY5" s="2">
         <v>212</v>
       </c>
+      <c r="AZ5" s="2">
+        <v>212</v>
+      </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -1084,8 +1093,11 @@
       <c r="AY6" s="2">
         <v>71</v>
       </c>
+      <c r="AZ6" s="2">
+        <v>72</v>
+      </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -1239,8 +1251,11 @@
       <c r="AY7" s="2">
         <v>155</v>
       </c>
+      <c r="AZ7" s="2">
+        <v>160</v>
+      </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1394,8 +1409,11 @@
       <c r="AY8" s="2">
         <v>63</v>
       </c>
+      <c r="AZ8" s="2">
+        <v>63</v>
+      </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1549,8 +1567,11 @@
       <c r="AY9" s="2">
         <v>89</v>
       </c>
+      <c r="AZ9" s="2">
+        <v>89</v>
+      </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -1704,8 +1725,11 @@
       <c r="AY10" s="2">
         <v>35</v>
       </c>
+      <c r="AZ10" s="2">
+        <v>35</v>
+      </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -1859,8 +1883,11 @@
       <c r="AY11" s="2">
         <v>50</v>
       </c>
+      <c r="AZ11" s="2">
+        <v>50</v>
+      </c>
     </row>
-    <row r="12" spans="1:51" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -2016,16 +2043,20 @@
       <c r="AY12" s="3">
         <v>715</v>
       </c>
+      <c r="AZ12" s="3">
+        <f>SUM(AZ4:AZ11)</f>
+        <v>722</v>
+      </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.3">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -2038,11 +2069,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001C2592-E91A-4D15-BF1F-41D54F92301C}">
-  <dimension ref="A1:AY15"/>
+  <dimension ref="A1:AZ15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AY1" sqref="AY1:AY1048576"/>
+      <selection pane="topRight" activeCell="AZ1" sqref="AZ1:AZ1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2051,16 +2082,16 @@
     <col min="2" max="18" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
     <col min="28" max="48" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="51" width="7.265625" style="2" customWidth="1"/>
-    <col min="52" max="16384" width="9.06640625" style="2"/>
+    <col min="49" max="52" width="7.265625" style="2" customWidth="1"/>
+    <col min="53" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:51" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:52" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -2214,8 +2245,11 @@
       <c r="AY3" s="5">
         <v>44015</v>
       </c>
+      <c r="AZ3" s="5">
+        <v>44016</v>
+      </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -2369,8 +2403,11 @@
       <c r="AY4" s="2">
         <v>337</v>
       </c>
+      <c r="AZ4" s="2">
+        <v>337</v>
+      </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -2524,8 +2561,11 @@
       <c r="AY5" s="2">
         <v>1797</v>
       </c>
+      <c r="AZ5" s="2">
+        <v>1808</v>
+      </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -2679,8 +2719,11 @@
       <c r="AY6" s="2">
         <v>667</v>
       </c>
+      <c r="AZ6" s="2">
+        <v>671</v>
+      </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -2834,8 +2877,11 @@
       <c r="AY7" s="2">
         <v>1831</v>
       </c>
+      <c r="AZ7" s="2">
+        <v>1849</v>
+      </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -2989,8 +3035,11 @@
       <c r="AY8" s="2">
         <v>678</v>
       </c>
+      <c r="AZ8" s="2">
+        <v>707</v>
+      </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -3144,8 +3193,11 @@
       <c r="AY9" s="2">
         <v>381</v>
       </c>
+      <c r="AZ9" s="2">
+        <v>381</v>
+      </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -3299,8 +3351,11 @@
       <c r="AY10" s="2">
         <v>415</v>
       </c>
+      <c r="AZ10" s="2">
+        <v>443</v>
+      </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -3454,8 +3509,11 @@
       <c r="AY11" s="2">
         <v>276</v>
       </c>
+      <c r="AZ11" s="2">
+        <v>276</v>
+      </c>
     </row>
-    <row r="12" spans="1:51" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -3609,16 +3667,19 @@
       <c r="AY12" s="3">
         <v>6382</v>
       </c>
+      <c r="AZ12" s="3">
+        <v>6472</v>
+      </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.3">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -3631,11 +3692,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC07078-FDB2-4744-9C93-DA564120E1E6}">
-  <dimension ref="A1:AY15"/>
+  <dimension ref="A1:AZ15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AY1" sqref="AY1:AY1048576"/>
+      <selection pane="topRight" activeCell="AZ1" sqref="AZ1:AZ1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -3643,16 +3704,16 @@
     <col min="1" max="1" width="19.33203125" style="2" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="51" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="16384" width="9.06640625" style="2"/>
+    <col min="28" max="52" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="53" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:51" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:52" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -3806,8 +3867,11 @@
       <c r="AY3" s="5">
         <v>44015</v>
       </c>
+      <c r="AZ3" s="5">
+        <v>44016</v>
+      </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -3961,8 +4025,11 @@
       <c r="AY4" s="2">
         <v>75</v>
       </c>
+      <c r="AZ4" s="2">
+        <v>75</v>
+      </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -4116,8 +4183,11 @@
       <c r="AY5" s="2">
         <v>270</v>
       </c>
+      <c r="AZ5" s="2">
+        <v>271</v>
+      </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -4271,8 +4341,11 @@
       <c r="AY6" s="2">
         <v>120</v>
       </c>
+      <c r="AZ6" s="2">
+        <v>121</v>
+      </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -4426,8 +4499,11 @@
       <c r="AY7" s="2">
         <v>230</v>
       </c>
+      <c r="AZ7" s="2">
+        <v>237</v>
+      </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -4581,8 +4657,11 @@
       <c r="AY8" s="2">
         <v>126</v>
       </c>
+      <c r="AZ8" s="2">
+        <v>131</v>
+      </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -4736,8 +4815,11 @@
       <c r="AY9" s="2">
         <v>35</v>
       </c>
+      <c r="AZ9" s="2">
+        <v>35</v>
+      </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -4891,8 +4973,11 @@
       <c r="AY10" s="2">
         <v>59</v>
       </c>
+      <c r="AZ10" s="2">
+        <v>62</v>
+      </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -5046,8 +5131,11 @@
       <c r="AY11" s="2">
         <v>42</v>
       </c>
+      <c r="AZ11" s="2">
+        <v>42</v>
+      </c>
     </row>
-    <row r="12" spans="1:51" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -5202,16 +5290,19 @@
       <c r="AY12" s="3">
         <v>957</v>
       </c>
+      <c r="AZ12" s="3">
+        <v>974</v>
+      </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.3">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -5223,11 +5314,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCD14BD-3EDB-4A02-AA3B-BFB82E165626}">
-  <dimension ref="A1:AY16"/>
+  <dimension ref="A1:AZ16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AY3" sqref="AY3"/>
+      <selection pane="topRight" activeCell="AZ1" sqref="AZ1:AZ1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -5235,16 +5326,16 @@
     <col min="1" max="1" width="19.33203125" style="2" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="51" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="16384" width="9.06640625" style="2"/>
+    <col min="28" max="52" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="53" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:51" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:52" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -5398,8 +5489,11 @@
       <c r="AY3" s="5">
         <v>44015</v>
       </c>
+      <c r="AZ3" s="5">
+        <v>44016</v>
+      </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -5553,8 +5647,11 @@
       <c r="AY4" s="2">
         <v>216</v>
       </c>
+      <c r="AZ4" s="2">
+        <v>216</v>
+      </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -5708,8 +5805,11 @@
       <c r="AY5" s="2">
         <v>945</v>
       </c>
+      <c r="AZ5" s="2">
+        <v>945</v>
+      </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -5863,8 +5963,11 @@
       <c r="AY6" s="2">
         <v>339</v>
       </c>
+      <c r="AZ6" s="2">
+        <v>342</v>
+      </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -6018,8 +6121,11 @@
       <c r="AY7" s="2">
         <v>617</v>
       </c>
+      <c r="AZ7" s="2">
+        <v>641</v>
+      </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -6173,8 +6279,11 @@
       <c r="AY8" s="2">
         <v>318</v>
       </c>
+      <c r="AZ8" s="2">
+        <v>349</v>
+      </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -6328,8 +6437,11 @@
       <c r="AY9" s="2">
         <v>146</v>
       </c>
+      <c r="AZ9" s="2">
+        <v>146</v>
+      </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -6483,8 +6595,11 @@
       <c r="AY10" s="2">
         <v>186</v>
       </c>
+      <c r="AZ10" s="2">
+        <v>187</v>
+      </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -6638,8 +6753,11 @@
       <c r="AY11" s="2">
         <v>113</v>
       </c>
+      <c r="AZ11" s="2">
+        <v>113</v>
+      </c>
     </row>
-    <row r="12" spans="1:51" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -6793,18 +6911,21 @@
       <c r="AY12" s="3">
         <v>2880</v>
       </c>
+      <c r="AZ12" s="3">
+        <v>2939</v>
+      </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>

--- a/original-sources/DSHS_nursing.xlsx
+++ b/original-sources/DSHS_nursing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1687A3FC-BBE2-430E-9CB8-6650334BE05F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B6564FCB-E503-48EC-9C0E-FBC7545118A5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8630" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
   </bookViews>
@@ -443,11 +443,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36587124-AB08-4074-9D3F-CC49D1169958}">
-  <dimension ref="A1:AZ15"/>
+  <dimension ref="A1:BA15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AZ1" sqref="AZ1:AZ1048576"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -456,16 +456,16 @@
     <col min="2" max="18" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
     <col min="28" max="48" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="52" width="6.86328125" style="2" customWidth="1"/>
-    <col min="53" max="16384" width="9.06640625" style="2"/>
+    <col min="49" max="53" width="6.86328125" style="2" customWidth="1"/>
+    <col min="54" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:52" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -622,8 +622,11 @@
       <c r="AZ3" s="5">
         <v>44016</v>
       </c>
+      <c r="BA3" s="5">
+        <v>44017</v>
+      </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -780,8 +783,11 @@
       <c r="AZ4" s="2">
         <v>41</v>
       </c>
+      <c r="BA4" s="2">
+        <v>41</v>
+      </c>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -938,8 +944,11 @@
       <c r="AZ5" s="2">
         <v>212</v>
       </c>
+      <c r="BA5" s="2">
+        <v>215</v>
+      </c>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -1096,8 +1105,11 @@
       <c r="AZ6" s="2">
         <v>72</v>
       </c>
+      <c r="BA6" s="2">
+        <v>72</v>
+      </c>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -1254,8 +1266,11 @@
       <c r="AZ7" s="2">
         <v>160</v>
       </c>
+      <c r="BA7" s="2">
+        <v>160</v>
+      </c>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1412,8 +1427,11 @@
       <c r="AZ8" s="2">
         <v>63</v>
       </c>
+      <c r="BA8" s="2">
+        <v>64</v>
+      </c>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1570,8 +1588,11 @@
       <c r="AZ9" s="2">
         <v>89</v>
       </c>
+      <c r="BA9" s="2">
+        <v>89</v>
+      </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -1728,8 +1749,11 @@
       <c r="AZ10" s="2">
         <v>35</v>
       </c>
+      <c r="BA10" s="2">
+        <v>37</v>
+      </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -1886,8 +1910,11 @@
       <c r="AZ11" s="2">
         <v>50</v>
       </c>
+      <c r="BA11" s="2">
+        <v>50</v>
+      </c>
     </row>
-    <row r="12" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:53" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -2047,16 +2074,20 @@
         <f>SUM(AZ4:AZ11)</f>
         <v>722</v>
       </c>
+      <c r="BA12" s="3">
+        <f>SUM(BA4:BA11)</f>
+        <v>728</v>
+      </c>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -2069,11 +2100,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001C2592-E91A-4D15-BF1F-41D54F92301C}">
-  <dimension ref="A1:AZ15"/>
+  <dimension ref="A1:BA15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AZ1" sqref="AZ1:AZ1048576"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2082,16 +2113,16 @@
     <col min="2" max="18" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
     <col min="28" max="48" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="52" width="7.265625" style="2" customWidth="1"/>
-    <col min="53" max="16384" width="9.06640625" style="2"/>
+    <col min="49" max="53" width="7.265625" style="2" customWidth="1"/>
+    <col min="54" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:52" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -2248,8 +2279,11 @@
       <c r="AZ3" s="5">
         <v>44016</v>
       </c>
+      <c r="BA3" s="5">
+        <v>44017</v>
+      </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -2406,8 +2440,11 @@
       <c r="AZ4" s="2">
         <v>337</v>
       </c>
+      <c r="BA4" s="2">
+        <v>337</v>
+      </c>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -2564,8 +2601,11 @@
       <c r="AZ5" s="2">
         <v>1808</v>
       </c>
+      <c r="BA5" s="2">
+        <v>1860</v>
+      </c>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -2722,8 +2762,11 @@
       <c r="AZ6" s="2">
         <v>671</v>
       </c>
+      <c r="BA6" s="2">
+        <v>691</v>
+      </c>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -2880,8 +2923,11 @@
       <c r="AZ7" s="2">
         <v>1849</v>
       </c>
+      <c r="BA7" s="2">
+        <v>1883</v>
+      </c>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -3038,8 +3084,11 @@
       <c r="AZ8" s="2">
         <v>707</v>
       </c>
+      <c r="BA8" s="2">
+        <v>707</v>
+      </c>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -3196,8 +3245,11 @@
       <c r="AZ9" s="2">
         <v>381</v>
       </c>
+      <c r="BA9" s="2">
+        <v>381</v>
+      </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -3354,8 +3406,11 @@
       <c r="AZ10" s="2">
         <v>443</v>
       </c>
+      <c r="BA10" s="2">
+        <v>452</v>
+      </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -3512,8 +3567,11 @@
       <c r="AZ11" s="2">
         <v>276</v>
       </c>
+      <c r="BA11" s="2">
+        <v>276</v>
+      </c>
     </row>
-    <row r="12" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:53" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -3670,16 +3728,19 @@
       <c r="AZ12" s="3">
         <v>6472</v>
       </c>
+      <c r="BA12" s="3">
+        <v>6587</v>
+      </c>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -3692,11 +3753,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC07078-FDB2-4744-9C93-DA564120E1E6}">
-  <dimension ref="A1:AZ15"/>
+  <dimension ref="A1:BA15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AZ1" sqref="AZ1:AZ1048576"/>
+      <selection pane="topRight" activeCell="AW6" sqref="AW6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -3704,16 +3765,16 @@
     <col min="1" max="1" width="19.33203125" style="2" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="52" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="9.06640625" style="2"/>
+    <col min="28" max="53" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="54" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:52" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -3870,8 +3931,11 @@
       <c r="AZ3" s="5">
         <v>44016</v>
       </c>
+      <c r="BA3" s="5">
+        <v>44017</v>
+      </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -4028,8 +4092,11 @@
       <c r="AZ4" s="2">
         <v>75</v>
       </c>
+      <c r="BA4" s="2">
+        <v>75</v>
+      </c>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -4186,8 +4253,11 @@
       <c r="AZ5" s="2">
         <v>271</v>
       </c>
+      <c r="BA5" s="2">
+        <v>272</v>
+      </c>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -4344,8 +4414,11 @@
       <c r="AZ6" s="2">
         <v>121</v>
       </c>
+      <c r="BA6" s="2">
+        <v>121</v>
+      </c>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -4502,8 +4575,11 @@
       <c r="AZ7" s="2">
         <v>237</v>
       </c>
+      <c r="BA7" s="2">
+        <v>239</v>
+      </c>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -4660,8 +4736,11 @@
       <c r="AZ8" s="2">
         <v>131</v>
       </c>
+      <c r="BA8" s="2">
+        <v>131</v>
+      </c>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -4818,8 +4897,11 @@
       <c r="AZ9" s="2">
         <v>35</v>
       </c>
+      <c r="BA9" s="2">
+        <v>35</v>
+      </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -4976,8 +5058,11 @@
       <c r="AZ10" s="2">
         <v>62</v>
       </c>
+      <c r="BA10" s="2">
+        <v>63</v>
+      </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -5134,8 +5219,11 @@
       <c r="AZ11" s="2">
         <v>42</v>
       </c>
+      <c r="BA11" s="2">
+        <v>42</v>
+      </c>
     </row>
-    <row r="12" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:53" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -5293,16 +5381,20 @@
       <c r="AZ12" s="3">
         <v>974</v>
       </c>
+      <c r="BA12" s="3">
+        <f>SUM(BA4:BA11)</f>
+        <v>978</v>
+      </c>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -5314,11 +5406,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCD14BD-3EDB-4A02-AA3B-BFB82E165626}">
-  <dimension ref="A1:AZ16"/>
+  <dimension ref="A1:BA16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AZ1" sqref="AZ1:AZ1048576"/>
+      <selection pane="topRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -5326,16 +5418,16 @@
     <col min="1" max="1" width="19.33203125" style="2" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="52" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="9.06640625" style="2"/>
+    <col min="28" max="53" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="54" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:52" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -5492,8 +5584,11 @@
       <c r="AZ3" s="5">
         <v>44016</v>
       </c>
+      <c r="BA3" s="5">
+        <v>44017</v>
+      </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -5650,8 +5745,11 @@
       <c r="AZ4" s="2">
         <v>216</v>
       </c>
+      <c r="BA4" s="2">
+        <v>216</v>
+      </c>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -5808,8 +5906,11 @@
       <c r="AZ5" s="2">
         <v>945</v>
       </c>
+      <c r="BA5" s="2">
+        <v>955</v>
+      </c>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -5966,8 +6067,11 @@
       <c r="AZ6" s="2">
         <v>342</v>
       </c>
+      <c r="BA6" s="2">
+        <v>342</v>
+      </c>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -6124,8 +6228,11 @@
       <c r="AZ7" s="2">
         <v>641</v>
       </c>
+      <c r="BA7" s="2">
+        <v>642</v>
+      </c>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -6282,8 +6389,11 @@
       <c r="AZ8" s="2">
         <v>349</v>
       </c>
+      <c r="BA8" s="2">
+        <v>349</v>
+      </c>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -6440,8 +6550,11 @@
       <c r="AZ9" s="2">
         <v>146</v>
       </c>
+      <c r="BA9" s="2">
+        <v>146</v>
+      </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -6598,8 +6711,11 @@
       <c r="AZ10" s="2">
         <v>187</v>
       </c>
+      <c r="BA10" s="2">
+        <v>212</v>
+      </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -6756,8 +6872,11 @@
       <c r="AZ11" s="2">
         <v>113</v>
       </c>
+      <c r="BA11" s="2">
+        <v>113</v>
+      </c>
     </row>
-    <row r="12" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:53" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -6914,18 +7033,21 @@
       <c r="AZ12" s="3">
         <v>2939</v>
       </c>
+      <c r="BA12" s="3">
+        <v>2975</v>
+      </c>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>

--- a/original-sources/DSHS_nursing.xlsx
+++ b/original-sources/DSHS_nursing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B6564FCB-E503-48EC-9C0E-FBC7545118A5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{92C49C3A-65BE-41A9-8B66-927F100BC827}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8630" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Fatalities" sheetId="2" r:id="rId3"/>
     <sheet name="Recoveries" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -443,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36587124-AB08-4074-9D3F-CC49D1169958}">
-  <dimension ref="A1:BA15"/>
+  <dimension ref="A1:BB15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -456,16 +456,16 @@
     <col min="2" max="18" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
     <col min="28" max="48" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="53" width="6.86328125" style="2" customWidth="1"/>
-    <col min="54" max="16384" width="9.06640625" style="2"/>
+    <col min="49" max="54" width="6.86328125" style="2" customWidth="1"/>
+    <col min="55" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:54" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -625,8 +625,11 @@
       <c r="BA3" s="5">
         <v>44017</v>
       </c>
+      <c r="BB3" s="5">
+        <v>44018</v>
+      </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -786,8 +789,11 @@
       <c r="BA4" s="2">
         <v>41</v>
       </c>
+      <c r="BB4" s="2">
+        <v>41</v>
+      </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -947,8 +953,11 @@
       <c r="BA5" s="2">
         <v>215</v>
       </c>
+      <c r="BB5" s="2">
+        <v>219</v>
+      </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -1108,8 +1117,11 @@
       <c r="BA6" s="2">
         <v>72</v>
       </c>
+      <c r="BB6" s="2">
+        <v>76</v>
+      </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -1269,8 +1281,11 @@
       <c r="BA7" s="2">
         <v>160</v>
       </c>
+      <c r="BB7" s="2">
+        <v>160</v>
+      </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1430,8 +1445,11 @@
       <c r="BA8" s="2">
         <v>64</v>
       </c>
+      <c r="BB8" s="2">
+        <v>69</v>
+      </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1591,8 +1609,11 @@
       <c r="BA9" s="2">
         <v>89</v>
       </c>
+      <c r="BB9" s="2">
+        <v>89</v>
+      </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -1752,8 +1773,11 @@
       <c r="BA10" s="2">
         <v>37</v>
       </c>
+      <c r="BB10" s="2">
+        <v>37</v>
+      </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -1913,8 +1937,11 @@
       <c r="BA11" s="2">
         <v>50</v>
       </c>
+      <c r="BB11" s="2">
+        <v>50</v>
+      </c>
     </row>
-    <row r="12" spans="1:53" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -2078,16 +2105,19 @@
         <f>SUM(BA4:BA11)</f>
         <v>728</v>
       </c>
+      <c r="BB12" s="3">
+        <v>741</v>
+      </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.3">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -2100,11 +2130,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001C2592-E91A-4D15-BF1F-41D54F92301C}">
-  <dimension ref="A1:BA15"/>
+  <dimension ref="A1:BB15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="AO8" sqref="AO8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2113,16 +2143,16 @@
     <col min="2" max="18" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
     <col min="28" max="48" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="53" width="7.265625" style="2" customWidth="1"/>
-    <col min="54" max="16384" width="9.06640625" style="2"/>
+    <col min="49" max="54" width="7.265625" style="2" customWidth="1"/>
+    <col min="55" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:54" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -2282,8 +2312,11 @@
       <c r="BA3" s="5">
         <v>44017</v>
       </c>
+      <c r="BB3" s="5">
+        <v>44018</v>
+      </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -2443,8 +2476,11 @@
       <c r="BA4" s="2">
         <v>337</v>
       </c>
+      <c r="BB4" s="2">
+        <v>338</v>
+      </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -2604,8 +2640,11 @@
       <c r="BA5" s="2">
         <v>1860</v>
       </c>
+      <c r="BB5" s="2">
+        <v>1880</v>
+      </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -2765,8 +2804,11 @@
       <c r="BA6" s="2">
         <v>691</v>
       </c>
+      <c r="BB6" s="2">
+        <v>715</v>
+      </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -2926,8 +2968,11 @@
       <c r="BA7" s="2">
         <v>1883</v>
       </c>
+      <c r="BB7" s="2">
+        <v>1889</v>
+      </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -3087,8 +3132,11 @@
       <c r="BA8" s="2">
         <v>707</v>
       </c>
+      <c r="BB8" s="2">
+        <v>716</v>
+      </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -3248,8 +3296,11 @@
       <c r="BA9" s="2">
         <v>381</v>
       </c>
+      <c r="BB9" s="2">
+        <v>381</v>
+      </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -3409,8 +3460,11 @@
       <c r="BA10" s="2">
         <v>452</v>
       </c>
+      <c r="BB10" s="2">
+        <v>458</v>
+      </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -3570,8 +3624,11 @@
       <c r="BA11" s="2">
         <v>276</v>
       </c>
+      <c r="BB11" s="2">
+        <v>276</v>
+      </c>
     </row>
-    <row r="12" spans="1:53" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -3731,16 +3788,19 @@
       <c r="BA12" s="3">
         <v>6587</v>
       </c>
+      <c r="BB12" s="3">
+        <v>6653</v>
+      </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.3">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -3753,11 +3813,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC07078-FDB2-4744-9C93-DA564120E1E6}">
-  <dimension ref="A1:BA15"/>
+  <dimension ref="A1:BB15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AW6" sqref="AW6"/>
+      <selection pane="topRight" activeCell="AZ5" sqref="AZ5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -3765,16 +3825,16 @@
     <col min="1" max="1" width="19.33203125" style="2" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="53" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="54" max="16384" width="9.06640625" style="2"/>
+    <col min="28" max="54" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="55" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:54" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -3934,8 +3994,11 @@
       <c r="BA3" s="5">
         <v>44017</v>
       </c>
+      <c r="BB3" s="5">
+        <v>44018</v>
+      </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -4095,8 +4158,11 @@
       <c r="BA4" s="2">
         <v>75</v>
       </c>
+      <c r="BB4" s="2">
+        <v>75</v>
+      </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -4256,8 +4322,11 @@
       <c r="BA5" s="2">
         <v>272</v>
       </c>
+      <c r="BB5" s="2">
+        <v>274</v>
+      </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -4417,8 +4486,11 @@
       <c r="BA6" s="2">
         <v>121</v>
       </c>
+      <c r="BB6" s="2">
+        <v>128</v>
+      </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -4578,8 +4650,11 @@
       <c r="BA7" s="2">
         <v>239</v>
       </c>
+      <c r="BB7" s="2">
+        <v>243</v>
+      </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -4739,8 +4814,11 @@
       <c r="BA8" s="2">
         <v>131</v>
       </c>
+      <c r="BB8" s="2">
+        <v>131</v>
+      </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -4900,8 +4978,11 @@
       <c r="BA9" s="2">
         <v>35</v>
       </c>
+      <c r="BB9" s="2">
+        <v>35</v>
+      </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -5061,8 +5142,11 @@
       <c r="BA10" s="2">
         <v>63</v>
       </c>
+      <c r="BB10" s="2">
+        <v>62</v>
+      </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -5222,8 +5306,11 @@
       <c r="BA11" s="2">
         <v>42</v>
       </c>
+      <c r="BB11" s="2">
+        <v>42</v>
+      </c>
     </row>
-    <row r="12" spans="1:53" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -5385,16 +5472,19 @@
         <f>SUM(BA4:BA11)</f>
         <v>978</v>
       </c>
+      <c r="BB12" s="3">
+        <v>990</v>
+      </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.3">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -5406,11 +5496,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCD14BD-3EDB-4A02-AA3B-BFB82E165626}">
-  <dimension ref="A1:BA16"/>
+  <dimension ref="A1:BB16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B4" sqref="B4"/>
+      <selection pane="topRight" activeCell="BB6" sqref="BB6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -5418,16 +5508,16 @@
     <col min="1" max="1" width="19.33203125" style="2" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="53" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="54" max="16384" width="9.06640625" style="2"/>
+    <col min="28" max="54" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="55" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:54" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -5587,8 +5677,11 @@
       <c r="BA3" s="5">
         <v>44017</v>
       </c>
+      <c r="BB3" s="5">
+        <v>44018</v>
+      </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -5748,8 +5841,11 @@
       <c r="BA4" s="2">
         <v>216</v>
       </c>
+      <c r="BB4" s="2">
+        <v>216</v>
+      </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -5909,8 +6005,11 @@
       <c r="BA5" s="2">
         <v>955</v>
       </c>
+      <c r="BB5" s="2">
+        <v>955</v>
+      </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -6070,8 +6169,11 @@
       <c r="BA6" s="2">
         <v>342</v>
       </c>
+      <c r="BB6" s="2">
+        <v>355</v>
+      </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -6231,8 +6333,11 @@
       <c r="BA7" s="2">
         <v>642</v>
       </c>
+      <c r="BB7" s="2">
+        <v>643</v>
+      </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -6392,8 +6497,11 @@
       <c r="BA8" s="2">
         <v>349</v>
       </c>
+      <c r="BB8" s="2">
+        <v>353</v>
+      </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -6553,8 +6661,11 @@
       <c r="BA9" s="2">
         <v>146</v>
       </c>
+      <c r="BB9" s="2">
+        <v>146</v>
+      </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -6714,8 +6825,11 @@
       <c r="BA10" s="2">
         <v>212</v>
       </c>
+      <c r="BB10" s="2">
+        <v>212</v>
+      </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -6875,8 +6989,11 @@
       <c r="BA11" s="2">
         <v>113</v>
       </c>
+      <c r="BB11" s="2">
+        <v>113</v>
+      </c>
     </row>
-    <row r="12" spans="1:53" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -7036,18 +7153,21 @@
       <c r="BA12" s="3">
         <v>2975</v>
       </c>
+      <c r="BB12" s="3">
+        <v>2993</v>
+      </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>

--- a/original-sources/DSHS_nursing.xlsx
+++ b/original-sources/DSHS_nursing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{92C49C3A-65BE-41A9-8B66-927F100BC827}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{262895AE-CC51-4BDB-9C27-24F8B3DFD17F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8630" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
   </bookViews>
@@ -443,11 +443,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36587124-AB08-4074-9D3F-CC49D1169958}">
-  <dimension ref="A1:BB15"/>
+  <dimension ref="A1:BC15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -456,16 +456,16 @@
     <col min="2" max="18" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
     <col min="28" max="48" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="54" width="6.86328125" style="2" customWidth="1"/>
-    <col min="55" max="16384" width="9.06640625" style="2"/>
+    <col min="49" max="55" width="6.86328125" style="2" customWidth="1"/>
+    <col min="56" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:54" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:55" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -628,8 +628,11 @@
       <c r="BB3" s="5">
         <v>44018</v>
       </c>
+      <c r="BC3" s="5">
+        <v>44019</v>
+      </c>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -792,8 +795,11 @@
       <c r="BB4" s="2">
         <v>41</v>
       </c>
+      <c r="BC4" s="2">
+        <v>44</v>
+      </c>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -956,8 +962,11 @@
       <c r="BB5" s="2">
         <v>219</v>
       </c>
+      <c r="BC5" s="2">
+        <v>225</v>
+      </c>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -1120,8 +1129,11 @@
       <c r="BB6" s="2">
         <v>76</v>
       </c>
+      <c r="BC6" s="2">
+        <v>76</v>
+      </c>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -1284,8 +1296,11 @@
       <c r="BB7" s="2">
         <v>160</v>
       </c>
+      <c r="BC7" s="2">
+        <v>161</v>
+      </c>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1448,8 +1463,11 @@
       <c r="BB8" s="2">
         <v>69</v>
       </c>
+      <c r="BC8" s="2">
+        <v>70</v>
+      </c>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1612,8 +1630,11 @@
       <c r="BB9" s="2">
         <v>89</v>
       </c>
+      <c r="BC9" s="2">
+        <v>89</v>
+      </c>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -1776,8 +1797,11 @@
       <c r="BB10" s="2">
         <v>37</v>
       </c>
+      <c r="BC10" s="2">
+        <v>38</v>
+      </c>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -1940,8 +1964,11 @@
       <c r="BB11" s="2">
         <v>50</v>
       </c>
+      <c r="BC11" s="2">
+        <v>50</v>
+      </c>
     </row>
-    <row r="12" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:55" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -2108,16 +2135,19 @@
       <c r="BB12" s="3">
         <v>741</v>
       </c>
+      <c r="BC12" s="3">
+        <v>753</v>
+      </c>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.3">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -2130,11 +2160,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001C2592-E91A-4D15-BF1F-41D54F92301C}">
-  <dimension ref="A1:BB15"/>
+  <dimension ref="A1:BC15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AO8" sqref="AO8"/>
+      <selection pane="topRight" activeCell="BB15" sqref="BB15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2143,16 +2173,16 @@
     <col min="2" max="18" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
     <col min="28" max="48" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="54" width="7.265625" style="2" customWidth="1"/>
-    <col min="55" max="16384" width="9.06640625" style="2"/>
+    <col min="49" max="55" width="7.265625" style="2" customWidth="1"/>
+    <col min="56" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:54" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:55" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -2315,8 +2345,11 @@
       <c r="BB3" s="5">
         <v>44018</v>
       </c>
+      <c r="BC3" s="5">
+        <v>44019</v>
+      </c>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -2479,8 +2512,11 @@
       <c r="BB4" s="2">
         <v>338</v>
       </c>
+      <c r="BC4" s="2">
+        <v>346</v>
+      </c>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -2643,8 +2679,11 @@
       <c r="BB5" s="2">
         <v>1880</v>
       </c>
+      <c r="BC5" s="2">
+        <v>1959</v>
+      </c>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -2807,8 +2846,11 @@
       <c r="BB6" s="2">
         <v>715</v>
       </c>
+      <c r="BC6" s="2">
+        <v>732</v>
+      </c>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -2971,8 +3013,11 @@
       <c r="BB7" s="2">
         <v>1889</v>
       </c>
+      <c r="BC7" s="2">
+        <v>1969</v>
+      </c>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -3135,8 +3180,11 @@
       <c r="BB8" s="2">
         <v>716</v>
       </c>
+      <c r="BC8" s="2">
+        <v>721</v>
+      </c>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -3299,8 +3347,11 @@
       <c r="BB9" s="2">
         <v>381</v>
       </c>
+      <c r="BC9" s="2">
+        <v>381</v>
+      </c>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -3463,8 +3514,11 @@
       <c r="BB10" s="2">
         <v>458</v>
       </c>
+      <c r="BC10" s="2">
+        <v>473</v>
+      </c>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -3627,8 +3681,11 @@
       <c r="BB11" s="2">
         <v>276</v>
       </c>
+      <c r="BC11" s="2">
+        <v>276</v>
+      </c>
     </row>
-    <row r="12" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:55" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -3791,16 +3848,19 @@
       <c r="BB12" s="3">
         <v>6653</v>
       </c>
+      <c r="BC12" s="3">
+        <v>6857</v>
+      </c>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.3">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -3813,11 +3873,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC07078-FDB2-4744-9C93-DA564120E1E6}">
-  <dimension ref="A1:BB15"/>
+  <dimension ref="A1:BC15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AZ5" sqref="AZ5"/>
+      <selection pane="topRight" activeCell="AT15" sqref="AT15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -3825,16 +3885,16 @@
     <col min="1" max="1" width="19.33203125" style="2" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="54" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="55" max="16384" width="9.06640625" style="2"/>
+    <col min="28" max="55" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="56" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:54" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:55" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -3997,8 +4057,11 @@
       <c r="BB3" s="5">
         <v>44018</v>
       </c>
+      <c r="BC3" s="5">
+        <v>44019</v>
+      </c>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -4161,8 +4224,11 @@
       <c r="BB4" s="2">
         <v>75</v>
       </c>
+      <c r="BC4" s="2">
+        <v>77</v>
+      </c>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -4325,8 +4391,11 @@
       <c r="BB5" s="2">
         <v>274</v>
       </c>
+      <c r="BC5" s="2">
+        <v>281</v>
+      </c>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -4489,8 +4558,11 @@
       <c r="BB6" s="2">
         <v>128</v>
       </c>
+      <c r="BC6" s="2">
+        <v>128</v>
+      </c>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -4653,8 +4725,11 @@
       <c r="BB7" s="2">
         <v>243</v>
       </c>
+      <c r="BC7" s="2">
+        <v>245</v>
+      </c>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -4817,8 +4892,11 @@
       <c r="BB8" s="2">
         <v>131</v>
       </c>
+      <c r="BC8" s="2">
+        <v>132</v>
+      </c>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -4981,8 +5059,11 @@
       <c r="BB9" s="2">
         <v>35</v>
       </c>
+      <c r="BC9" s="2">
+        <v>35</v>
+      </c>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -5145,8 +5226,11 @@
       <c r="BB10" s="2">
         <v>62</v>
       </c>
+      <c r="BC10" s="2">
+        <v>63</v>
+      </c>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -5309,8 +5393,11 @@
       <c r="BB11" s="2">
         <v>42</v>
       </c>
+      <c r="BC11" s="2">
+        <v>42</v>
+      </c>
     </row>
-    <row r="12" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:55" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -5475,16 +5562,19 @@
       <c r="BB12" s="3">
         <v>990</v>
       </c>
+      <c r="BC12" s="3">
+        <v>1003</v>
+      </c>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.3">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -5496,11 +5586,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCD14BD-3EDB-4A02-AA3B-BFB82E165626}">
-  <dimension ref="A1:BB16"/>
+  <dimension ref="A1:BC16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BB6" sqref="BB6"/>
+      <selection pane="topRight" activeCell="BC1" sqref="BC1:BC1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -5508,16 +5598,16 @@
     <col min="1" max="1" width="19.33203125" style="2" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="54" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="55" max="16384" width="9.06640625" style="2"/>
+    <col min="28" max="55" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="56" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:54" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:55" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -5680,8 +5770,11 @@
       <c r="BB3" s="5">
         <v>44018</v>
       </c>
+      <c r="BC3" s="5">
+        <v>44019</v>
+      </c>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -5844,8 +5937,11 @@
       <c r="BB4" s="2">
         <v>216</v>
       </c>
+      <c r="BC4" s="2">
+        <v>219</v>
+      </c>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -6008,8 +6104,11 @@
       <c r="BB5" s="2">
         <v>955</v>
       </c>
+      <c r="BC5" s="2">
+        <v>981</v>
+      </c>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -6172,8 +6271,11 @@
       <c r="BB6" s="2">
         <v>355</v>
       </c>
+      <c r="BC6" s="2">
+        <v>355</v>
+      </c>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -6336,8 +6438,11 @@
       <c r="BB7" s="2">
         <v>643</v>
       </c>
+      <c r="BC7" s="2">
+        <v>651</v>
+      </c>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -6500,8 +6605,11 @@
       <c r="BB8" s="2">
         <v>353</v>
       </c>
+      <c r="BC8" s="2">
+        <v>353</v>
+      </c>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -6664,8 +6772,11 @@
       <c r="BB9" s="2">
         <v>146</v>
       </c>
+      <c r="BC9" s="2">
+        <v>146</v>
+      </c>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -6828,8 +6939,11 @@
       <c r="BB10" s="2">
         <v>212</v>
       </c>
+      <c r="BC10" s="2">
+        <v>216</v>
+      </c>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -6992,8 +7106,11 @@
       <c r="BB11" s="2">
         <v>113</v>
       </c>
+      <c r="BC11" s="2">
+        <v>113</v>
+      </c>
     </row>
-    <row r="12" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:55" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -7156,18 +7273,21 @@
       <c r="BB12" s="3">
         <v>2993</v>
       </c>
+      <c r="BC12" s="3">
+        <v>3034</v>
+      </c>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>

--- a/original-sources/DSHS_nursing.xlsx
+++ b/original-sources/DSHS_nursing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{262895AE-CC51-4BDB-9C27-24F8B3DFD17F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1A862F6D-2A3A-407D-9A4C-F66D47DB9BAE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8630" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
   </bookViews>
@@ -443,11 +443,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36587124-AB08-4074-9D3F-CC49D1169958}">
-  <dimension ref="A1:BC15"/>
+  <dimension ref="A1:BD15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -456,16 +456,16 @@
     <col min="2" max="18" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
     <col min="28" max="48" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="55" width="6.86328125" style="2" customWidth="1"/>
-    <col min="56" max="16384" width="9.06640625" style="2"/>
+    <col min="49" max="56" width="6.86328125" style="2" customWidth="1"/>
+    <col min="57" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:55" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:56" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -631,8 +631,11 @@
       <c r="BC3" s="5">
         <v>44019</v>
       </c>
+      <c r="BD3" s="5">
+        <v>44020</v>
+      </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -798,8 +801,11 @@
       <c r="BC4" s="2">
         <v>44</v>
       </c>
+      <c r="BD4" s="2">
+        <v>44</v>
+      </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -965,8 +971,11 @@
       <c r="BC5" s="2">
         <v>225</v>
       </c>
+      <c r="BD5" s="2">
+        <v>229</v>
+      </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -1132,8 +1141,11 @@
       <c r="BC6" s="2">
         <v>76</v>
       </c>
+      <c r="BD6" s="2">
+        <v>77</v>
+      </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -1299,8 +1311,11 @@
       <c r="BC7" s="2">
         <v>161</v>
       </c>
+      <c r="BD7" s="2">
+        <v>163</v>
+      </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1466,8 +1481,11 @@
       <c r="BC8" s="2">
         <v>70</v>
       </c>
+      <c r="BD8" s="2">
+        <v>71</v>
+      </c>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1633,8 +1651,11 @@
       <c r="BC9" s="2">
         <v>89</v>
       </c>
+      <c r="BD9" s="2">
+        <v>89</v>
+      </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -1800,8 +1821,11 @@
       <c r="BC10" s="2">
         <v>38</v>
       </c>
+      <c r="BD10" s="2">
+        <v>40</v>
+      </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -1967,8 +1991,11 @@
       <c r="BC11" s="2">
         <v>50</v>
       </c>
+      <c r="BD11" s="2">
+        <v>50</v>
+      </c>
     </row>
-    <row r="12" spans="1:55" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:56" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -2138,16 +2165,19 @@
       <c r="BC12" s="3">
         <v>753</v>
       </c>
+      <c r="BD12" s="3">
+        <v>763</v>
+      </c>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:56" x14ac:dyDescent="0.3">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -2160,11 +2190,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001C2592-E91A-4D15-BF1F-41D54F92301C}">
-  <dimension ref="A1:BC15"/>
+  <dimension ref="A1:BD15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BB15" sqref="BB15"/>
+      <selection pane="topRight" activeCell="BC3" sqref="BC3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2173,16 +2203,16 @@
     <col min="2" max="18" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
     <col min="28" max="48" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="55" width="7.265625" style="2" customWidth="1"/>
-    <col min="56" max="16384" width="9.06640625" style="2"/>
+    <col min="49" max="56" width="7.265625" style="2" customWidth="1"/>
+    <col min="57" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:55" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:56" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -2348,8 +2378,11 @@
       <c r="BC3" s="5">
         <v>44019</v>
       </c>
+      <c r="BD3" s="5">
+        <v>44020</v>
+      </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -2515,8 +2548,11 @@
       <c r="BC4" s="2">
         <v>346</v>
       </c>
+      <c r="BD4" s="2">
+        <v>366</v>
+      </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -2682,8 +2718,11 @@
       <c r="BC5" s="2">
         <v>1959</v>
       </c>
+      <c r="BD5" s="2">
+        <v>2017</v>
+      </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -2849,8 +2888,11 @@
       <c r="BC6" s="2">
         <v>732</v>
       </c>
+      <c r="BD6" s="2">
+        <v>736</v>
+      </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -3016,8 +3058,11 @@
       <c r="BC7" s="2">
         <v>1969</v>
       </c>
+      <c r="BD7" s="2">
+        <v>2003</v>
+      </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -3183,8 +3228,11 @@
       <c r="BC8" s="2">
         <v>721</v>
       </c>
+      <c r="BD8" s="2">
+        <v>729</v>
+      </c>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -3350,8 +3398,11 @@
       <c r="BC9" s="2">
         <v>381</v>
       </c>
+      <c r="BD9" s="2">
+        <v>381</v>
+      </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -3517,8 +3568,11 @@
       <c r="BC10" s="2">
         <v>473</v>
       </c>
+      <c r="BD10" s="2">
+        <v>514</v>
+      </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -3684,8 +3738,11 @@
       <c r="BC11" s="2">
         <v>276</v>
       </c>
+      <c r="BD11" s="2">
+        <v>276</v>
+      </c>
     </row>
-    <row r="12" spans="1:55" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:56" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -3851,16 +3908,19 @@
       <c r="BC12" s="3">
         <v>6857</v>
       </c>
+      <c r="BD12" s="3">
+        <v>7022</v>
+      </c>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:56" x14ac:dyDescent="0.3">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -3873,11 +3933,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC07078-FDB2-4744-9C93-DA564120E1E6}">
-  <dimension ref="A1:BC15"/>
+  <dimension ref="A1:BD15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AT15" sqref="AT15"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -3885,16 +3945,16 @@
     <col min="1" max="1" width="19.33203125" style="2" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="55" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="56" max="16384" width="9.06640625" style="2"/>
+    <col min="28" max="56" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="57" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:55" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:56" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -4060,8 +4120,11 @@
       <c r="BC3" s="5">
         <v>44019</v>
       </c>
+      <c r="BD3" s="5">
+        <v>44020</v>
+      </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -4227,8 +4290,11 @@
       <c r="BC4" s="2">
         <v>77</v>
       </c>
+      <c r="BD4" s="2">
+        <v>78</v>
+      </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -4394,8 +4460,11 @@
       <c r="BC5" s="2">
         <v>281</v>
       </c>
+      <c r="BD5" s="2">
+        <v>283</v>
+      </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -4561,8 +4630,11 @@
       <c r="BC6" s="2">
         <v>128</v>
       </c>
+      <c r="BD6" s="2">
+        <v>128</v>
+      </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -4728,8 +4800,11 @@
       <c r="BC7" s="2">
         <v>245</v>
       </c>
+      <c r="BD7" s="2">
+        <v>248</v>
+      </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -4895,8 +4970,11 @@
       <c r="BC8" s="2">
         <v>132</v>
       </c>
+      <c r="BD8" s="2">
+        <v>133</v>
+      </c>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -5062,8 +5140,11 @@
       <c r="BC9" s="2">
         <v>35</v>
       </c>
+      <c r="BD9" s="2">
+        <v>35</v>
+      </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -5229,8 +5310,11 @@
       <c r="BC10" s="2">
         <v>63</v>
       </c>
+      <c r="BD10" s="2">
+        <v>80</v>
+      </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -5396,8 +5480,11 @@
       <c r="BC11" s="2">
         <v>42</v>
       </c>
+      <c r="BD11" s="2">
+        <v>42</v>
+      </c>
     </row>
-    <row r="12" spans="1:55" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:56" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -5565,16 +5652,19 @@
       <c r="BC12" s="3">
         <v>1003</v>
       </c>
+      <c r="BD12" s="3">
+        <v>1027</v>
+      </c>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:56" x14ac:dyDescent="0.3">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -5586,11 +5676,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCD14BD-3EDB-4A02-AA3B-BFB82E165626}">
-  <dimension ref="A1:BC16"/>
+  <dimension ref="A1:BD16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BC1" sqref="BC1:BC1048576"/>
+      <selection pane="topRight" activeCell="BD15" sqref="BD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -5598,16 +5688,16 @@
     <col min="1" max="1" width="19.33203125" style="2" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="55" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="56" max="16384" width="9.06640625" style="2"/>
+    <col min="28" max="56" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="57" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:55" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:56" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -5773,8 +5863,11 @@
       <c r="BC3" s="5">
         <v>44019</v>
       </c>
+      <c r="BD3" s="5">
+        <v>44020</v>
+      </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -5940,8 +6033,11 @@
       <c r="BC4" s="2">
         <v>219</v>
       </c>
+      <c r="BD4" s="2">
+        <v>219</v>
+      </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -6107,8 +6203,11 @@
       <c r="BC5" s="2">
         <v>981</v>
       </c>
+      <c r="BD5" s="2">
+        <v>986</v>
+      </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -6274,8 +6373,11 @@
       <c r="BC6" s="2">
         <v>355</v>
       </c>
+      <c r="BD6" s="2">
+        <v>355</v>
+      </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -6441,8 +6543,11 @@
       <c r="BC7" s="2">
         <v>651</v>
       </c>
+      <c r="BD7" s="2">
+        <v>662</v>
+      </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -6608,8 +6713,11 @@
       <c r="BC8" s="2">
         <v>353</v>
       </c>
+      <c r="BD8" s="2">
+        <v>357</v>
+      </c>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -6775,8 +6883,11 @@
       <c r="BC9" s="2">
         <v>146</v>
       </c>
+      <c r="BD9" s="2">
+        <v>146</v>
+      </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -6942,8 +7053,11 @@
       <c r="BC10" s="2">
         <v>216</v>
       </c>
+      <c r="BD10" s="2">
+        <v>217</v>
+      </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -7109,8 +7223,11 @@
       <c r="BC11" s="2">
         <v>113</v>
       </c>
+      <c r="BD11" s="2">
+        <v>113</v>
+      </c>
     </row>
-    <row r="12" spans="1:55" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:56" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -7276,18 +7393,21 @@
       <c r="BC12" s="3">
         <v>3034</v>
       </c>
+      <c r="BD12" s="3">
+        <v>3055</v>
+      </c>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>

--- a/original-sources/DSHS_nursing.xlsx
+++ b/original-sources/DSHS_nursing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1A862F6D-2A3A-407D-9A4C-F66D47DB9BAE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0B68A720-BB50-43D7-8F55-6792B6938F02}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8630" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="16">
   <si>
     <t>4/5N</t>
   </si>
@@ -71,6 +71,12 @@
   <si>
     <t>Recoveries are determined by daily facility reports.</t>
   </si>
+  <si>
+    <t>The above table contains cumulative data on nursing homes with one or more confirmed COVID-19 cases.</t>
+  </si>
+  <si>
+    <t>The above able does not show the number of new/active cases.</t>
+  </si>
 </sst>
 </file>
 
@@ -79,7 +85,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -98,6 +104,12 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -120,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -129,6 +141,9 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36587124-AB08-4074-9D3F-CC49D1169958}">
-  <dimension ref="A1:BD15"/>
+  <dimension ref="A1:BE15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -456,16 +471,16 @@
     <col min="2" max="18" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
     <col min="28" max="48" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="56" width="6.86328125" style="2" customWidth="1"/>
-    <col min="57" max="16384" width="9.06640625" style="2"/>
+    <col min="49" max="57" width="6.86328125" style="2" customWidth="1"/>
+    <col min="58" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:56" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:57" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -634,8 +649,11 @@
       <c r="BD3" s="5">
         <v>44020</v>
       </c>
+      <c r="BE3" s="5">
+        <v>44021</v>
+      </c>
     </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -804,8 +822,11 @@
       <c r="BD4" s="2">
         <v>44</v>
       </c>
+      <c r="BE4" s="2">
+        <v>45</v>
+      </c>
     </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -974,8 +995,11 @@
       <c r="BD5" s="2">
         <v>229</v>
       </c>
+      <c r="BE5" s="2">
+        <v>230</v>
+      </c>
     </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -1144,8 +1168,11 @@
       <c r="BD6" s="2">
         <v>77</v>
       </c>
+      <c r="BE6" s="2">
+        <v>80</v>
+      </c>
     </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -1314,8 +1341,11 @@
       <c r="BD7" s="2">
         <v>163</v>
       </c>
+      <c r="BE7" s="2">
+        <v>164</v>
+      </c>
     </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1484,8 +1514,11 @@
       <c r="BD8" s="2">
         <v>71</v>
       </c>
+      <c r="BE8" s="2">
+        <v>71</v>
+      </c>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1654,8 +1687,11 @@
       <c r="BD9" s="2">
         <v>89</v>
       </c>
+      <c r="BE9" s="2">
+        <v>89</v>
+      </c>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -1824,8 +1860,11 @@
       <c r="BD10" s="2">
         <v>40</v>
       </c>
+      <c r="BE10" s="2">
+        <v>40</v>
+      </c>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -1994,8 +2033,11 @@
       <c r="BD11" s="2">
         <v>50</v>
       </c>
+      <c r="BE11" s="2">
+        <v>50</v>
+      </c>
     </row>
-    <row r="12" spans="1:56" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:57" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -2168,18 +2210,21 @@
       <c r="BD12" s="3">
         <v>763</v>
       </c>
+      <c r="BE12" s="3">
+        <v>769</v>
+      </c>
     </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:57" x14ac:dyDescent="0.3">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2190,11 +2235,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001C2592-E91A-4D15-BF1F-41D54F92301C}">
-  <dimension ref="A1:BD15"/>
+  <dimension ref="A1:BE16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BC3" sqref="BC3"/>
+      <selection pane="topRight" activeCell="BE6" sqref="BE6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2203,16 +2248,16 @@
     <col min="2" max="18" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
     <col min="28" max="48" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="56" width="7.265625" style="2" customWidth="1"/>
-    <col min="57" max="16384" width="9.06640625" style="2"/>
+    <col min="49" max="57" width="7.265625" style="2" customWidth="1"/>
+    <col min="58" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:56" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:57" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -2381,8 +2426,11 @@
       <c r="BD3" s="5">
         <v>44020</v>
       </c>
+      <c r="BE3" s="5">
+        <v>44021</v>
+      </c>
     </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -2551,8 +2599,11 @@
       <c r="BD4" s="2">
         <v>366</v>
       </c>
+      <c r="BE4" s="2">
+        <v>381</v>
+      </c>
     </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -2721,8 +2772,11 @@
       <c r="BD5" s="2">
         <v>2017</v>
       </c>
+      <c r="BE5" s="2">
+        <v>2074</v>
+      </c>
     </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -2891,8 +2945,11 @@
       <c r="BD6" s="2">
         <v>736</v>
       </c>
+      <c r="BE6" s="2">
+        <v>756</v>
+      </c>
     </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -3061,8 +3118,11 @@
       <c r="BD7" s="2">
         <v>2003</v>
       </c>
+      <c r="BE7" s="2">
+        <v>2176</v>
+      </c>
     </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -3231,8 +3291,11 @@
       <c r="BD8" s="2">
         <v>729</v>
       </c>
+      <c r="BE8" s="2">
+        <v>734</v>
+      </c>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -3401,8 +3464,11 @@
       <c r="BD9" s="2">
         <v>381</v>
       </c>
+      <c r="BE9" s="2">
+        <v>381</v>
+      </c>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -3571,8 +3637,11 @@
       <c r="BD10" s="2">
         <v>514</v>
       </c>
+      <c r="BE10" s="2">
+        <v>523</v>
+      </c>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -3741,8 +3810,11 @@
       <c r="BD11" s="2">
         <v>276</v>
       </c>
+      <c r="BE11" s="2">
+        <v>276</v>
+      </c>
     </row>
-    <row r="12" spans="1:56" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:57" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -3911,18 +3983,26 @@
       <c r="BD12" s="3">
         <v>7022</v>
       </c>
+      <c r="BE12" s="3">
+        <v>7301</v>
+      </c>
     </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:57" x14ac:dyDescent="0.3">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -3933,11 +4013,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC07078-FDB2-4744-9C93-DA564120E1E6}">
-  <dimension ref="A1:BD15"/>
+  <dimension ref="A1:BE15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="BB4" sqref="BB4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -3945,16 +4025,16 @@
     <col min="1" max="1" width="19.33203125" style="2" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="56" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="57" max="16384" width="9.06640625" style="2"/>
+    <col min="28" max="57" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="58" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:56" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:57" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -4123,8 +4203,11 @@
       <c r="BD3" s="5">
         <v>44020</v>
       </c>
+      <c r="BE3" s="5">
+        <v>44021</v>
+      </c>
     </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -4293,8 +4376,11 @@
       <c r="BD4" s="2">
         <v>78</v>
       </c>
+      <c r="BE4" s="2">
+        <v>79</v>
+      </c>
     </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -4463,8 +4549,11 @@
       <c r="BD5" s="2">
         <v>283</v>
       </c>
+      <c r="BE5" s="2">
+        <v>290</v>
+      </c>
     </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -4633,8 +4722,11 @@
       <c r="BD6" s="2">
         <v>128</v>
       </c>
+      <c r="BE6" s="2">
+        <v>131</v>
+      </c>
     </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -4803,8 +4895,11 @@
       <c r="BD7" s="2">
         <v>248</v>
       </c>
+      <c r="BE7" s="2">
+        <v>253</v>
+      </c>
     </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -4973,8 +5068,11 @@
       <c r="BD8" s="2">
         <v>133</v>
       </c>
+      <c r="BE8" s="2">
+        <v>134</v>
+      </c>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -5143,8 +5241,11 @@
       <c r="BD9" s="2">
         <v>35</v>
       </c>
+      <c r="BE9" s="2">
+        <v>35</v>
+      </c>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -5313,8 +5414,11 @@
       <c r="BD10" s="2">
         <v>80</v>
       </c>
+      <c r="BE10" s="2">
+        <v>71</v>
+      </c>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -5483,8 +5587,11 @@
       <c r="BD11" s="2">
         <v>42</v>
       </c>
+      <c r="BE11" s="2">
+        <v>42</v>
+      </c>
     </row>
-    <row r="12" spans="1:56" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:57" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -5655,18 +5762,21 @@
       <c r="BD12" s="3">
         <v>1027</v>
       </c>
+      <c r="BE12" s="3">
+        <v>1035</v>
+      </c>
     </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:57" x14ac:dyDescent="0.3">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -5676,11 +5786,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCD14BD-3EDB-4A02-AA3B-BFB82E165626}">
-  <dimension ref="A1:BD16"/>
+  <dimension ref="A1:BE17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BD15" sqref="BD15"/>
+      <selection pane="topRight" activeCell="BE1" sqref="BE1:BE1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -5688,16 +5798,16 @@
     <col min="1" max="1" width="19.33203125" style="2" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="56" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="57" max="16384" width="9.06640625" style="2"/>
+    <col min="28" max="57" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="58" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:56" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:57" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -5866,8 +5976,11 @@
       <c r="BD3" s="5">
         <v>44020</v>
       </c>
+      <c r="BE3" s="5">
+        <v>44021</v>
+      </c>
     </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -6036,8 +6149,11 @@
       <c r="BD4" s="2">
         <v>219</v>
       </c>
+      <c r="BE4" s="2">
+        <v>219</v>
+      </c>
     </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -6206,8 +6322,11 @@
       <c r="BD5" s="2">
         <v>986</v>
       </c>
+      <c r="BE5" s="2">
+        <v>1002</v>
+      </c>
     </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -6376,8 +6495,11 @@
       <c r="BD6" s="2">
         <v>355</v>
       </c>
+      <c r="BE6" s="2">
+        <v>358</v>
+      </c>
     </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -6546,8 +6668,11 @@
       <c r="BD7" s="2">
         <v>662</v>
       </c>
+      <c r="BE7" s="2">
+        <v>691</v>
+      </c>
     </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -6716,8 +6841,11 @@
       <c r="BD8" s="2">
         <v>357</v>
       </c>
+      <c r="BE8" s="2">
+        <v>357</v>
+      </c>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -6886,8 +7014,11 @@
       <c r="BD9" s="2">
         <v>146</v>
       </c>
+      <c r="BE9" s="2">
+        <v>146</v>
+      </c>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -7056,8 +7187,11 @@
       <c r="BD10" s="2">
         <v>217</v>
       </c>
+      <c r="BE10" s="2">
+        <v>220</v>
+      </c>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -7226,8 +7360,11 @@
       <c r="BD11" s="2">
         <v>113</v>
       </c>
+      <c r="BE11" s="2">
+        <v>113</v>
+      </c>
     </row>
-    <row r="12" spans="1:56" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:57" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -7396,19 +7533,27 @@
       <c r="BD12" s="3">
         <v>3055</v>
       </c>
+      <c r="BE12" s="3">
+        <v>3106</v>
+      </c>
     </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
     </row>

--- a/original-sources/DSHS_nursing.xlsx
+++ b/original-sources/DSHS_nursing.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dshs4dvchsfs01.dshs.state.tx.us\CHS Share\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0B68A720-BB50-43D7-8F55-6792B6938F02}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{00DCF12D-A6ED-4BF0-9F79-161593DC24D2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8630" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8633" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
   </bookViews>
   <sheets>
     <sheet name="Facilities" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
     <t>The above table contains cumulative data on nursing homes with one or more confirmed COVID-19 cases.</t>
   </si>
   <si>
-    <t>The above able does not show the number of new/active cases.</t>
+    <t>The above table does not show the number of new/active cases.</t>
   </si>
 </sst>
 </file>
@@ -458,29 +458,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36587124-AB08-4074-9D3F-CC49D1169958}">
-  <dimension ref="A1:BE15"/>
+  <dimension ref="A1:BF15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <pane xSplit="1" topLeftCell="AS1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BG3" sqref="BG3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.046875" defaultRowHeight="14.65" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.34765625" style="2" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="48" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="57" width="6.86328125" style="2" customWidth="1"/>
-    <col min="58" max="16384" width="9.06640625" style="2"/>
+    <col min="19" max="27" width="5.94921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="48" width="7.046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="57" width="6.84765625" style="2" customWidth="1"/>
+    <col min="58" max="16384" width="9.046875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:57" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:58" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -652,8 +652,11 @@
       <c r="BE3" s="5">
         <v>44021</v>
       </c>
+      <c r="BF3" s="5">
+        <v>44022</v>
+      </c>
     </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -825,8 +828,11 @@
       <c r="BE4" s="2">
         <v>45</v>
       </c>
+      <c r="BF4" s="2">
+        <v>45</v>
+      </c>
     </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -998,8 +1004,11 @@
       <c r="BE5" s="2">
         <v>230</v>
       </c>
+      <c r="BF5" s="2">
+        <v>235</v>
+      </c>
     </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -1171,8 +1180,11 @@
       <c r="BE6" s="2">
         <v>80</v>
       </c>
+      <c r="BF6" s="2">
+        <v>83</v>
+      </c>
     </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -1344,8 +1356,11 @@
       <c r="BE7" s="2">
         <v>164</v>
       </c>
+      <c r="BF7" s="2">
+        <v>164</v>
+      </c>
     </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1517,8 +1532,11 @@
       <c r="BE8" s="2">
         <v>71</v>
       </c>
+      <c r="BF8" s="2">
+        <v>73</v>
+      </c>
     </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1690,8 +1708,11 @@
       <c r="BE9" s="2">
         <v>89</v>
       </c>
+      <c r="BF9" s="2">
+        <v>89</v>
+      </c>
     </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -1863,8 +1884,11 @@
       <c r="BE10" s="2">
         <v>40</v>
       </c>
+      <c r="BF10" s="2">
+        <v>40</v>
+      </c>
     </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -2036,8 +2060,11 @@
       <c r="BE11" s="2">
         <v>50</v>
       </c>
+      <c r="BF11" s="2">
+        <v>50</v>
+      </c>
     </row>
-    <row r="12" spans="1:57" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -2213,16 +2240,19 @@
       <c r="BE12" s="3">
         <v>769</v>
       </c>
+      <c r="BF12" s="3">
+        <v>779</v>
+      </c>
     </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:58" ht="15" x14ac:dyDescent="0.4">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -2235,29 +2265,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001C2592-E91A-4D15-BF1F-41D54F92301C}">
-  <dimension ref="A1:BE16"/>
+  <dimension ref="A1:BF16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BE6" sqref="BE6"/>
+      <pane xSplit="1" topLeftCell="AR1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.046875" defaultRowHeight="14.65" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.34765625" style="2" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="48" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="57" width="7.265625" style="2" customWidth="1"/>
-    <col min="58" max="16384" width="9.06640625" style="2"/>
+    <col min="19" max="27" width="5.94921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="48" width="7.046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="57" width="7.25" style="2" customWidth="1"/>
+    <col min="58" max="16384" width="9.046875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:57" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:58" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -2429,8 +2459,11 @@
       <c r="BE3" s="5">
         <v>44021</v>
       </c>
+      <c r="BF3" s="5">
+        <v>44022</v>
+      </c>
     </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -2602,8 +2635,11 @@
       <c r="BE4" s="2">
         <v>381</v>
       </c>
+      <c r="BF4" s="2">
+        <v>388</v>
+      </c>
     </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -2775,8 +2811,11 @@
       <c r="BE5" s="2">
         <v>2074</v>
       </c>
+      <c r="BF5" s="2">
+        <v>2084</v>
+      </c>
     </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -2948,8 +2987,11 @@
       <c r="BE6" s="2">
         <v>756</v>
       </c>
+      <c r="BF6" s="2">
+        <v>758</v>
+      </c>
     </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -3121,8 +3163,11 @@
       <c r="BE7" s="2">
         <v>2176</v>
       </c>
+      <c r="BF7" s="2">
+        <v>2228</v>
+      </c>
     </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -3294,8 +3339,11 @@
       <c r="BE8" s="2">
         <v>734</v>
       </c>
+      <c r="BF8" s="2">
+        <v>737</v>
+      </c>
     </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -3467,8 +3515,11 @@
       <c r="BE9" s="2">
         <v>381</v>
       </c>
+      <c r="BF9" s="2">
+        <v>381</v>
+      </c>
     </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -3640,8 +3691,11 @@
       <c r="BE10" s="2">
         <v>523</v>
       </c>
+      <c r="BF10" s="2">
+        <v>524</v>
+      </c>
     </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -3813,8 +3867,11 @@
       <c r="BE11" s="2">
         <v>276</v>
       </c>
+      <c r="BF11" s="2">
+        <v>276</v>
+      </c>
     </row>
-    <row r="12" spans="1:57" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -3986,21 +4043,24 @@
       <c r="BE12" s="3">
         <v>7301</v>
       </c>
+      <c r="BF12" s="3">
+        <v>7376</v>
+      </c>
     </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:58" ht="15" x14ac:dyDescent="0.4">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>15</v>
       </c>
@@ -4013,28 +4073,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC07078-FDB2-4744-9C93-DA564120E1E6}">
-  <dimension ref="A1:BE15"/>
+  <dimension ref="A1:BF15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BB4" sqref="BB4"/>
+      <pane xSplit="1" topLeftCell="AS1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BG3" sqref="BG3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.046875" defaultRowHeight="14.65" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.34765625" style="2" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="57" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="58" max="16384" width="9.06640625" style="2"/>
+    <col min="19" max="27" width="5.94921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="57" width="7.046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="58" max="16384" width="9.046875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:57" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:58" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -4206,8 +4266,11 @@
       <c r="BE3" s="5">
         <v>44021</v>
       </c>
+      <c r="BF3" s="5">
+        <v>44022</v>
+      </c>
     </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -4379,8 +4442,11 @@
       <c r="BE4" s="2">
         <v>79</v>
       </c>
+      <c r="BF4" s="2">
+        <v>79</v>
+      </c>
     </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -4552,8 +4618,11 @@
       <c r="BE5" s="2">
         <v>290</v>
       </c>
+      <c r="BF5" s="2">
+        <v>295</v>
+      </c>
     </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -4725,8 +4794,11 @@
       <c r="BE6" s="2">
         <v>131</v>
       </c>
+      <c r="BF6" s="2">
+        <v>132</v>
+      </c>
     </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -4898,8 +4970,11 @@
       <c r="BE7" s="2">
         <v>253</v>
       </c>
+      <c r="BF7" s="2">
+        <v>255</v>
+      </c>
     </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -5071,8 +5146,11 @@
       <c r="BE8" s="2">
         <v>134</v>
       </c>
+      <c r="BF8" s="2">
+        <v>134</v>
+      </c>
     </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -5244,8 +5322,11 @@
       <c r="BE9" s="2">
         <v>35</v>
       </c>
+      <c r="BF9" s="2">
+        <v>35</v>
+      </c>
     </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -5417,8 +5498,11 @@
       <c r="BE10" s="2">
         <v>71</v>
       </c>
+      <c r="BF10" s="2">
+        <v>71</v>
+      </c>
     </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -5590,8 +5674,11 @@
       <c r="BE11" s="2">
         <v>42</v>
       </c>
+      <c r="BF11" s="2">
+        <v>42</v>
+      </c>
     </row>
-    <row r="12" spans="1:57" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -5765,16 +5852,19 @@
       <c r="BE12" s="3">
         <v>1035</v>
       </c>
+      <c r="BF12" s="3">
+        <v>1043</v>
+      </c>
     </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:58" ht="15" x14ac:dyDescent="0.4">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -5786,28 +5876,28 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCD14BD-3EDB-4A02-AA3B-BFB82E165626}">
-  <dimension ref="A1:BE17"/>
+  <dimension ref="A1:BF17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BE1" sqref="BE1:BE1048576"/>
+      <pane xSplit="1" topLeftCell="AS1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.046875" defaultRowHeight="14.65" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.34765625" style="2" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="57" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="58" max="16384" width="9.06640625" style="2"/>
+    <col min="19" max="27" width="5.94921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="57" width="7.046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="58" max="16384" width="9.046875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:57" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:58" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -5979,8 +6069,11 @@
       <c r="BE3" s="5">
         <v>44021</v>
       </c>
+      <c r="BF3" s="5">
+        <v>44022</v>
+      </c>
     </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -6152,8 +6245,11 @@
       <c r="BE4" s="2">
         <v>219</v>
       </c>
+      <c r="BF4" s="2">
+        <v>219</v>
+      </c>
     </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -6325,8 +6421,11 @@
       <c r="BE5" s="2">
         <v>1002</v>
       </c>
+      <c r="BF5" s="2">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -6498,8 +6597,11 @@
       <c r="BE6" s="2">
         <v>358</v>
       </c>
+      <c r="BF6" s="2">
+        <v>371</v>
+      </c>
     </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -6671,8 +6773,11 @@
       <c r="BE7" s="2">
         <v>691</v>
       </c>
+      <c r="BF7" s="2">
+        <v>708</v>
+      </c>
     </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -6844,8 +6949,11 @@
       <c r="BE8" s="2">
         <v>357</v>
       </c>
+      <c r="BF8" s="2">
+        <v>357</v>
+      </c>
     </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -7017,8 +7125,11 @@
       <c r="BE9" s="2">
         <v>146</v>
       </c>
+      <c r="BF9" s="2">
+        <v>146</v>
+      </c>
     </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -7190,8 +7301,11 @@
       <c r="BE10" s="2">
         <v>220</v>
       </c>
+      <c r="BF10" s="2">
+        <v>220</v>
+      </c>
     </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -7363,8 +7477,11 @@
       <c r="BE11" s="2">
         <v>113</v>
       </c>
+      <c r="BF11" s="2">
+        <v>113</v>
+      </c>
     </row>
-    <row r="12" spans="1:57" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -7536,23 +7653,26 @@
       <c r="BE12" s="3">
         <v>3106</v>
       </c>
+      <c r="BF12" s="3">
+        <v>3146</v>
+      </c>
     </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>

--- a/original-sources/DSHS_nursing.xlsx
+++ b/original-sources/DSHS_nursing.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dshs4dvchsfs01.dshs.state.tx.us\CHS Share\CHS-AAU\Epi\Covid\For Ektron\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{00DCF12D-A6ED-4BF0-9F79-161593DC24D2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C6919CE8-EB87-4322-B8E6-BB94CEC1CA65}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8633" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8633" activeTab="3" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
   </bookViews>
   <sheets>
     <sheet name="Facilities" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Fatalities" sheetId="2" r:id="rId3"/>
     <sheet name="Recoveries" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -458,11 +458,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36587124-AB08-4074-9D3F-CC49D1169958}">
-  <dimension ref="A1:BF15"/>
+  <dimension ref="A1:BG15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="AS1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BG3" sqref="BG3"/>
+      <selection pane="topRight" activeCell="BH3" sqref="BH3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.046875" defaultRowHeight="14.65" x14ac:dyDescent="0.35"/>
@@ -472,15 +472,16 @@
     <col min="19" max="27" width="5.94921875" style="2" bestFit="1" customWidth="1"/>
     <col min="28" max="48" width="7.046875" style="2" bestFit="1" customWidth="1"/>
     <col min="49" max="57" width="6.84765625" style="2" customWidth="1"/>
-    <col min="58" max="16384" width="9.046875" style="2"/>
+    <col min="58" max="59" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="60" max="16384" width="9.046875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:58" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -655,8 +656,11 @@
       <c r="BF3" s="5">
         <v>44022</v>
       </c>
+      <c r="BG3" s="5">
+        <v>44023</v>
+      </c>
     </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -831,8 +835,11 @@
       <c r="BF4" s="2">
         <v>45</v>
       </c>
+      <c r="BG4" s="2">
+        <v>46</v>
+      </c>
     </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -1007,8 +1014,11 @@
       <c r="BF5" s="2">
         <v>235</v>
       </c>
+      <c r="BG5" s="2">
+        <v>237</v>
+      </c>
     </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -1183,8 +1193,11 @@
       <c r="BF6" s="2">
         <v>83</v>
       </c>
+      <c r="BG6" s="2">
+        <v>84</v>
+      </c>
     </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -1359,8 +1372,11 @@
       <c r="BF7" s="2">
         <v>164</v>
       </c>
+      <c r="BG7" s="2">
+        <v>165</v>
+      </c>
     </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1535,8 +1551,11 @@
       <c r="BF8" s="2">
         <v>73</v>
       </c>
+      <c r="BG8" s="2">
+        <v>73</v>
+      </c>
     </row>
-    <row r="9" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1711,8 +1730,11 @@
       <c r="BF9" s="2">
         <v>89</v>
       </c>
+      <c r="BG9" s="2">
+        <v>89</v>
+      </c>
     </row>
-    <row r="10" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -1887,8 +1909,11 @@
       <c r="BF10" s="2">
         <v>40</v>
       </c>
+      <c r="BG10" s="2">
+        <v>42</v>
+      </c>
     </row>
-    <row r="11" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -2063,8 +2088,11 @@
       <c r="BF11" s="2">
         <v>50</v>
       </c>
+      <c r="BG11" s="2">
+        <v>50</v>
+      </c>
     </row>
-    <row r="12" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -2243,16 +2271,19 @@
       <c r="BF12" s="3">
         <v>779</v>
       </c>
+      <c r="BG12" s="3">
+        <v>786</v>
+      </c>
     </row>
-    <row r="13" spans="1:58" ht="15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:59" ht="15" x14ac:dyDescent="0.4">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -2265,11 +2296,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001C2592-E91A-4D15-BF1F-41D54F92301C}">
-  <dimension ref="A1:BF16"/>
+  <dimension ref="A1:BG16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AR1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A16" sqref="A16"/>
+      <pane xSplit="1" topLeftCell="AS1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BG4" sqref="BG4:BG12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.046875" defaultRowHeight="14.65" x14ac:dyDescent="0.35"/>
@@ -2279,15 +2310,16 @@
     <col min="19" max="27" width="5.94921875" style="2" bestFit="1" customWidth="1"/>
     <col min="28" max="48" width="7.046875" style="2" bestFit="1" customWidth="1"/>
     <col min="49" max="57" width="7.25" style="2" customWidth="1"/>
-    <col min="58" max="16384" width="9.046875" style="2"/>
+    <col min="58" max="59" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="60" max="16384" width="9.046875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:58" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -2462,8 +2494,11 @@
       <c r="BF3" s="5">
         <v>44022</v>
       </c>
+      <c r="BG3" s="5">
+        <v>44023</v>
+      </c>
     </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -2638,8 +2673,11 @@
       <c r="BF4" s="2">
         <v>388</v>
       </c>
+      <c r="BG4" s="2">
+        <v>388</v>
+      </c>
     </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -2814,8 +2852,11 @@
       <c r="BF5" s="2">
         <v>2084</v>
       </c>
+      <c r="BG5" s="2">
+        <v>2119</v>
+      </c>
     </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -2990,8 +3031,11 @@
       <c r="BF6" s="2">
         <v>758</v>
       </c>
+      <c r="BG6" s="2">
+        <v>769</v>
+      </c>
     </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -3166,8 +3210,11 @@
       <c r="BF7" s="2">
         <v>2228</v>
       </c>
+      <c r="BG7" s="2">
+        <v>2382</v>
+      </c>
     </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -3342,8 +3389,11 @@
       <c r="BF8" s="2">
         <v>737</v>
       </c>
+      <c r="BG8" s="2">
+        <v>737</v>
+      </c>
     </row>
-    <row r="9" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -3518,8 +3568,11 @@
       <c r="BF9" s="2">
         <v>381</v>
       </c>
+      <c r="BG9" s="2">
+        <v>381</v>
+      </c>
     </row>
-    <row r="10" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -3694,8 +3747,11 @@
       <c r="BF10" s="2">
         <v>524</v>
       </c>
+      <c r="BG10" s="2">
+        <v>583</v>
+      </c>
     </row>
-    <row r="11" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -3870,8 +3926,11 @@
       <c r="BF11" s="2">
         <v>276</v>
       </c>
+      <c r="BG11" s="2">
+        <v>276</v>
+      </c>
     </row>
-    <row r="12" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -4046,21 +4105,24 @@
       <c r="BF12" s="3">
         <v>7376</v>
       </c>
+      <c r="BG12" s="3">
+        <v>7635</v>
+      </c>
     </row>
-    <row r="13" spans="1:58" ht="15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:59" ht="15" x14ac:dyDescent="0.4">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>15</v>
       </c>
@@ -4073,11 +4135,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC07078-FDB2-4744-9C93-DA564120E1E6}">
-  <dimension ref="A1:BF15"/>
+  <dimension ref="A1:BG15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="AS1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BG3" sqref="BG3"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.046875" defaultRowHeight="14.65" x14ac:dyDescent="0.35"/>
@@ -4086,15 +4148,16 @@
     <col min="2" max="18" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.94921875" style="2" bestFit="1" customWidth="1"/>
     <col min="28" max="57" width="7.046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="58" max="16384" width="9.046875" style="2"/>
+    <col min="58" max="59" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="60" max="16384" width="9.046875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:58" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -4269,8 +4332,11 @@
       <c r="BF3" s="5">
         <v>44022</v>
       </c>
+      <c r="BG3" s="5">
+        <v>44023</v>
+      </c>
     </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -4445,8 +4511,11 @@
       <c r="BF4" s="2">
         <v>79</v>
       </c>
+      <c r="BG4" s="2">
+        <v>79</v>
+      </c>
     </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -4621,8 +4690,11 @@
       <c r="BF5" s="2">
         <v>295</v>
       </c>
+      <c r="BG5" s="2">
+        <v>296</v>
+      </c>
     </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -4797,8 +4869,11 @@
       <c r="BF6" s="2">
         <v>132</v>
       </c>
+      <c r="BG6" s="2">
+        <v>126</v>
+      </c>
     </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -4973,8 +5048,11 @@
       <c r="BF7" s="2">
         <v>255</v>
       </c>
+      <c r="BG7" s="2">
+        <v>262</v>
+      </c>
     </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -5149,8 +5227,11 @@
       <c r="BF8" s="2">
         <v>134</v>
       </c>
+      <c r="BG8" s="2">
+        <v>135</v>
+      </c>
     </row>
-    <row r="9" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -5325,8 +5406,11 @@
       <c r="BF9" s="2">
         <v>35</v>
       </c>
+      <c r="BG9" s="2">
+        <v>35</v>
+      </c>
     </row>
-    <row r="10" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -5501,8 +5585,11 @@
       <c r="BF10" s="2">
         <v>71</v>
       </c>
+      <c r="BG10" s="2">
+        <v>75</v>
+      </c>
     </row>
-    <row r="11" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -5677,8 +5764,11 @@
       <c r="BF11" s="2">
         <v>42</v>
       </c>
+      <c r="BG11" s="2">
+        <v>42</v>
+      </c>
     </row>
-    <row r="12" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -5855,16 +5945,19 @@
       <c r="BF12" s="3">
         <v>1043</v>
       </c>
+      <c r="BG12" s="3">
+        <v>1050</v>
+      </c>
     </row>
-    <row r="13" spans="1:58" ht="15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:59" ht="15" x14ac:dyDescent="0.4">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -5876,11 +5969,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCD14BD-3EDB-4A02-AA3B-BFB82E165626}">
-  <dimension ref="A1:BF17"/>
+  <dimension ref="A1:BG17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AS1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.046875" defaultRowHeight="14.65" x14ac:dyDescent="0.35"/>
@@ -5889,15 +5982,16 @@
     <col min="2" max="18" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.94921875" style="2" bestFit="1" customWidth="1"/>
     <col min="28" max="57" width="7.046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="58" max="16384" width="9.046875" style="2"/>
+    <col min="58" max="59" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="60" max="16384" width="9.046875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:58" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -6072,8 +6166,11 @@
       <c r="BF3" s="5">
         <v>44022</v>
       </c>
+      <c r="BG3" s="5">
+        <v>44023</v>
+      </c>
     </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -6248,8 +6345,11 @@
       <c r="BF4" s="2">
         <v>219</v>
       </c>
+      <c r="BG4" s="2">
+        <v>220</v>
+      </c>
     </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -6424,8 +6524,11 @@
       <c r="BF5" s="2">
         <v>1012</v>
       </c>
+      <c r="BG5" s="2">
+        <v>1010</v>
+      </c>
     </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -6600,8 +6703,11 @@
       <c r="BF6" s="2">
         <v>371</v>
       </c>
+      <c r="BG6" s="2">
+        <v>373</v>
+      </c>
     </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -6776,8 +6882,11 @@
       <c r="BF7" s="2">
         <v>708</v>
       </c>
+      <c r="BG7" s="2">
+        <v>740</v>
+      </c>
     </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -6952,8 +7061,11 @@
       <c r="BF8" s="2">
         <v>357</v>
       </c>
+      <c r="BG8" s="2">
+        <v>357</v>
+      </c>
     </row>
-    <row r="9" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -7128,8 +7240,11 @@
       <c r="BF9" s="2">
         <v>146</v>
       </c>
+      <c r="BG9" s="2">
+        <v>146</v>
+      </c>
     </row>
-    <row r="10" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -7304,8 +7419,11 @@
       <c r="BF10" s="2">
         <v>220</v>
       </c>
+      <c r="BG10" s="2">
+        <v>231</v>
+      </c>
     </row>
-    <row r="11" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -7480,8 +7598,11 @@
       <c r="BF11" s="2">
         <v>113</v>
       </c>
+      <c r="BG11" s="2">
+        <v>113</v>
+      </c>
     </row>
-    <row r="12" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -7656,18 +7777,21 @@
       <c r="BF12" s="3">
         <v>3146</v>
       </c>
+      <c r="BG12" s="3">
+        <v>3190</v>
+      </c>
     </row>
-    <row r="14" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>15</v>
       </c>

--- a/original-sources/DSHS_nursing.xlsx
+++ b/original-sources/DSHS_nursing.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dshs4dvchsfs01.dshs.state.tx.us\CHS Share\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C6919CE8-EB87-4322-B8E6-BB94CEC1CA65}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{03CF9C0E-F5BD-4958-A759-1D96FD1BC1B8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8633" activeTab="3" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8630" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
   </bookViews>
   <sheets>
     <sheet name="Facilities" sheetId="1" r:id="rId1"/>
@@ -458,30 +458,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36587124-AB08-4074-9D3F-CC49D1169958}">
-  <dimension ref="A1:BG15"/>
+  <dimension ref="A1:BH15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AS1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BH3" sqref="BH3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.046875" defaultRowHeight="14.65" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.34765625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="2" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="5.94921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="48" width="7.046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="57" width="6.84765625" style="2" customWidth="1"/>
-    <col min="58" max="59" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="60" max="16384" width="9.046875" style="2"/>
+    <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="48" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="57" width="6.86328125" style="2" customWidth="1"/>
+    <col min="58" max="60" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="61" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:60" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -659,8 +659,11 @@
       <c r="BG3" s="5">
         <v>44023</v>
       </c>
+      <c r="BH3" s="5">
+        <v>44024</v>
+      </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -838,8 +841,11 @@
       <c r="BG4" s="2">
         <v>46</v>
       </c>
+      <c r="BH4" s="2">
+        <v>46</v>
+      </c>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -1017,8 +1023,11 @@
       <c r="BG5" s="2">
         <v>237</v>
       </c>
+      <c r="BH5" s="2">
+        <v>237</v>
+      </c>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -1196,8 +1205,11 @@
       <c r="BG6" s="2">
         <v>84</v>
       </c>
+      <c r="BH6" s="2">
+        <v>86</v>
+      </c>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -1375,8 +1387,11 @@
       <c r="BG7" s="2">
         <v>165</v>
       </c>
+      <c r="BH7" s="2">
+        <v>167</v>
+      </c>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1554,8 +1569,11 @@
       <c r="BG8" s="2">
         <v>73</v>
       </c>
+      <c r="BH8" s="2">
+        <v>73</v>
+      </c>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1733,8 +1751,11 @@
       <c r="BG9" s="2">
         <v>89</v>
       </c>
+      <c r="BH9" s="2">
+        <v>89</v>
+      </c>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -1912,8 +1933,11 @@
       <c r="BG10" s="2">
         <v>42</v>
       </c>
+      <c r="BH10" s="2">
+        <v>42</v>
+      </c>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -2091,8 +2115,11 @@
       <c r="BG11" s="2">
         <v>50</v>
       </c>
+      <c r="BH11" s="2">
+        <v>50</v>
+      </c>
     </row>
-    <row r="12" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:60" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -2274,16 +2301,19 @@
       <c r="BG12" s="3">
         <v>786</v>
       </c>
+      <c r="BH12" s="3">
+        <v>790</v>
+      </c>
     </row>
-    <row r="13" spans="1:59" ht="15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.3">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -2296,30 +2326,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001C2592-E91A-4D15-BF1F-41D54F92301C}">
-  <dimension ref="A1:BG16"/>
+  <dimension ref="A1:BH16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AS1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BG4" sqref="BG4:BG12"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BG3" sqref="BG3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.046875" defaultRowHeight="14.65" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.34765625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="2" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="5.94921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="48" width="7.046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="57" width="7.25" style="2" customWidth="1"/>
-    <col min="58" max="59" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="60" max="16384" width="9.046875" style="2"/>
+    <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="48" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="57" width="7.265625" style="2" customWidth="1"/>
+    <col min="58" max="60" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="61" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:60" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -2497,8 +2527,11 @@
       <c r="BG3" s="5">
         <v>44023</v>
       </c>
+      <c r="BH3" s="5">
+        <v>44024</v>
+      </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -2676,8 +2709,11 @@
       <c r="BG4" s="2">
         <v>388</v>
       </c>
+      <c r="BH4" s="2">
+        <v>388</v>
+      </c>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -2855,8 +2891,11 @@
       <c r="BG5" s="2">
         <v>2119</v>
       </c>
+      <c r="BH5" s="2">
+        <v>2137</v>
+      </c>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -3034,8 +3073,11 @@
       <c r="BG6" s="2">
         <v>769</v>
       </c>
+      <c r="BH6" s="2">
+        <v>770</v>
+      </c>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -3213,8 +3255,11 @@
       <c r="BG7" s="2">
         <v>2382</v>
       </c>
+      <c r="BH7" s="2">
+        <v>2398</v>
+      </c>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -3392,8 +3437,11 @@
       <c r="BG8" s="2">
         <v>737</v>
       </c>
+      <c r="BH8" s="2">
+        <v>810</v>
+      </c>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -3571,8 +3619,11 @@
       <c r="BG9" s="2">
         <v>381</v>
       </c>
+      <c r="BH9" s="2">
+        <v>381</v>
+      </c>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -3750,8 +3801,11 @@
       <c r="BG10" s="2">
         <v>583</v>
       </c>
+      <c r="BH10" s="2">
+        <v>597</v>
+      </c>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -3929,8 +3983,11 @@
       <c r="BG11" s="2">
         <v>276</v>
       </c>
+      <c r="BH11" s="2">
+        <v>276</v>
+      </c>
     </row>
-    <row r="12" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:60" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -4108,21 +4165,24 @@
       <c r="BG12" s="3">
         <v>7635</v>
       </c>
+      <c r="BH12" s="3">
+        <v>7757</v>
+      </c>
     </row>
-    <row r="13" spans="1:59" ht="15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.3">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>15</v>
       </c>
@@ -4135,29 +4195,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC07078-FDB2-4744-9C93-DA564120E1E6}">
-  <dimension ref="A1:BG15"/>
+  <dimension ref="A1:BH15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AS1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BG5" sqref="BG5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.046875" defaultRowHeight="14.65" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.34765625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="2" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="5.94921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="57" width="7.046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="58" max="59" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="60" max="16384" width="9.046875" style="2"/>
+    <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="57" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="58" max="60" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="61" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:60" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -4335,8 +4395,11 @@
       <c r="BG3" s="5">
         <v>44023</v>
       </c>
+      <c r="BH3" s="5">
+        <v>44024</v>
+      </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -4514,8 +4577,11 @@
       <c r="BG4" s="2">
         <v>79</v>
       </c>
+      <c r="BH4" s="2">
+        <v>79</v>
+      </c>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -4693,8 +4759,11 @@
       <c r="BG5" s="2">
         <v>296</v>
       </c>
+      <c r="BH5" s="2">
+        <v>299</v>
+      </c>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -4872,8 +4941,11 @@
       <c r="BG6" s="2">
         <v>126</v>
       </c>
+      <c r="BH6" s="2">
+        <v>126</v>
+      </c>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -5051,8 +5123,11 @@
       <c r="BG7" s="2">
         <v>262</v>
       </c>
+      <c r="BH7" s="2">
+        <v>264</v>
+      </c>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -5230,8 +5305,11 @@
       <c r="BG8" s="2">
         <v>135</v>
       </c>
+      <c r="BH8" s="2">
+        <v>138</v>
+      </c>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -5409,8 +5487,11 @@
       <c r="BG9" s="2">
         <v>35</v>
       </c>
+      <c r="BH9" s="2">
+        <v>35</v>
+      </c>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -5588,8 +5669,11 @@
       <c r="BG10" s="2">
         <v>75</v>
       </c>
+      <c r="BH10" s="2">
+        <v>77</v>
+      </c>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -5767,8 +5851,11 @@
       <c r="BG11" s="2">
         <v>42</v>
       </c>
+      <c r="BH11" s="2">
+        <v>42</v>
+      </c>
     </row>
-    <row r="12" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:60" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -5948,16 +6035,19 @@
       <c r="BG12" s="3">
         <v>1050</v>
       </c>
+      <c r="BH12" s="3">
+        <v>1060</v>
+      </c>
     </row>
-    <row r="13" spans="1:59" ht="15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.3">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -5969,29 +6059,29 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCD14BD-3EDB-4A02-AA3B-BFB82E165626}">
-  <dimension ref="A1:BG17"/>
+  <dimension ref="A1:BH17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="BE10" sqref="BE10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.046875" defaultRowHeight="14.65" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.34765625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="2" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="5.94921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="57" width="7.046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="58" max="59" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="60" max="16384" width="9.046875" style="2"/>
+    <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="57" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="58" max="60" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="61" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:60" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -6169,8 +6259,11 @@
       <c r="BG3" s="5">
         <v>44023</v>
       </c>
+      <c r="BH3" s="5">
+        <v>44024</v>
+      </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -6348,8 +6441,11 @@
       <c r="BG4" s="2">
         <v>220</v>
       </c>
+      <c r="BH4" s="2">
+        <v>220</v>
+      </c>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -6527,8 +6623,11 @@
       <c r="BG5" s="2">
         <v>1010</v>
       </c>
+      <c r="BH5" s="2">
+        <v>1011</v>
+      </c>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -6706,8 +6805,11 @@
       <c r="BG6" s="2">
         <v>373</v>
       </c>
+      <c r="BH6" s="2">
+        <v>379</v>
+      </c>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -6885,8 +6987,11 @@
       <c r="BG7" s="2">
         <v>740</v>
       </c>
+      <c r="BH7" s="2">
+        <v>751</v>
+      </c>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -7064,8 +7169,11 @@
       <c r="BG8" s="2">
         <v>357</v>
       </c>
+      <c r="BH8" s="2">
+        <v>361</v>
+      </c>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -7243,8 +7351,11 @@
       <c r="BG9" s="2">
         <v>146</v>
       </c>
+      <c r="BH9" s="2">
+        <v>146</v>
+      </c>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -7422,8 +7533,11 @@
       <c r="BG10" s="2">
         <v>231</v>
       </c>
+      <c r="BH10" s="2">
+        <v>231</v>
+      </c>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -7601,8 +7715,11 @@
       <c r="BG11" s="2">
         <v>113</v>
       </c>
+      <c r="BH11" s="2">
+        <v>113</v>
+      </c>
     </row>
-    <row r="12" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:60" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -7780,23 +7897,26 @@
       <c r="BG12" s="3">
         <v>3190</v>
       </c>
+      <c r="BH12" s="3">
+        <v>3212</v>
+      </c>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>

--- a/original-sources/DSHS_nursing.xlsx
+++ b/original-sources/DSHS_nursing.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dshs4dvchsfs01.dshs.state.tx.us\CHS Share\CHS-AAU\Epi\Covid\For Ektron\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{03CF9C0E-F5BD-4958-A759-1D96FD1BC1B8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F89B5801-3EF8-4D78-A3D3-74A109F24774}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8630" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Fatalities" sheetId="2" r:id="rId3"/>
     <sheet name="Recoveries" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -458,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36587124-AB08-4074-9D3F-CC49D1169958}">
-  <dimension ref="A1:BH15"/>
+  <dimension ref="A1:BI15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -472,16 +472,16 @@
     <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
     <col min="28" max="48" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
     <col min="49" max="57" width="6.86328125" style="2" customWidth="1"/>
-    <col min="58" max="60" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="61" max="16384" width="9.06640625" style="2"/>
+    <col min="58" max="61" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="62" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:60" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:61" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -662,8 +662,11 @@
       <c r="BH3" s="5">
         <v>44024</v>
       </c>
+      <c r="BI3" s="5">
+        <v>44025</v>
+      </c>
     </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -844,8 +847,11 @@
       <c r="BH4" s="2">
         <v>46</v>
       </c>
+      <c r="BI4" s="2">
+        <v>46</v>
+      </c>
     </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -1026,8 +1032,11 @@
       <c r="BH5" s="2">
         <v>237</v>
       </c>
+      <c r="BI5" s="2">
+        <v>237</v>
+      </c>
     </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -1208,8 +1217,11 @@
       <c r="BH6" s="2">
         <v>86</v>
       </c>
+      <c r="BI6" s="2">
+        <v>86</v>
+      </c>
     </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -1390,8 +1402,11 @@
       <c r="BH7" s="2">
         <v>167</v>
       </c>
+      <c r="BI7" s="2">
+        <v>167</v>
+      </c>
     </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1572,8 +1587,11 @@
       <c r="BH8" s="2">
         <v>73</v>
       </c>
+      <c r="BI8" s="2">
+        <v>73</v>
+      </c>
     </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1754,8 +1772,11 @@
       <c r="BH9" s="2">
         <v>89</v>
       </c>
+      <c r="BI9" s="2">
+        <v>115</v>
+      </c>
     </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -1936,8 +1957,11 @@
       <c r="BH10" s="2">
         <v>42</v>
       </c>
+      <c r="BI10" s="2">
+        <v>44</v>
+      </c>
     </row>
-    <row r="11" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -2118,8 +2142,11 @@
       <c r="BH11" s="2">
         <v>50</v>
       </c>
+      <c r="BI11" s="2">
+        <v>62</v>
+      </c>
     </row>
-    <row r="12" spans="1:60" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:61" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -2304,16 +2331,19 @@
       <c r="BH12" s="3">
         <v>790</v>
       </c>
+      <c r="BI12" s="3">
+        <v>830</v>
+      </c>
     </row>
-    <row r="13" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:61" x14ac:dyDescent="0.3">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -2326,7 +2356,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001C2592-E91A-4D15-BF1F-41D54F92301C}">
-  <dimension ref="A1:BH16"/>
+  <dimension ref="A1:BI16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -2340,16 +2370,16 @@
     <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
     <col min="28" max="48" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
     <col min="49" max="57" width="7.265625" style="2" customWidth="1"/>
-    <col min="58" max="60" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="61" max="16384" width="9.06640625" style="2"/>
+    <col min="58" max="61" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="62" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:60" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:61" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -2530,8 +2560,11 @@
       <c r="BH3" s="5">
         <v>44024</v>
       </c>
+      <c r="BI3" s="5">
+        <v>44025</v>
+      </c>
     </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -2712,8 +2745,11 @@
       <c r="BH4" s="2">
         <v>388</v>
       </c>
+      <c r="BI4" s="2">
+        <v>430</v>
+      </c>
     </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -2894,8 +2930,11 @@
       <c r="BH5" s="2">
         <v>2137</v>
       </c>
+      <c r="BI5" s="2">
+        <v>2174</v>
+      </c>
     </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -3076,8 +3115,11 @@
       <c r="BH6" s="2">
         <v>770</v>
       </c>
+      <c r="BI6" s="2">
+        <v>790</v>
+      </c>
     </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -3258,8 +3300,11 @@
       <c r="BH7" s="2">
         <v>2398</v>
       </c>
+      <c r="BI7" s="2">
+        <v>2481</v>
+      </c>
     </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -3440,8 +3485,11 @@
       <c r="BH8" s="2">
         <v>810</v>
       </c>
+      <c r="BI8" s="2">
+        <v>825</v>
+      </c>
     </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -3622,8 +3670,11 @@
       <c r="BH9" s="2">
         <v>381</v>
       </c>
+      <c r="BI9" s="2">
+        <v>1025</v>
+      </c>
     </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -3804,8 +3855,11 @@
       <c r="BH10" s="2">
         <v>597</v>
       </c>
+      <c r="BI10" s="2">
+        <v>600</v>
+      </c>
     </row>
-    <row r="11" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -3986,8 +4040,11 @@
       <c r="BH11" s="2">
         <v>276</v>
       </c>
+      <c r="BI11" s="2">
+        <v>593</v>
+      </c>
     </row>
-    <row r="12" spans="1:60" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:61" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -4168,21 +4225,24 @@
       <c r="BH12" s="3">
         <v>7757</v>
       </c>
+      <c r="BI12" s="3">
+        <v>8918</v>
+      </c>
     </row>
-    <row r="13" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:61" x14ac:dyDescent="0.3">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>15</v>
       </c>
@@ -4195,11 +4255,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC07078-FDB2-4744-9C93-DA564120E1E6}">
-  <dimension ref="A1:BH15"/>
+  <dimension ref="A1:BI15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BG5" sqref="BG5"/>
+      <selection pane="topRight" activeCell="BI1" sqref="BI1:BI1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -4208,16 +4268,16 @@
     <col min="2" max="18" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
     <col min="28" max="57" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="58" max="60" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="61" max="16384" width="9.06640625" style="2"/>
+    <col min="58" max="61" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="62" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:60" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:61" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -4398,8 +4458,11 @@
       <c r="BH3" s="5">
         <v>44024</v>
       </c>
+      <c r="BI3" s="5">
+        <v>44025</v>
+      </c>
     </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -4580,8 +4643,11 @@
       <c r="BH4" s="2">
         <v>79</v>
       </c>
+      <c r="BI4" s="2">
+        <v>79</v>
+      </c>
     </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -4762,8 +4828,11 @@
       <c r="BH5" s="2">
         <v>299</v>
       </c>
+      <c r="BI5" s="2">
+        <v>298</v>
+      </c>
     </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -4944,8 +5013,11 @@
       <c r="BH6" s="2">
         <v>126</v>
       </c>
+      <c r="BI6" s="2">
+        <v>127</v>
+      </c>
     </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -5126,8 +5198,11 @@
       <c r="BH7" s="2">
         <v>264</v>
       </c>
+      <c r="BI7" s="2">
+        <v>265</v>
+      </c>
     </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -5308,8 +5383,11 @@
       <c r="BH8" s="2">
         <v>138</v>
       </c>
+      <c r="BI8" s="2">
+        <v>140</v>
+      </c>
     </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -5490,8 +5568,11 @@
       <c r="BH9" s="2">
         <v>35</v>
       </c>
+      <c r="BI9" s="2">
+        <v>76</v>
+      </c>
     </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -5672,8 +5753,11 @@
       <c r="BH10" s="2">
         <v>77</v>
       </c>
+      <c r="BI10" s="2">
+        <v>77</v>
+      </c>
     </row>
-    <row r="11" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -5854,8 +5938,11 @@
       <c r="BH11" s="2">
         <v>42</v>
       </c>
+      <c r="BI11" s="2">
+        <v>85</v>
+      </c>
     </row>
-    <row r="12" spans="1:60" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:61" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -6038,16 +6125,19 @@
       <c r="BH12" s="3">
         <v>1060</v>
       </c>
+      <c r="BI12" s="3">
+        <v>1147</v>
+      </c>
     </row>
-    <row r="13" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:61" x14ac:dyDescent="0.3">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -6059,11 +6149,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCD14BD-3EDB-4A02-AA3B-BFB82E165626}">
-  <dimension ref="A1:BH17"/>
+  <dimension ref="A1:BI17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BE10" sqref="BE10"/>
+      <selection pane="topRight" activeCell="BH4" sqref="BH4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -6072,16 +6162,16 @@
     <col min="2" max="18" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
     <col min="28" max="57" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="58" max="60" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="61" max="16384" width="9.06640625" style="2"/>
+    <col min="58" max="61" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="62" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:60" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:61" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -6262,8 +6352,11 @@
       <c r="BH3" s="5">
         <v>44024</v>
       </c>
+      <c r="BI3" s="5">
+        <v>44025</v>
+      </c>
     </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -6444,8 +6537,11 @@
       <c r="BH4" s="2">
         <v>220</v>
       </c>
+      <c r="BI4" s="2">
+        <v>220</v>
+      </c>
     </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -6626,8 +6722,11 @@
       <c r="BH5" s="2">
         <v>1011</v>
       </c>
+      <c r="BI5" s="2">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -6808,8 +6907,11 @@
       <c r="BH6" s="2">
         <v>379</v>
       </c>
+      <c r="BI6" s="2">
+        <v>378</v>
+      </c>
     </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -6990,8 +7092,11 @@
       <c r="BH7" s="2">
         <v>751</v>
       </c>
+      <c r="BI7" s="2">
+        <v>756</v>
+      </c>
     </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -7172,8 +7277,11 @@
       <c r="BH8" s="2">
         <v>361</v>
       </c>
+      <c r="BI8" s="2">
+        <v>371</v>
+      </c>
     </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -7354,8 +7462,11 @@
       <c r="BH9" s="2">
         <v>146</v>
       </c>
+      <c r="BI9" s="2">
+        <v>199</v>
+      </c>
     </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -7536,8 +7647,11 @@
       <c r="BH10" s="2">
         <v>231</v>
       </c>
+      <c r="BI10" s="2">
+        <v>233</v>
+      </c>
     </row>
-    <row r="11" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -7718,8 +7832,11 @@
       <c r="BH11" s="2">
         <v>113</v>
       </c>
+      <c r="BI11" s="2">
+        <v>131</v>
+      </c>
     </row>
-    <row r="12" spans="1:60" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:61" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -7900,18 +8017,21 @@
       <c r="BH12" s="3">
         <v>3212</v>
       </c>
+      <c r="BI12" s="3">
+        <v>3300</v>
+      </c>
     </row>
-    <row r="14" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>15</v>
       </c>

--- a/original-sources/DSHS_nursing.xlsx
+++ b/original-sources/DSHS_nursing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F89B5801-3EF8-4D78-A3D3-74A109F24774}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0AED3163-D4AD-4685-9B75-5FB4FEF81700}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8630" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8628" activeTab="3" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
   </bookViews>
   <sheets>
     <sheet name="Facilities" sheetId="1" r:id="rId1"/>
@@ -458,30 +458,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36587124-AB08-4074-9D3F-CC49D1169958}">
-  <dimension ref="A1:BI15"/>
+  <dimension ref="A1:BJ15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="BI1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BJ4" sqref="BJ4:BJ12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.078125" defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.31640625" style="2" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="48" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="57" width="6.86328125" style="2" customWidth="1"/>
+    <col min="19" max="27" width="5.91796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="48" width="7.078125" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="57" width="6.87890625" style="2" customWidth="1"/>
     <col min="58" max="61" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="62" max="16384" width="9.06640625" style="2"/>
+    <col min="62" max="16384" width="9.078125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:61" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:62" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -665,8 +665,11 @@
       <c r="BI3" s="5">
         <v>44025</v>
       </c>
+      <c r="BJ3" s="5">
+        <v>44026</v>
+      </c>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -850,8 +853,11 @@
       <c r="BI4" s="2">
         <v>46</v>
       </c>
+      <c r="BJ4" s="2">
+        <v>46</v>
+      </c>
     </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -1035,8 +1041,11 @@
       <c r="BI5" s="2">
         <v>237</v>
       </c>
+      <c r="BJ5" s="2">
+        <v>240</v>
+      </c>
     </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -1220,8 +1229,11 @@
       <c r="BI6" s="2">
         <v>86</v>
       </c>
+      <c r="BJ6" s="2">
+        <v>87</v>
+      </c>
     </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -1405,8 +1417,11 @@
       <c r="BI7" s="2">
         <v>167</v>
       </c>
+      <c r="BJ7" s="2">
+        <v>168</v>
+      </c>
     </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1590,8 +1605,11 @@
       <c r="BI8" s="2">
         <v>73</v>
       </c>
+      <c r="BJ8" s="2">
+        <v>75</v>
+      </c>
     </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1775,8 +1793,11 @@
       <c r="BI9" s="2">
         <v>115</v>
       </c>
+      <c r="BJ9" s="2">
+        <v>115</v>
+      </c>
     </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -1960,8 +1981,11 @@
       <c r="BI10" s="2">
         <v>44</v>
       </c>
+      <c r="BJ10" s="2">
+        <v>44</v>
+      </c>
     </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -2145,8 +2169,11 @@
       <c r="BI11" s="2">
         <v>62</v>
       </c>
+      <c r="BJ11" s="2">
+        <v>63</v>
+      </c>
     </row>
-    <row r="12" spans="1:61" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:62" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -2334,16 +2361,19 @@
       <c r="BI12" s="3">
         <v>830</v>
       </c>
+      <c r="BJ12" s="3">
+        <v>838</v>
+      </c>
     </row>
-    <row r="13" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.45">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -2356,30 +2386,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001C2592-E91A-4D15-BF1F-41D54F92301C}">
-  <dimension ref="A1:BI16"/>
+  <dimension ref="A1:BJ16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BG3" sqref="BG3"/>
+      <pane xSplit="1" topLeftCell="AT1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BJ4" sqref="BJ4:BJ12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.078125" defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.31640625" style="2" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="48" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="57" width="7.265625" style="2" customWidth="1"/>
+    <col min="19" max="27" width="5.91796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="48" width="7.078125" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="57" width="7.27734375" style="2" customWidth="1"/>
     <col min="58" max="61" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="62" max="16384" width="9.06640625" style="2"/>
+    <col min="62" max="16384" width="9.078125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:61" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:62" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -2563,8 +2593,11 @@
       <c r="BI3" s="5">
         <v>44025</v>
       </c>
+      <c r="BJ3" s="5">
+        <v>44026</v>
+      </c>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -2748,8 +2781,11 @@
       <c r="BI4" s="2">
         <v>430</v>
       </c>
+      <c r="BJ4" s="2">
+        <v>436</v>
+      </c>
     </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -2933,8 +2969,11 @@
       <c r="BI5" s="2">
         <v>2174</v>
       </c>
+      <c r="BJ5" s="2">
+        <v>2232</v>
+      </c>
     </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -3118,8 +3157,11 @@
       <c r="BI6" s="2">
         <v>790</v>
       </c>
+      <c r="BJ6" s="2">
+        <v>796</v>
+      </c>
     </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -3303,8 +3345,11 @@
       <c r="BI7" s="2">
         <v>2481</v>
       </c>
+      <c r="BJ7" s="2">
+        <v>2513</v>
+      </c>
     </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -3488,8 +3533,11 @@
       <c r="BI8" s="2">
         <v>825</v>
       </c>
+      <c r="BJ8" s="2">
+        <v>879</v>
+      </c>
     </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -3673,8 +3721,11 @@
       <c r="BI9" s="2">
         <v>1025</v>
       </c>
+      <c r="BJ9" s="2">
+        <v>1128</v>
+      </c>
     </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -3858,8 +3909,11 @@
       <c r="BI10" s="2">
         <v>600</v>
       </c>
+      <c r="BJ10" s="2">
+        <v>652</v>
+      </c>
     </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -4043,8 +4097,11 @@
       <c r="BI11" s="2">
         <v>593</v>
       </c>
+      <c r="BJ11" s="2">
+        <v>595</v>
+      </c>
     </row>
-    <row r="12" spans="1:61" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:62" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -4228,21 +4285,24 @@
       <c r="BI12" s="3">
         <v>8918</v>
       </c>
+      <c r="BJ12" s="3">
+        <v>9231</v>
+      </c>
     </row>
-    <row r="13" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.45">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A16" s="8" t="s">
         <v>15</v>
       </c>
@@ -4255,29 +4315,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC07078-FDB2-4744-9C93-DA564120E1E6}">
-  <dimension ref="A1:BI15"/>
+  <dimension ref="A1:BJ15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BI1" sqref="BI1:BI1048576"/>
+      <pane xSplit="1" topLeftCell="AT1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BJ4" sqref="BJ4:BJ12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.078125" defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.31640625" style="2" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="57" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="27" width="5.91796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="57" width="7.078125" style="2" bestFit="1" customWidth="1"/>
     <col min="58" max="61" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="62" max="16384" width="9.06640625" style="2"/>
+    <col min="62" max="16384" width="9.078125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:61" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:62" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -4461,8 +4521,11 @@
       <c r="BI3" s="5">
         <v>44025</v>
       </c>
+      <c r="BJ3" s="5">
+        <v>44026</v>
+      </c>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -4646,8 +4709,11 @@
       <c r="BI4" s="2">
         <v>79</v>
       </c>
+      <c r="BJ4" s="2">
+        <v>80</v>
+      </c>
     </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -4831,8 +4897,11 @@
       <c r="BI5" s="2">
         <v>298</v>
       </c>
+      <c r="BJ5" s="2">
+        <v>304</v>
+      </c>
     </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -5016,8 +5085,11 @@
       <c r="BI6" s="2">
         <v>127</v>
       </c>
+      <c r="BJ6" s="2">
+        <v>127</v>
+      </c>
     </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -5201,8 +5273,11 @@
       <c r="BI7" s="2">
         <v>265</v>
       </c>
+      <c r="BJ7" s="2">
+        <v>269</v>
+      </c>
     </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -5386,8 +5461,11 @@
       <c r="BI8" s="2">
         <v>140</v>
       </c>
+      <c r="BJ8" s="2">
+        <v>141</v>
+      </c>
     </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -5571,8 +5649,11 @@
       <c r="BI9" s="2">
         <v>76</v>
       </c>
+      <c r="BJ9" s="2">
+        <v>83</v>
+      </c>
     </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -5756,8 +5837,11 @@
       <c r="BI10" s="2">
         <v>77</v>
       </c>
+      <c r="BJ10" s="2">
+        <v>84</v>
+      </c>
     </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -5941,8 +6025,11 @@
       <c r="BI11" s="2">
         <v>85</v>
       </c>
+      <c r="BJ11" s="2">
+        <v>85</v>
+      </c>
     </row>
-    <row r="12" spans="1:61" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:62" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -6128,16 +6215,19 @@
       <c r="BI12" s="3">
         <v>1147</v>
       </c>
+      <c r="BJ12" s="3">
+        <v>1173</v>
+      </c>
     </row>
-    <row r="13" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.45">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -6149,29 +6239,29 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCD14BD-3EDB-4A02-AA3B-BFB82E165626}">
-  <dimension ref="A1:BI17"/>
+  <dimension ref="A1:BJ17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BH4" sqref="BH4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AT1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BJ4" sqref="BJ4:BJ12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.078125" defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.31640625" style="2" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="57" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="27" width="5.91796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="57" width="7.078125" style="2" bestFit="1" customWidth="1"/>
     <col min="58" max="61" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="62" max="16384" width="9.06640625" style="2"/>
+    <col min="62" max="16384" width="9.078125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:61" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:62" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -6355,8 +6445,11 @@
       <c r="BI3" s="5">
         <v>44025</v>
       </c>
+      <c r="BJ3" s="5">
+        <v>44026</v>
+      </c>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -6540,8 +6633,11 @@
       <c r="BI4" s="2">
         <v>220</v>
       </c>
+      <c r="BJ4" s="2">
+        <v>220</v>
+      </c>
     </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -6725,8 +6821,11 @@
       <c r="BI5" s="2">
         <v>1012</v>
       </c>
+      <c r="BJ5" s="2">
+        <v>1030</v>
+      </c>
     </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -6910,8 +7009,11 @@
       <c r="BI6" s="2">
         <v>378</v>
       </c>
+      <c r="BJ6" s="2">
+        <v>387</v>
+      </c>
     </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -7095,8 +7197,11 @@
       <c r="BI7" s="2">
         <v>756</v>
       </c>
+      <c r="BJ7" s="2">
+        <v>788</v>
+      </c>
     </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -7280,8 +7385,11 @@
       <c r="BI8" s="2">
         <v>371</v>
       </c>
+      <c r="BJ8" s="2">
+        <v>380</v>
+      </c>
     </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -7465,8 +7573,11 @@
       <c r="BI9" s="2">
         <v>199</v>
       </c>
+      <c r="BJ9" s="2">
+        <v>199</v>
+      </c>
     </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -7650,8 +7761,11 @@
       <c r="BI10" s="2">
         <v>233</v>
       </c>
+      <c r="BJ10" s="2">
+        <v>235</v>
+      </c>
     </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -7835,8 +7949,11 @@
       <c r="BI11" s="2">
         <v>131</v>
       </c>
+      <c r="BJ11" s="2">
+        <v>132</v>
+      </c>
     </row>
-    <row r="12" spans="1:61" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:62" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -8020,23 +8137,26 @@
       <c r="BI12" s="3">
         <v>3300</v>
       </c>
+      <c r="BJ12" s="3">
+        <v>3371</v>
+      </c>
     </row>
-    <row r="14" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A16" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>

--- a/original-sources/DSHS_nursing.xlsx
+++ b/original-sources/DSHS_nursing.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dshs4dvchsfs01.dshs.state.tx.us\CHS Share\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0AED3163-D4AD-4685-9B75-5FB4FEF81700}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6D9B3C0F-86DC-4836-9350-DA6030EC0BA7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8628" activeTab="3" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
   </bookViews>
@@ -458,11 +458,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36587124-AB08-4074-9D3F-CC49D1169958}">
-  <dimension ref="A1:BJ15"/>
+  <dimension ref="A1:BK15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BI1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BJ4" sqref="BJ4:BJ12"/>
+      <pane xSplit="1" topLeftCell="AZ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BK12" sqref="BK12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.078125" defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
@@ -476,12 +476,12 @@
     <col min="62" max="16384" width="9.078125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:62" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -668,8 +668,11 @@
       <c r="BJ3" s="5">
         <v>44026</v>
       </c>
+      <c r="BK3" s="5">
+        <v>44027</v>
+      </c>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -856,8 +859,11 @@
       <c r="BJ4" s="2">
         <v>46</v>
       </c>
+      <c r="BK4" s="2">
+        <v>46</v>
+      </c>
     </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -1044,8 +1050,11 @@
       <c r="BJ5" s="2">
         <v>240</v>
       </c>
+      <c r="BK5" s="2">
+        <v>244</v>
+      </c>
     </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -1232,8 +1241,11 @@
       <c r="BJ6" s="2">
         <v>87</v>
       </c>
+      <c r="BK6" s="2">
+        <v>88</v>
+      </c>
     </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -1420,8 +1432,11 @@
       <c r="BJ7" s="2">
         <v>168</v>
       </c>
+      <c r="BK7" s="2">
+        <v>169</v>
+      </c>
     </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1608,8 +1623,11 @@
       <c r="BJ8" s="2">
         <v>75</v>
       </c>
+      <c r="BK8" s="2">
+        <v>77</v>
+      </c>
     </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1796,8 +1814,11 @@
       <c r="BJ9" s="2">
         <v>115</v>
       </c>
+      <c r="BK9" s="2">
+        <v>119</v>
+      </c>
     </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -1984,8 +2005,11 @@
       <c r="BJ10" s="2">
         <v>44</v>
       </c>
+      <c r="BK10" s="2">
+        <v>44</v>
+      </c>
     </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -2172,8 +2196,11 @@
       <c r="BJ11" s="2">
         <v>63</v>
       </c>
+      <c r="BK11" s="2">
+        <v>64</v>
+      </c>
     </row>
-    <row r="12" spans="1:62" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:63" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -2364,16 +2391,19 @@
       <c r="BJ12" s="3">
         <v>838</v>
       </c>
+      <c r="BK12" s="3">
+        <v>851</v>
+      </c>
     </row>
-    <row r="13" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:63" x14ac:dyDescent="0.45">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -2386,11 +2416,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001C2592-E91A-4D15-BF1F-41D54F92301C}">
-  <dimension ref="A1:BJ16"/>
+  <dimension ref="A1:BK16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AT1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BJ4" sqref="BJ4:BJ12"/>
+      <pane xSplit="1" topLeftCell="BF1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.078125" defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
@@ -2404,12 +2434,12 @@
     <col min="62" max="16384" width="9.078125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:62" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -2596,8 +2626,11 @@
       <c r="BJ3" s="5">
         <v>44026</v>
       </c>
+      <c r="BK3" s="5">
+        <v>44027</v>
+      </c>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -2784,8 +2817,11 @@
       <c r="BJ4" s="2">
         <v>436</v>
       </c>
+      <c r="BK4" s="2">
+        <v>462</v>
+      </c>
     </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -2972,8 +3008,11 @@
       <c r="BJ5" s="2">
         <v>2232</v>
       </c>
+      <c r="BK5" s="2">
+        <v>2303</v>
+      </c>
     </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -3160,8 +3199,11 @@
       <c r="BJ6" s="2">
         <v>796</v>
       </c>
+      <c r="BK6" s="2">
+        <v>821</v>
+      </c>
     </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -3348,8 +3390,11 @@
       <c r="BJ7" s="2">
         <v>2513</v>
       </c>
+      <c r="BK7" s="2">
+        <v>2550</v>
+      </c>
     </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -3536,8 +3581,11 @@
       <c r="BJ8" s="2">
         <v>879</v>
       </c>
+      <c r="BK8" s="2">
+        <v>898</v>
+      </c>
     </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -3724,8 +3772,11 @@
       <c r="BJ9" s="2">
         <v>1128</v>
       </c>
+      <c r="BK9" s="2">
+        <v>1157</v>
+      </c>
     </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -3912,8 +3963,11 @@
       <c r="BJ10" s="2">
         <v>652</v>
       </c>
+      <c r="BK10" s="2">
+        <v>666</v>
+      </c>
     </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -4100,8 +4154,11 @@
       <c r="BJ11" s="2">
         <v>595</v>
       </c>
+      <c r="BK11" s="2">
+        <v>752</v>
+      </c>
     </row>
-    <row r="12" spans="1:62" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:63" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -4288,21 +4345,24 @@
       <c r="BJ12" s="3">
         <v>9231</v>
       </c>
+      <c r="BK12" s="3">
+        <v>9609</v>
+      </c>
     </row>
-    <row r="13" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:63" x14ac:dyDescent="0.45">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A16" s="8" t="s">
         <v>15</v>
       </c>
@@ -4315,11 +4375,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC07078-FDB2-4744-9C93-DA564120E1E6}">
-  <dimension ref="A1:BJ15"/>
+  <dimension ref="A1:BK15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AT1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BJ4" sqref="BJ4:BJ12"/>
+      <pane xSplit="1" topLeftCell="BD1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BK4" sqref="BK4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.078125" defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
@@ -4332,12 +4392,12 @@
     <col min="62" max="16384" width="9.078125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:62" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -4524,8 +4584,11 @@
       <c r="BJ3" s="5">
         <v>44026</v>
       </c>
+      <c r="BK3" s="5">
+        <v>44027</v>
+      </c>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -4712,8 +4775,11 @@
       <c r="BJ4" s="2">
         <v>80</v>
       </c>
+      <c r="BK4" s="2">
+        <v>81</v>
+      </c>
     </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -4900,8 +4966,11 @@
       <c r="BJ5" s="2">
         <v>304</v>
       </c>
+      <c r="BK5" s="2">
+        <v>313</v>
+      </c>
     </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -5088,8 +5157,11 @@
       <c r="BJ6" s="2">
         <v>127</v>
       </c>
+      <c r="BK6" s="2">
+        <v>129</v>
+      </c>
     </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -5276,8 +5348,11 @@
       <c r="BJ7" s="2">
         <v>269</v>
       </c>
+      <c r="BK7" s="2">
+        <v>276</v>
+      </c>
     </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -5464,8 +5539,11 @@
       <c r="BJ8" s="2">
         <v>141</v>
       </c>
+      <c r="BK8" s="2">
+        <v>142</v>
+      </c>
     </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -5652,8 +5730,11 @@
       <c r="BJ9" s="2">
         <v>83</v>
       </c>
+      <c r="BK9" s="2">
+        <v>92</v>
+      </c>
     </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -5840,8 +5921,11 @@
       <c r="BJ10" s="2">
         <v>84</v>
       </c>
+      <c r="BK10" s="2">
+        <v>87</v>
+      </c>
     </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -6028,8 +6112,11 @@
       <c r="BJ11" s="2">
         <v>85</v>
       </c>
+      <c r="BK11" s="2">
+        <v>116</v>
+      </c>
     </row>
-    <row r="12" spans="1:62" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:63" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -6218,16 +6305,19 @@
       <c r="BJ12" s="3">
         <v>1173</v>
       </c>
+      <c r="BK12" s="3">
+        <v>1236</v>
+      </c>
     </row>
-    <row r="13" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:63" x14ac:dyDescent="0.45">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -6239,11 +6329,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCD14BD-3EDB-4A02-AA3B-BFB82E165626}">
-  <dimension ref="A1:BJ17"/>
+  <dimension ref="A1:BK17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AT1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BJ4" sqref="BJ4:BJ12"/>
+      <pane xSplit="1" topLeftCell="BB1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BK12" sqref="BK12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.078125" defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
@@ -6256,12 +6346,12 @@
     <col min="62" max="16384" width="9.078125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:62" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -6448,8 +6538,11 @@
       <c r="BJ3" s="5">
         <v>44026</v>
       </c>
+      <c r="BK3" s="5">
+        <v>44027</v>
+      </c>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -6636,8 +6729,11 @@
       <c r="BJ4" s="2">
         <v>220</v>
       </c>
+      <c r="BK4" s="2">
+        <v>220</v>
+      </c>
     </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -6824,8 +6920,11 @@
       <c r="BJ5" s="2">
         <v>1030</v>
       </c>
+      <c r="BK5" s="2">
+        <v>1041</v>
+      </c>
     </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -7012,8 +7111,11 @@
       <c r="BJ6" s="2">
         <v>387</v>
       </c>
+      <c r="BK6" s="2">
+        <v>392</v>
+      </c>
     </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -7200,8 +7302,11 @@
       <c r="BJ7" s="2">
         <v>788</v>
       </c>
+      <c r="BK7" s="2">
+        <v>809</v>
+      </c>
     </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -7388,8 +7493,11 @@
       <c r="BJ8" s="2">
         <v>380</v>
       </c>
+      <c r="BK8" s="2">
+        <v>393</v>
+      </c>
     </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -7576,8 +7684,11 @@
       <c r="BJ9" s="2">
         <v>199</v>
       </c>
+      <c r="BK9" s="2">
+        <v>222</v>
+      </c>
     </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -7764,8 +7875,11 @@
       <c r="BJ10" s="2">
         <v>235</v>
       </c>
+      <c r="BK10" s="2">
+        <v>247</v>
+      </c>
     </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -7952,8 +8066,11 @@
       <c r="BJ11" s="2">
         <v>132</v>
       </c>
+      <c r="BK11" s="2">
+        <v>163</v>
+      </c>
     </row>
-    <row r="12" spans="1:62" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:63" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -8140,18 +8257,21 @@
       <c r="BJ12" s="3">
         <v>3371</v>
       </c>
+      <c r="BK12" s="3">
+        <v>3487</v>
+      </c>
     </row>
-    <row r="14" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A16" s="8" t="s">
         <v>15</v>
       </c>

--- a/original-sources/DSHS_nursing.xlsx
+++ b/original-sources/DSHS_nursing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dshs4dvchsfs01.dshs.state.tx.us\CHS Share\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6D9B3C0F-86DC-4836-9350-DA6030EC0BA7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D51CCF93-E71D-4B14-A927-CDE31DBE046F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8628" activeTab="3" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
   </bookViews>
@@ -458,11 +458,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36587124-AB08-4074-9D3F-CC49D1169958}">
-  <dimension ref="A1:BK15"/>
+  <dimension ref="A1:BL15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AZ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BK12" sqref="BK12"/>
+      <pane xSplit="1" topLeftCell="AY1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BE13" sqref="BE13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.078125" defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
@@ -473,15 +473,18 @@
     <col min="28" max="48" width="7.078125" style="2" bestFit="1" customWidth="1"/>
     <col min="49" max="57" width="6.87890625" style="2" customWidth="1"/>
     <col min="58" max="61" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="62" max="16384" width="9.078125" style="2"/>
+    <col min="62" max="62" width="7.19921875" style="2" customWidth="1"/>
+    <col min="63" max="63" width="6.6796875" style="2" customWidth="1"/>
+    <col min="64" max="64" width="7.4765625" style="2" customWidth="1"/>
+    <col min="65" max="16384" width="9.078125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:64" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -671,8 +674,11 @@
       <c r="BK3" s="5">
         <v>44027</v>
       </c>
+      <c r="BL3" s="5">
+        <v>44028</v>
+      </c>
     </row>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -862,8 +868,11 @@
       <c r="BK4" s="2">
         <v>46</v>
       </c>
+      <c r="BL4" s="2">
+        <v>46</v>
+      </c>
     </row>
-    <row r="5" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -1053,8 +1062,11 @@
       <c r="BK5" s="2">
         <v>244</v>
       </c>
+      <c r="BL5" s="2">
+        <v>247</v>
+      </c>
     </row>
-    <row r="6" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -1244,8 +1256,11 @@
       <c r="BK6" s="2">
         <v>88</v>
       </c>
+      <c r="BL6" s="2">
+        <v>88</v>
+      </c>
     </row>
-    <row r="7" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -1435,8 +1450,11 @@
       <c r="BK7" s="2">
         <v>169</v>
       </c>
+      <c r="BL7" s="2">
+        <v>173</v>
+      </c>
     </row>
-    <row r="8" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1626,8 +1644,11 @@
       <c r="BK8" s="2">
         <v>77</v>
       </c>
+      <c r="BL8" s="2">
+        <v>78</v>
+      </c>
     </row>
-    <row r="9" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1817,8 +1838,11 @@
       <c r="BK9" s="2">
         <v>119</v>
       </c>
+      <c r="BL9" s="2">
+        <v>119</v>
+      </c>
     </row>
-    <row r="10" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -2008,8 +2032,11 @@
       <c r="BK10" s="2">
         <v>44</v>
       </c>
+      <c r="BL10" s="2">
+        <v>44</v>
+      </c>
     </row>
-    <row r="11" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -2199,8 +2226,11 @@
       <c r="BK11" s="2">
         <v>64</v>
       </c>
+      <c r="BL11" s="2">
+        <v>64</v>
+      </c>
     </row>
-    <row r="12" spans="1:63" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:64" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -2394,16 +2424,19 @@
       <c r="BK12" s="3">
         <v>851</v>
       </c>
+      <c r="BL12" s="3">
+        <v>859</v>
+      </c>
     </row>
-    <row r="13" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.45">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -2416,7 +2449,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001C2592-E91A-4D15-BF1F-41D54F92301C}">
-  <dimension ref="A1:BK16"/>
+  <dimension ref="A1:BL16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="BF1" activePane="topRight" state="frozen"/>
@@ -2434,12 +2467,12 @@
     <col min="62" max="16384" width="9.078125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:64" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -2629,8 +2662,11 @@
       <c r="BK3" s="5">
         <v>44027</v>
       </c>
+      <c r="BL3" s="5">
+        <v>44028</v>
+      </c>
     </row>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -2820,8 +2856,11 @@
       <c r="BK4" s="2">
         <v>462</v>
       </c>
+      <c r="BL4" s="2">
+        <v>462</v>
+      </c>
     </row>
-    <row r="5" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -3011,8 +3050,11 @@
       <c r="BK5" s="2">
         <v>2303</v>
       </c>
+      <c r="BL5" s="2">
+        <v>2294</v>
+      </c>
     </row>
-    <row r="6" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -3202,8 +3244,11 @@
       <c r="BK6" s="2">
         <v>821</v>
       </c>
+      <c r="BL6" s="2">
+        <v>846</v>
+      </c>
     </row>
-    <row r="7" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -3393,8 +3438,11 @@
       <c r="BK7" s="2">
         <v>2550</v>
       </c>
+      <c r="BL7" s="2">
+        <v>2733</v>
+      </c>
     </row>
-    <row r="8" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -3584,8 +3632,11 @@
       <c r="BK8" s="2">
         <v>898</v>
       </c>
+      <c r="BL8" s="2">
+        <v>915</v>
+      </c>
     </row>
-    <row r="9" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -3775,8 +3826,11 @@
       <c r="BK9" s="2">
         <v>1157</v>
       </c>
+      <c r="BL9" s="2">
+        <v>1357</v>
+      </c>
     </row>
-    <row r="10" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -3966,8 +4020,11 @@
       <c r="BK10" s="2">
         <v>666</v>
       </c>
+      <c r="BL10" s="2">
+        <v>674</v>
+      </c>
     </row>
-    <row r="11" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -4157,8 +4214,11 @@
       <c r="BK11" s="2">
         <v>752</v>
       </c>
+      <c r="BL11" s="2">
+        <v>776</v>
+      </c>
     </row>
-    <row r="12" spans="1:63" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:64" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -4348,21 +4408,24 @@
       <c r="BK12" s="3">
         <v>9609</v>
       </c>
+      <c r="BL12" s="3">
+        <v>10057</v>
+      </c>
     </row>
-    <row r="13" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.45">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A16" s="8" t="s">
         <v>15</v>
       </c>
@@ -4375,11 +4438,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC07078-FDB2-4744-9C93-DA564120E1E6}">
-  <dimension ref="A1:BK15"/>
+  <dimension ref="A1:BL15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="BD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BK4" sqref="BK4"/>
+      <selection pane="topRight" activeCell="BK3" sqref="BK3:BL3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.078125" defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
@@ -4392,12 +4455,12 @@
     <col min="62" max="16384" width="9.078125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:64" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -4587,8 +4650,11 @@
       <c r="BK3" s="5">
         <v>44027</v>
       </c>
+      <c r="BL3" s="5">
+        <v>44028</v>
+      </c>
     </row>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -4778,8 +4844,11 @@
       <c r="BK4" s="2">
         <v>81</v>
       </c>
+      <c r="BL4" s="2">
+        <v>81</v>
+      </c>
     </row>
-    <row r="5" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -4969,8 +5038,11 @@
       <c r="BK5" s="2">
         <v>313</v>
       </c>
+      <c r="BL5" s="2">
+        <v>318</v>
+      </c>
     </row>
-    <row r="6" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -5160,8 +5232,11 @@
       <c r="BK6" s="2">
         <v>129</v>
       </c>
+      <c r="BL6" s="2">
+        <v>129</v>
+      </c>
     </row>
-    <row r="7" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -5351,8 +5426,11 @@
       <c r="BK7" s="2">
         <v>276</v>
       </c>
+      <c r="BL7" s="2">
+        <v>292</v>
+      </c>
     </row>
-    <row r="8" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -5542,8 +5620,11 @@
       <c r="BK8" s="2">
         <v>142</v>
       </c>
+      <c r="BL8" s="2">
+        <v>143</v>
+      </c>
     </row>
-    <row r="9" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -5733,8 +5814,11 @@
       <c r="BK9" s="2">
         <v>92</v>
       </c>
+      <c r="BL9" s="2">
+        <v>109</v>
+      </c>
     </row>
-    <row r="10" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -5924,8 +6008,11 @@
       <c r="BK10" s="2">
         <v>87</v>
       </c>
+      <c r="BL10" s="2">
+        <v>99</v>
+      </c>
     </row>
-    <row r="11" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -6115,8 +6202,11 @@
       <c r="BK11" s="2">
         <v>116</v>
       </c>
+      <c r="BL11" s="2">
+        <v>119</v>
+      </c>
     </row>
-    <row r="12" spans="1:63" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:64" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -6308,16 +6398,19 @@
       <c r="BK12" s="3">
         <v>1236</v>
       </c>
+      <c r="BL12" s="3">
+        <v>1290</v>
+      </c>
     </row>
-    <row r="13" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.45">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -6329,11 +6422,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCD14BD-3EDB-4A02-AA3B-BFB82E165626}">
-  <dimension ref="A1:BK17"/>
+  <dimension ref="A1:BL17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BB1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BK12" sqref="BK12"/>
+      <selection pane="topRight" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.078125" defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
@@ -6346,12 +6439,12 @@
     <col min="62" max="16384" width="9.078125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:64" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -6541,8 +6634,11 @@
       <c r="BK3" s="5">
         <v>44027</v>
       </c>
+      <c r="BL3" s="5">
+        <v>44028</v>
+      </c>
     </row>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -6732,8 +6828,11 @@
       <c r="BK4" s="2">
         <v>220</v>
       </c>
+      <c r="BL4" s="2">
+        <v>220</v>
+      </c>
     </row>
-    <row r="5" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -6923,8 +7022,11 @@
       <c r="BK5" s="2">
         <v>1041</v>
       </c>
+      <c r="BL5" s="2">
+        <v>1020</v>
+      </c>
     </row>
-    <row r="6" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -7114,8 +7216,11 @@
       <c r="BK6" s="2">
         <v>392</v>
       </c>
+      <c r="BL6" s="2">
+        <v>393</v>
+      </c>
     </row>
-    <row r="7" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -7305,8 +7410,11 @@
       <c r="BK7" s="2">
         <v>809</v>
       </c>
+      <c r="BL7" s="2">
+        <v>817</v>
+      </c>
     </row>
-    <row r="8" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -7496,8 +7604,11 @@
       <c r="BK8" s="2">
         <v>393</v>
       </c>
+      <c r="BL8" s="2">
+        <v>394</v>
+      </c>
     </row>
-    <row r="9" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -7687,8 +7798,11 @@
       <c r="BK9" s="2">
         <v>222</v>
       </c>
+      <c r="BL9" s="2">
+        <v>245</v>
+      </c>
     </row>
-    <row r="10" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -7878,8 +7992,11 @@
       <c r="BK10" s="2">
         <v>247</v>
       </c>
+      <c r="BL10" s="2">
+        <v>247</v>
+      </c>
     </row>
-    <row r="11" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -8069,8 +8186,11 @@
       <c r="BK11" s="2">
         <v>163</v>
       </c>
+      <c r="BL11" s="2">
+        <v>162</v>
+      </c>
     </row>
-    <row r="12" spans="1:63" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:64" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -8260,18 +8380,21 @@
       <c r="BK12" s="3">
         <v>3487</v>
       </c>
+      <c r="BL12" s="3">
+        <v>3498</v>
+      </c>
     </row>
-    <row r="14" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A16" s="8" t="s">
         <v>15</v>
       </c>

--- a/original-sources/DSHS_nursing.xlsx
+++ b/original-sources/DSHS_nursing.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dshs4dvchsfs01.dshs.state.tx.us\CHS Share\CHS-AAU\Epi\Covid\For Ektron\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D51CCF93-E71D-4B14-A927-CDE31DBE046F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F16AF950-371C-4AF7-BE2C-1CBFA7E27B52}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8628" activeTab="3" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8628" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
   </bookViews>
   <sheets>
     <sheet name="Facilities" sheetId="1" r:id="rId1"/>
@@ -458,11 +458,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36587124-AB08-4074-9D3F-CC49D1169958}">
-  <dimension ref="A1:BL15"/>
+  <dimension ref="A1:BM15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AY1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BE13" sqref="BE13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="BG1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.078125" defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
@@ -479,12 +479,12 @@
     <col min="65" max="16384" width="9.078125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:64" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:65" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -677,8 +677,11 @@
       <c r="BL3" s="5">
         <v>44028</v>
       </c>
+      <c r="BM3" s="5">
+        <v>44029</v>
+      </c>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -871,8 +874,11 @@
       <c r="BL4" s="2">
         <v>46</v>
       </c>
+      <c r="BM4" s="2">
+        <v>46</v>
+      </c>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -1065,8 +1071,11 @@
       <c r="BL5" s="2">
         <v>247</v>
       </c>
+      <c r="BM5" s="2">
+        <v>248</v>
+      </c>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -1259,8 +1268,11 @@
       <c r="BL6" s="2">
         <v>88</v>
       </c>
+      <c r="BM6" s="2">
+        <v>90</v>
+      </c>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -1453,8 +1465,11 @@
       <c r="BL7" s="2">
         <v>173</v>
       </c>
+      <c r="BM7" s="2">
+        <v>175</v>
+      </c>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1647,8 +1662,11 @@
       <c r="BL8" s="2">
         <v>78</v>
       </c>
+      <c r="BM8" s="2">
+        <v>78</v>
+      </c>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1841,8 +1859,11 @@
       <c r="BL9" s="2">
         <v>119</v>
       </c>
+      <c r="BM9" s="2">
+        <v>122</v>
+      </c>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -2035,8 +2056,11 @@
       <c r="BL10" s="2">
         <v>44</v>
       </c>
+      <c r="BM10" s="2">
+        <v>43</v>
+      </c>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -2229,8 +2253,11 @@
       <c r="BL11" s="2">
         <v>64</v>
       </c>
+      <c r="BM11" s="2">
+        <v>64</v>
+      </c>
     </row>
-    <row r="12" spans="1:64" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:65" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -2427,16 +2454,19 @@
       <c r="BL12" s="3">
         <v>859</v>
       </c>
+      <c r="BM12" s="3">
+        <v>866</v>
+      </c>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:65" x14ac:dyDescent="0.45">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -2449,7 +2479,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001C2592-E91A-4D15-BF1F-41D54F92301C}">
-  <dimension ref="A1:BL16"/>
+  <dimension ref="A1:BM16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="BF1" activePane="topRight" state="frozen"/>
@@ -2467,12 +2497,12 @@
     <col min="62" max="16384" width="9.078125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:64" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:65" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -2665,8 +2695,11 @@
       <c r="BL3" s="5">
         <v>44028</v>
       </c>
+      <c r="BM3" s="5">
+        <v>44029</v>
+      </c>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -2859,8 +2892,11 @@
       <c r="BL4" s="2">
         <v>462</v>
       </c>
+      <c r="BM4" s="2">
+        <v>462</v>
+      </c>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -3053,8 +3089,11 @@
       <c r="BL5" s="2">
         <v>2294</v>
       </c>
+      <c r="BM5" s="2">
+        <v>2323</v>
+      </c>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -3247,8 +3286,11 @@
       <c r="BL6" s="2">
         <v>846</v>
       </c>
+      <c r="BM6" s="2">
+        <v>923</v>
+      </c>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -3441,8 +3483,11 @@
       <c r="BL7" s="2">
         <v>2733</v>
       </c>
+      <c r="BM7" s="2">
+        <v>2747</v>
+      </c>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -3635,8 +3680,11 @@
       <c r="BL8" s="2">
         <v>915</v>
       </c>
+      <c r="BM8" s="2">
+        <v>989</v>
+      </c>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -3829,8 +3877,11 @@
       <c r="BL9" s="2">
         <v>1357</v>
       </c>
+      <c r="BM9" s="2">
+        <v>1448</v>
+      </c>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -4023,8 +4074,11 @@
       <c r="BL10" s="2">
         <v>674</v>
       </c>
+      <c r="BM10" s="2">
+        <v>722</v>
+      </c>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -4217,8 +4271,11 @@
       <c r="BL11" s="2">
         <v>776</v>
       </c>
+      <c r="BM11" s="2">
+        <v>835</v>
+      </c>
     </row>
-    <row r="12" spans="1:64" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:65" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -4411,21 +4468,24 @@
       <c r="BL12" s="3">
         <v>10057</v>
       </c>
+      <c r="BM12" s="3">
+        <v>10449</v>
+      </c>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:65" x14ac:dyDescent="0.45">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A16" s="8" t="s">
         <v>15</v>
       </c>
@@ -4438,11 +4498,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC07078-FDB2-4744-9C93-DA564120E1E6}">
-  <dimension ref="A1:BL15"/>
+  <dimension ref="A1:BM15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BK3" sqref="BK3:BL3"/>
+      <pane xSplit="1" topLeftCell="BG1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.078125" defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
@@ -4455,12 +4515,12 @@
     <col min="62" max="16384" width="9.078125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:64" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:65" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -4653,8 +4713,11 @@
       <c r="BL3" s="5">
         <v>44028</v>
       </c>
+      <c r="BM3" s="5">
+        <v>44029</v>
+      </c>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -4847,8 +4910,11 @@
       <c r="BL4" s="2">
         <v>81</v>
       </c>
+      <c r="BM4" s="2">
+        <v>81</v>
+      </c>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -5041,8 +5107,11 @@
       <c r="BL5" s="2">
         <v>318</v>
       </c>
+      <c r="BM5" s="2">
+        <v>321</v>
+      </c>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -5235,8 +5304,11 @@
       <c r="BL6" s="2">
         <v>129</v>
       </c>
+      <c r="BM6" s="2">
+        <v>132</v>
+      </c>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -5429,8 +5501,11 @@
       <c r="BL7" s="2">
         <v>292</v>
       </c>
+      <c r="BM7" s="2">
+        <v>292</v>
+      </c>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -5623,8 +5698,11 @@
       <c r="BL8" s="2">
         <v>143</v>
       </c>
+      <c r="BM8" s="2">
+        <v>155</v>
+      </c>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -5817,8 +5895,11 @@
       <c r="BL9" s="2">
         <v>109</v>
       </c>
+      <c r="BM9" s="2">
+        <v>112</v>
+      </c>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -6011,8 +6092,11 @@
       <c r="BL10" s="2">
         <v>99</v>
       </c>
+      <c r="BM10" s="2">
+        <v>104</v>
+      </c>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -6205,8 +6289,11 @@
       <c r="BL11" s="2">
         <v>119</v>
       </c>
+      <c r="BM11" s="2">
+        <v>136</v>
+      </c>
     </row>
-    <row r="12" spans="1:64" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:65" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -6401,16 +6488,19 @@
       <c r="BL12" s="3">
         <v>1290</v>
       </c>
+      <c r="BM12" s="3">
+        <v>1333</v>
+      </c>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:65" x14ac:dyDescent="0.45">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -6422,11 +6512,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCD14BD-3EDB-4A02-AA3B-BFB82E165626}">
-  <dimension ref="A1:BL17"/>
+  <dimension ref="A1:BM17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BB1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="BF1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.078125" defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
@@ -6439,12 +6529,12 @@
     <col min="62" max="16384" width="9.078125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:64" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:65" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -6637,8 +6727,11 @@
       <c r="BL3" s="5">
         <v>44028</v>
       </c>
+      <c r="BM3" s="5">
+        <v>44029</v>
+      </c>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -6831,8 +6924,11 @@
       <c r="BL4" s="2">
         <v>220</v>
       </c>
+      <c r="BM4" s="2">
+        <v>220</v>
+      </c>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -7025,8 +7121,11 @@
       <c r="BL5" s="2">
         <v>1020</v>
       </c>
+      <c r="BM5" s="2">
+        <v>1035</v>
+      </c>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -7219,8 +7318,11 @@
       <c r="BL6" s="2">
         <v>393</v>
       </c>
+      <c r="BM6" s="2">
+        <v>394</v>
+      </c>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -7413,8 +7515,11 @@
       <c r="BL7" s="2">
         <v>817</v>
       </c>
+      <c r="BM7" s="2">
+        <v>817</v>
+      </c>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -7607,8 +7712,11 @@
       <c r="BL8" s="2">
         <v>394</v>
       </c>
+      <c r="BM8" s="2">
+        <v>397</v>
+      </c>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -7801,8 +7909,11 @@
       <c r="BL9" s="2">
         <v>245</v>
       </c>
+      <c r="BM9" s="2">
+        <v>251</v>
+      </c>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -7995,8 +8106,11 @@
       <c r="BL10" s="2">
         <v>247</v>
       </c>
+      <c r="BM10" s="2">
+        <v>253</v>
+      </c>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -8189,8 +8303,11 @@
       <c r="BL11" s="2">
         <v>162</v>
       </c>
+      <c r="BM11" s="2">
+        <v>168</v>
+      </c>
     </row>
-    <row r="12" spans="1:64" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:65" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -8383,18 +8500,21 @@
       <c r="BL12" s="3">
         <v>3498</v>
       </c>
+      <c r="BM12" s="3">
+        <v>3535</v>
+      </c>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A16" s="8" t="s">
         <v>15</v>
       </c>

--- a/original-sources/DSHS_nursing.xlsx
+++ b/original-sources/DSHS_nursing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F16AF950-371C-4AF7-BE2C-1CBFA7E27B52}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{03270B1F-3EB1-4BC5-B2EF-E89AB76AFE6B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8628" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
   </bookViews>
@@ -458,11 +458,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36587124-AB08-4074-9D3F-CC49D1169958}">
-  <dimension ref="A1:BM15"/>
+  <dimension ref="A1:BN15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="BN12" sqref="BN12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.078125" defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
@@ -479,12 +479,12 @@
     <col min="65" max="16384" width="9.078125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:65" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:66" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -680,8 +680,11 @@
       <c r="BM3" s="5">
         <v>44029</v>
       </c>
+      <c r="BN3" s="5">
+        <v>44030</v>
+      </c>
     </row>
-    <row r="4" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -877,8 +880,11 @@
       <c r="BM4" s="2">
         <v>46</v>
       </c>
+      <c r="BN4" s="2">
+        <v>46</v>
+      </c>
     </row>
-    <row r="5" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -1074,8 +1080,11 @@
       <c r="BM5" s="2">
         <v>248</v>
       </c>
+      <c r="BN5" s="2">
+        <v>249</v>
+      </c>
     </row>
-    <row r="6" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -1271,8 +1280,11 @@
       <c r="BM6" s="2">
         <v>90</v>
       </c>
+      <c r="BN6" s="2">
+        <v>91</v>
+      </c>
     </row>
-    <row r="7" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -1468,8 +1480,11 @@
       <c r="BM7" s="2">
         <v>175</v>
       </c>
+      <c r="BN7" s="2">
+        <v>176</v>
+      </c>
     </row>
-    <row r="8" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1665,8 +1680,11 @@
       <c r="BM8" s="2">
         <v>78</v>
       </c>
+      <c r="BN8" s="2">
+        <v>80</v>
+      </c>
     </row>
-    <row r="9" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1862,8 +1880,11 @@
       <c r="BM9" s="2">
         <v>122</v>
       </c>
+      <c r="BN9" s="2">
+        <v>122</v>
+      </c>
     </row>
-    <row r="10" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -2059,8 +2080,11 @@
       <c r="BM10" s="2">
         <v>43</v>
       </c>
+      <c r="BN10" s="2">
+        <v>43</v>
+      </c>
     </row>
-    <row r="11" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -2256,8 +2280,11 @@
       <c r="BM11" s="2">
         <v>64</v>
       </c>
+      <c r="BN11" s="2">
+        <v>66</v>
+      </c>
     </row>
-    <row r="12" spans="1:65" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:66" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -2457,16 +2484,19 @@
       <c r="BM12" s="3">
         <v>866</v>
       </c>
+      <c r="BN12" s="3">
+        <v>873</v>
+      </c>
     </row>
-    <row r="13" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:66" x14ac:dyDescent="0.45">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -2479,7 +2509,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001C2592-E91A-4D15-BF1F-41D54F92301C}">
-  <dimension ref="A1:BM16"/>
+  <dimension ref="A1:BN16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="BF1" activePane="topRight" state="frozen"/>
@@ -2497,12 +2527,12 @@
     <col min="62" max="16384" width="9.078125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:65" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:66" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -2698,8 +2728,11 @@
       <c r="BM3" s="5">
         <v>44029</v>
       </c>
+      <c r="BN3" s="5">
+        <v>44030</v>
+      </c>
     </row>
-    <row r="4" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -2895,8 +2928,11 @@
       <c r="BM4" s="2">
         <v>462</v>
       </c>
+      <c r="BN4" s="2">
+        <v>470</v>
+      </c>
     </row>
-    <row r="5" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -3092,8 +3128,11 @@
       <c r="BM5" s="2">
         <v>2323</v>
       </c>
+      <c r="BN5" s="2">
+        <v>2360</v>
+      </c>
     </row>
-    <row r="6" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -3289,8 +3328,11 @@
       <c r="BM6" s="2">
         <v>923</v>
       </c>
+      <c r="BN6" s="2">
+        <v>940</v>
+      </c>
     </row>
-    <row r="7" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -3486,8 +3528,11 @@
       <c r="BM7" s="2">
         <v>2747</v>
       </c>
+      <c r="BN7" s="2">
+        <v>2949</v>
+      </c>
     </row>
-    <row r="8" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -3683,8 +3728,11 @@
       <c r="BM8" s="2">
         <v>989</v>
       </c>
+      <c r="BN8" s="2">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="9" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -3880,8 +3928,11 @@
       <c r="BM9" s="2">
         <v>1448</v>
       </c>
+      <c r="BN9" s="2">
+        <v>1550</v>
+      </c>
     </row>
-    <row r="10" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -4077,8 +4128,11 @@
       <c r="BM10" s="2">
         <v>722</v>
       </c>
+      <c r="BN10" s="2">
+        <v>733</v>
+      </c>
     </row>
-    <row r="11" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -4274,8 +4328,11 @@
       <c r="BM11" s="2">
         <v>835</v>
       </c>
+      <c r="BN11" s="2">
+        <v>907</v>
+      </c>
     </row>
-    <row r="12" spans="1:65" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:66" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -4471,21 +4528,24 @@
       <c r="BM12" s="3">
         <v>10449</v>
       </c>
+      <c r="BN12" s="3">
+        <v>11015</v>
+      </c>
     </row>
-    <row r="13" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:66" x14ac:dyDescent="0.45">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A16" s="8" t="s">
         <v>15</v>
       </c>
@@ -4498,7 +4558,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC07078-FDB2-4744-9C93-DA564120E1E6}">
-  <dimension ref="A1:BM15"/>
+  <dimension ref="A1:BN15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="BG1" activePane="topRight" state="frozen"/>
@@ -4515,12 +4575,12 @@
     <col min="62" max="16384" width="9.078125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:65" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:66" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -4716,8 +4776,11 @@
       <c r="BM3" s="5">
         <v>44029</v>
       </c>
+      <c r="BN3" s="5">
+        <v>44030</v>
+      </c>
     </row>
-    <row r="4" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -4913,8 +4976,11 @@
       <c r="BM4" s="2">
         <v>81</v>
       </c>
+      <c r="BN4" s="2">
+        <v>81</v>
+      </c>
     </row>
-    <row r="5" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -5110,8 +5176,11 @@
       <c r="BM5" s="2">
         <v>321</v>
       </c>
+      <c r="BN5" s="2">
+        <v>323</v>
+      </c>
     </row>
-    <row r="6" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -5307,8 +5376,11 @@
       <c r="BM6" s="2">
         <v>132</v>
       </c>
+      <c r="BN6" s="2">
+        <v>134</v>
+      </c>
     </row>
-    <row r="7" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -5504,8 +5576,11 @@
       <c r="BM7" s="2">
         <v>292</v>
       </c>
+      <c r="BN7" s="2">
+        <v>301</v>
+      </c>
     </row>
-    <row r="8" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -5701,8 +5776,11 @@
       <c r="BM8" s="2">
         <v>155</v>
       </c>
+      <c r="BN8" s="2">
+        <v>167</v>
+      </c>
     </row>
-    <row r="9" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -5898,8 +5976,11 @@
       <c r="BM9" s="2">
         <v>112</v>
       </c>
+      <c r="BN9" s="2">
+        <v>120</v>
+      </c>
     </row>
-    <row r="10" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -6095,8 +6176,11 @@
       <c r="BM10" s="2">
         <v>104</v>
       </c>
+      <c r="BN10" s="2">
+        <v>105</v>
+      </c>
     </row>
-    <row r="11" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -6292,8 +6376,11 @@
       <c r="BM11" s="2">
         <v>136</v>
       </c>
+      <c r="BN11" s="2">
+        <v>156</v>
+      </c>
     </row>
-    <row r="12" spans="1:65" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:66" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -6491,16 +6578,19 @@
       <c r="BM12" s="3">
         <v>1333</v>
       </c>
+      <c r="BN12" s="3">
+        <v>1387</v>
+      </c>
     </row>
-    <row r="13" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:66" x14ac:dyDescent="0.45">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -6512,7 +6602,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCD14BD-3EDB-4A02-AA3B-BFB82E165626}">
-  <dimension ref="A1:BM17"/>
+  <dimension ref="A1:BN17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="BF1" activePane="topRight" state="frozen"/>
@@ -6529,12 +6619,12 @@
     <col min="62" max="16384" width="9.078125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:65" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:66" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -6730,8 +6820,11 @@
       <c r="BM3" s="5">
         <v>44029</v>
       </c>
+      <c r="BN3" s="5">
+        <v>44030</v>
+      </c>
     </row>
-    <row r="4" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -6927,8 +7020,11 @@
       <c r="BM4" s="2">
         <v>220</v>
       </c>
+      <c r="BN4" s="2">
+        <v>220</v>
+      </c>
     </row>
-    <row r="5" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -7124,8 +7220,11 @@
       <c r="BM5" s="2">
         <v>1035</v>
       </c>
+      <c r="BN5" s="2">
+        <v>1063</v>
+      </c>
     </row>
-    <row r="6" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -7321,8 +7420,11 @@
       <c r="BM6" s="2">
         <v>394</v>
       </c>
+      <c r="BN6" s="2">
+        <v>396</v>
+      </c>
     </row>
-    <row r="7" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -7518,8 +7620,11 @@
       <c r="BM7" s="2">
         <v>817</v>
       </c>
+      <c r="BN7" s="2">
+        <v>882</v>
+      </c>
     </row>
-    <row r="8" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -7715,8 +7820,11 @@
       <c r="BM8" s="2">
         <v>397</v>
       </c>
+      <c r="BN8" s="2">
+        <v>447</v>
+      </c>
     </row>
-    <row r="9" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -7912,8 +8020,11 @@
       <c r="BM9" s="2">
         <v>251</v>
       </c>
+      <c r="BN9" s="2">
+        <v>266</v>
+      </c>
     </row>
-    <row r="10" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -8109,8 +8220,11 @@
       <c r="BM10" s="2">
         <v>253</v>
       </c>
+      <c r="BN10" s="2">
+        <v>262</v>
+      </c>
     </row>
-    <row r="11" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -8306,8 +8420,11 @@
       <c r="BM11" s="2">
         <v>168</v>
       </c>
+      <c r="BN11" s="2">
+        <v>195</v>
+      </c>
     </row>
-    <row r="12" spans="1:65" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:66" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -8503,18 +8620,21 @@
       <c r="BM12" s="3">
         <v>3535</v>
       </c>
+      <c r="BN12" s="3">
+        <v>3731</v>
+      </c>
     </row>
-    <row r="14" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A16" s="8" t="s">
         <v>15</v>
       </c>

--- a/original-sources/DSHS_nursing.xlsx
+++ b/original-sources/DSHS_nursing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{03270B1F-3EB1-4BC5-B2EF-E89AB76AFE6B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7C7B2D14-7E61-41F4-9229-77C80233A01C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8628" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8628" activeTab="3" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
   </bookViews>
   <sheets>
     <sheet name="Facilities" sheetId="1" r:id="rId1"/>
@@ -458,11 +458,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36587124-AB08-4074-9D3F-CC49D1169958}">
-  <dimension ref="A1:BN15"/>
+  <dimension ref="A1:BO15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="BG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BN12" sqref="BN12"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.078125" defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
@@ -479,12 +479,12 @@
     <col min="65" max="16384" width="9.078125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:66" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:67" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -683,8 +683,11 @@
       <c r="BN3" s="5">
         <v>44030</v>
       </c>
+      <c r="BO3" s="5">
+        <v>44031</v>
+      </c>
     </row>
-    <row r="4" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -883,8 +886,11 @@
       <c r="BN4" s="2">
         <v>46</v>
       </c>
+      <c r="BO4" s="2">
+        <v>47</v>
+      </c>
     </row>
-    <row r="5" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -1083,8 +1089,11 @@
       <c r="BN5" s="2">
         <v>249</v>
       </c>
+      <c r="BO5" s="2">
+        <v>250</v>
+      </c>
     </row>
-    <row r="6" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -1283,8 +1292,11 @@
       <c r="BN6" s="2">
         <v>91</v>
       </c>
+      <c r="BO6" s="2">
+        <v>91</v>
+      </c>
     </row>
-    <row r="7" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -1483,8 +1495,11 @@
       <c r="BN7" s="2">
         <v>176</v>
       </c>
+      <c r="BO7" s="2">
+        <v>176</v>
+      </c>
     </row>
-    <row r="8" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1683,8 +1698,11 @@
       <c r="BN8" s="2">
         <v>80</v>
       </c>
+      <c r="BO8" s="2">
+        <v>80</v>
+      </c>
     </row>
-    <row r="9" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1883,8 +1901,11 @@
       <c r="BN9" s="2">
         <v>122</v>
       </c>
+      <c r="BO9" s="2">
+        <v>123</v>
+      </c>
     </row>
-    <row r="10" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -2083,8 +2104,11 @@
       <c r="BN10" s="2">
         <v>43</v>
       </c>
+      <c r="BO10" s="2">
+        <v>44</v>
+      </c>
     </row>
-    <row r="11" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -2283,8 +2307,11 @@
       <c r="BN11" s="2">
         <v>66</v>
       </c>
+      <c r="BO11" s="2">
+        <v>67</v>
+      </c>
     </row>
-    <row r="12" spans="1:66" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:67" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -2487,16 +2514,19 @@
       <c r="BN12" s="3">
         <v>873</v>
       </c>
+      <c r="BO12" s="3">
+        <v>878</v>
+      </c>
     </row>
-    <row r="13" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:67" x14ac:dyDescent="0.45">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -2509,7 +2539,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001C2592-E91A-4D15-BF1F-41D54F92301C}">
-  <dimension ref="A1:BN16"/>
+  <dimension ref="A1:BO16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="BF1" activePane="topRight" state="frozen"/>
@@ -2527,12 +2557,12 @@
     <col min="62" max="16384" width="9.078125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:66" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:67" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -2731,8 +2761,11 @@
       <c r="BN3" s="5">
         <v>44030</v>
       </c>
+      <c r="BO3" s="5">
+        <v>44031</v>
+      </c>
     </row>
-    <row r="4" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -2931,8 +2964,11 @@
       <c r="BN4" s="2">
         <v>470</v>
       </c>
+      <c r="BO4" s="2">
+        <v>497</v>
+      </c>
     </row>
-    <row r="5" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -3131,8 +3167,11 @@
       <c r="BN5" s="2">
         <v>2360</v>
       </c>
+      <c r="BO5" s="2">
+        <v>2380</v>
+      </c>
     </row>
-    <row r="6" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -3331,8 +3370,11 @@
       <c r="BN6" s="2">
         <v>940</v>
       </c>
+      <c r="BO6" s="2">
+        <v>944</v>
+      </c>
     </row>
-    <row r="7" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -3531,8 +3573,11 @@
       <c r="BN7" s="2">
         <v>2949</v>
       </c>
+      <c r="BO7" s="2">
+        <v>2957</v>
+      </c>
     </row>
-    <row r="8" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -3731,8 +3776,11 @@
       <c r="BN8" s="2">
         <v>1106</v>
       </c>
+      <c r="BO8" s="2">
+        <v>1108</v>
+      </c>
     </row>
-    <row r="9" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -3931,8 +3979,11 @@
       <c r="BN9" s="2">
         <v>1550</v>
       </c>
+      <c r="BO9" s="2">
+        <v>1552</v>
+      </c>
     </row>
-    <row r="10" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -4131,8 +4182,11 @@
       <c r="BN10" s="2">
         <v>733</v>
       </c>
+      <c r="BO10" s="2">
+        <v>747</v>
+      </c>
     </row>
-    <row r="11" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -4331,8 +4385,11 @@
       <c r="BN11" s="2">
         <v>907</v>
       </c>
+      <c r="BO11" s="2">
+        <v>933</v>
+      </c>
     </row>
-    <row r="12" spans="1:66" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:67" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -4531,21 +4588,24 @@
       <c r="BN12" s="3">
         <v>11015</v>
       </c>
+      <c r="BO12" s="3">
+        <v>11118</v>
+      </c>
     </row>
-    <row r="13" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:67" x14ac:dyDescent="0.45">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A16" s="8" t="s">
         <v>15</v>
       </c>
@@ -4558,7 +4618,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC07078-FDB2-4744-9C93-DA564120E1E6}">
-  <dimension ref="A1:BN15"/>
+  <dimension ref="A1:BO15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="BG1" activePane="topRight" state="frozen"/>
@@ -4575,12 +4635,12 @@
     <col min="62" max="16384" width="9.078125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:66" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:67" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -4779,8 +4839,11 @@
       <c r="BN3" s="5">
         <v>44030</v>
       </c>
+      <c r="BO3" s="5">
+        <v>44031</v>
+      </c>
     </row>
-    <row r="4" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -4979,8 +5042,11 @@
       <c r="BN4" s="2">
         <v>81</v>
       </c>
+      <c r="BO4" s="2">
+        <v>81</v>
+      </c>
     </row>
-    <row r="5" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -5179,8 +5245,11 @@
       <c r="BN5" s="2">
         <v>323</v>
       </c>
+      <c r="BO5" s="2">
+        <v>326</v>
+      </c>
     </row>
-    <row r="6" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -5379,8 +5448,11 @@
       <c r="BN6" s="2">
         <v>134</v>
       </c>
+      <c r="BO6" s="2">
+        <v>134</v>
+      </c>
     </row>
-    <row r="7" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -5579,8 +5651,11 @@
       <c r="BN7" s="2">
         <v>301</v>
       </c>
+      <c r="BO7" s="2">
+        <v>307</v>
+      </c>
     </row>
-    <row r="8" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -5779,8 +5854,11 @@
       <c r="BN8" s="2">
         <v>167</v>
       </c>
+      <c r="BO8" s="2">
+        <v>168</v>
+      </c>
     </row>
-    <row r="9" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -5979,8 +6057,11 @@
       <c r="BN9" s="2">
         <v>120</v>
       </c>
+      <c r="BO9" s="2">
+        <v>130</v>
+      </c>
     </row>
-    <row r="10" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -6179,8 +6260,11 @@
       <c r="BN10" s="2">
         <v>105</v>
       </c>
+      <c r="BO10" s="2">
+        <v>105</v>
+      </c>
     </row>
-    <row r="11" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -6379,8 +6463,11 @@
       <c r="BN11" s="2">
         <v>156</v>
       </c>
+      <c r="BO11" s="2">
+        <v>156</v>
+      </c>
     </row>
-    <row r="12" spans="1:66" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:67" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -6581,16 +6668,19 @@
       <c r="BN12" s="3">
         <v>1387</v>
       </c>
+      <c r="BO12" s="3">
+        <v>1407</v>
+      </c>
     </row>
-    <row r="13" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:67" x14ac:dyDescent="0.45">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -6602,9 +6692,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCD14BD-3EDB-4A02-AA3B-BFB82E165626}">
-  <dimension ref="A1:BN17"/>
+  <dimension ref="A1:BO17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BF1" activePane="topRight" state="frozen"/>
       <selection pane="topRight"/>
     </sheetView>
@@ -6619,12 +6709,12 @@
     <col min="62" max="16384" width="9.078125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:66" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:67" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -6823,8 +6913,11 @@
       <c r="BN3" s="5">
         <v>44030</v>
       </c>
+      <c r="BO3" s="5">
+        <v>44031</v>
+      </c>
     </row>
-    <row r="4" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -7023,8 +7116,11 @@
       <c r="BN4" s="2">
         <v>220</v>
       </c>
+      <c r="BO4" s="2">
+        <v>220</v>
+      </c>
     </row>
-    <row r="5" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -7223,8 +7319,11 @@
       <c r="BN5" s="2">
         <v>1063</v>
       </c>
+      <c r="BO5" s="2">
+        <v>1071</v>
+      </c>
     </row>
-    <row r="6" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -7423,8 +7522,11 @@
       <c r="BN6" s="2">
         <v>396</v>
       </c>
+      <c r="BO6" s="2">
+        <v>396</v>
+      </c>
     </row>
-    <row r="7" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -7623,8 +7725,11 @@
       <c r="BN7" s="2">
         <v>882</v>
       </c>
+      <c r="BO7" s="2">
+        <v>884</v>
+      </c>
     </row>
-    <row r="8" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -7823,8 +7928,11 @@
       <c r="BN8" s="2">
         <v>447</v>
       </c>
+      <c r="BO8" s="2">
+        <v>447</v>
+      </c>
     </row>
-    <row r="9" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -8023,8 +8131,11 @@
       <c r="BN9" s="2">
         <v>266</v>
       </c>
+      <c r="BO9" s="2">
+        <v>266</v>
+      </c>
     </row>
-    <row r="10" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -8223,8 +8334,11 @@
       <c r="BN10" s="2">
         <v>262</v>
       </c>
+      <c r="BO10" s="2">
+        <v>262</v>
+      </c>
     </row>
-    <row r="11" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -8423,8 +8537,11 @@
       <c r="BN11" s="2">
         <v>195</v>
       </c>
+      <c r="BO11" s="2">
+        <v>200</v>
+      </c>
     </row>
-    <row r="12" spans="1:66" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:67" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -8623,18 +8740,21 @@
       <c r="BN12" s="3">
         <v>3731</v>
       </c>
+      <c r="BO12" s="3">
+        <v>3746</v>
+      </c>
     </row>
-    <row r="14" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A16" s="8" t="s">
         <v>15</v>
       </c>

--- a/original-sources/DSHS_nursing.xlsx
+++ b/original-sources/DSHS_nursing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7C7B2D14-7E61-41F4-9229-77C80233A01C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FF59EB72-A138-4404-A278-856BBCE213B3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8628" activeTab="3" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8630" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
   </bookViews>
   <sheets>
     <sheet name="Facilities" sheetId="1" r:id="rId1"/>
@@ -458,33 +458,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36587124-AB08-4074-9D3F-CC49D1169958}">
-  <dimension ref="A1:BO15"/>
+  <dimension ref="A1:BP15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BO7" sqref="BO7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.078125" defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.31640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="2" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="5.91796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="48" width="7.078125" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="57" width="6.87890625" style="2" customWidth="1"/>
-    <col min="58" max="61" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="7.19921875" style="2" customWidth="1"/>
-    <col min="63" max="63" width="6.6796875" style="2" customWidth="1"/>
-    <col min="64" max="64" width="7.4765625" style="2" customWidth="1"/>
-    <col min="65" max="16384" width="9.078125" style="2"/>
+    <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="48" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="57" width="6.86328125" style="2" customWidth="1"/>
+    <col min="58" max="68" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="69" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:67" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:68" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -686,8 +683,11 @@
       <c r="BO3" s="5">
         <v>44031</v>
       </c>
+      <c r="BP3" s="5">
+        <v>44032</v>
+      </c>
     </row>
-    <row r="4" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -889,8 +889,11 @@
       <c r="BO4" s="2">
         <v>47</v>
       </c>
+      <c r="BP4" s="2">
+        <v>47</v>
+      </c>
     </row>
-    <row r="5" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -1092,8 +1095,11 @@
       <c r="BO5" s="2">
         <v>250</v>
       </c>
+      <c r="BP5" s="2">
+        <v>248</v>
+      </c>
     </row>
-    <row r="6" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -1295,8 +1301,11 @@
       <c r="BO6" s="2">
         <v>91</v>
       </c>
+      <c r="BP6" s="2">
+        <v>91</v>
+      </c>
     </row>
-    <row r="7" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -1498,8 +1507,11 @@
       <c r="BO7" s="2">
         <v>176</v>
       </c>
+      <c r="BP7" s="2">
+        <v>177</v>
+      </c>
     </row>
-    <row r="8" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1701,8 +1713,11 @@
       <c r="BO8" s="2">
         <v>80</v>
       </c>
+      <c r="BP8" s="2">
+        <v>81</v>
+      </c>
     </row>
-    <row r="9" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1904,8 +1919,11 @@
       <c r="BO9" s="2">
         <v>123</v>
       </c>
+      <c r="BP9" s="2">
+        <v>123</v>
+      </c>
     </row>
-    <row r="10" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -2107,8 +2125,11 @@
       <c r="BO10" s="2">
         <v>44</v>
       </c>
+      <c r="BP10" s="2">
+        <v>44</v>
+      </c>
     </row>
-    <row r="11" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -2310,8 +2331,11 @@
       <c r="BO11" s="2">
         <v>67</v>
       </c>
+      <c r="BP11" s="2">
+        <v>67</v>
+      </c>
     </row>
-    <row r="12" spans="1:67" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:68" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -2517,16 +2541,19 @@
       <c r="BO12" s="3">
         <v>878</v>
       </c>
+      <c r="BP12" s="3">
+        <v>878</v>
+      </c>
     </row>
-    <row r="13" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:68" x14ac:dyDescent="0.3">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -2539,30 +2566,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001C2592-E91A-4D15-BF1F-41D54F92301C}">
-  <dimension ref="A1:BO16"/>
+  <dimension ref="A1:BP16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BF1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BP6" sqref="BP6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.078125" defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.31640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="2" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="5.91796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="48" width="7.078125" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="57" width="7.27734375" style="2" customWidth="1"/>
-    <col min="58" max="61" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="62" max="16384" width="9.078125" style="2"/>
+    <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="48" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="57" width="7.265625" style="2" customWidth="1"/>
+    <col min="58" max="68" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="69" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:67" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:68" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -2764,8 +2791,11 @@
       <c r="BO3" s="5">
         <v>44031</v>
       </c>
+      <c r="BP3" s="5">
+        <v>44032</v>
+      </c>
     </row>
-    <row r="4" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -2967,8 +2997,11 @@
       <c r="BO4" s="2">
         <v>497</v>
       </c>
+      <c r="BP4" s="2">
+        <v>497</v>
+      </c>
     </row>
-    <row r="5" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -3170,8 +3203,11 @@
       <c r="BO5" s="2">
         <v>2380</v>
       </c>
+      <c r="BP5" s="2">
+        <v>2417</v>
+      </c>
     </row>
-    <row r="6" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -3373,8 +3409,11 @@
       <c r="BO6" s="2">
         <v>944</v>
       </c>
+      <c r="BP6" s="2">
+        <v>982</v>
+      </c>
     </row>
-    <row r="7" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -3576,8 +3615,11 @@
       <c r="BO7" s="2">
         <v>2957</v>
       </c>
+      <c r="BP7" s="2">
+        <v>3027</v>
+      </c>
     </row>
-    <row r="8" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -3779,8 +3821,11 @@
       <c r="BO8" s="2">
         <v>1108</v>
       </c>
+      <c r="BP8" s="2">
+        <v>1149</v>
+      </c>
     </row>
-    <row r="9" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -3982,8 +4027,11 @@
       <c r="BO9" s="2">
         <v>1552</v>
       </c>
+      <c r="BP9" s="2">
+        <v>1552</v>
+      </c>
     </row>
-    <row r="10" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -4185,8 +4233,11 @@
       <c r="BO10" s="2">
         <v>747</v>
       </c>
+      <c r="BP10" s="2">
+        <v>746</v>
+      </c>
     </row>
-    <row r="11" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -4388,8 +4439,11 @@
       <c r="BO11" s="2">
         <v>933</v>
       </c>
+      <c r="BP11" s="2">
+        <v>933</v>
+      </c>
     </row>
-    <row r="12" spans="1:67" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:68" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -4591,21 +4645,24 @@
       <c r="BO12" s="3">
         <v>11118</v>
       </c>
+      <c r="BP12" s="3">
+        <v>11303</v>
+      </c>
     </row>
-    <row r="13" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:68" x14ac:dyDescent="0.3">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>15</v>
       </c>
@@ -4618,29 +4675,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC07078-FDB2-4744-9C93-DA564120E1E6}">
-  <dimension ref="A1:BO15"/>
+  <dimension ref="A1:BP15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BQ4" sqref="BQ4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.078125" defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.31640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="2" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="5.91796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="57" width="7.078125" style="2" bestFit="1" customWidth="1"/>
-    <col min="58" max="61" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="62" max="16384" width="9.078125" style="2"/>
+    <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="57" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="58" max="68" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="69" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:67" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:68" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -4842,8 +4899,11 @@
       <c r="BO3" s="5">
         <v>44031</v>
       </c>
+      <c r="BP3" s="5">
+        <v>44032</v>
+      </c>
     </row>
-    <row r="4" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -5045,8 +5105,11 @@
       <c r="BO4" s="2">
         <v>81</v>
       </c>
+      <c r="BP4" s="2">
+        <v>81</v>
+      </c>
     </row>
-    <row r="5" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -5248,8 +5311,11 @@
       <c r="BO5" s="2">
         <v>326</v>
       </c>
+      <c r="BP5" s="2">
+        <v>327</v>
+      </c>
     </row>
-    <row r="6" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -5451,8 +5517,11 @@
       <c r="BO6" s="2">
         <v>134</v>
       </c>
+      <c r="BP6" s="2">
+        <v>136</v>
+      </c>
     </row>
-    <row r="7" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -5654,8 +5723,11 @@
       <c r="BO7" s="2">
         <v>307</v>
       </c>
+      <c r="BP7" s="2">
+        <v>309</v>
+      </c>
     </row>
-    <row r="8" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -5857,8 +5929,11 @@
       <c r="BO8" s="2">
         <v>168</v>
       </c>
+      <c r="BP8" s="2">
+        <v>173</v>
+      </c>
     </row>
-    <row r="9" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -6060,8 +6135,11 @@
       <c r="BO9" s="2">
         <v>130</v>
       </c>
+      <c r="BP9" s="2">
+        <v>130</v>
+      </c>
     </row>
-    <row r="10" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -6263,8 +6341,11 @@
       <c r="BO10" s="2">
         <v>105</v>
       </c>
+      <c r="BP10" s="2">
+        <v>110</v>
+      </c>
     </row>
-    <row r="11" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -6466,8 +6547,11 @@
       <c r="BO11" s="2">
         <v>156</v>
       </c>
+      <c r="BP11" s="2">
+        <v>156</v>
+      </c>
     </row>
-    <row r="12" spans="1:67" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:68" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -6671,16 +6755,19 @@
       <c r="BO12" s="3">
         <v>1407</v>
       </c>
+      <c r="BP12" s="3">
+        <v>1422</v>
+      </c>
     </row>
-    <row r="13" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:68" x14ac:dyDescent="0.3">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -6692,29 +6779,29 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCD14BD-3EDB-4A02-AA3B-BFB82E165626}">
-  <dimension ref="A1:BO17"/>
+  <dimension ref="A1:BP17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BF1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BO6" sqref="BO6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.078125" defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.31640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="2" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="5.91796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="57" width="7.078125" style="2" bestFit="1" customWidth="1"/>
-    <col min="58" max="61" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="62" max="16384" width="9.078125" style="2"/>
+    <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="57" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="58" max="68" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="69" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:67" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:68" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -6916,8 +7003,11 @@
       <c r="BO3" s="5">
         <v>44031</v>
       </c>
+      <c r="BP3" s="5">
+        <v>44032</v>
+      </c>
     </row>
-    <row r="4" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -7119,8 +7209,11 @@
       <c r="BO4" s="2">
         <v>220</v>
       </c>
+      <c r="BP4" s="2">
+        <v>220</v>
+      </c>
     </row>
-    <row r="5" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -7322,8 +7415,11 @@
       <c r="BO5" s="2">
         <v>1071</v>
       </c>
+      <c r="BP5" s="2">
+        <v>1063</v>
+      </c>
     </row>
-    <row r="6" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -7525,8 +7621,11 @@
       <c r="BO6" s="2">
         <v>396</v>
       </c>
+      <c r="BP6" s="2">
+        <v>399</v>
+      </c>
     </row>
-    <row r="7" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -7728,8 +7827,11 @@
       <c r="BO7" s="2">
         <v>884</v>
       </c>
+      <c r="BP7" s="2">
+        <v>899</v>
+      </c>
     </row>
-    <row r="8" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -7931,8 +8033,11 @@
       <c r="BO8" s="2">
         <v>447</v>
       </c>
+      <c r="BP8" s="2">
+        <v>464</v>
+      </c>
     </row>
-    <row r="9" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -8134,8 +8239,11 @@
       <c r="BO9" s="2">
         <v>266</v>
       </c>
+      <c r="BP9" s="2">
+        <v>266</v>
+      </c>
     </row>
-    <row r="10" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -8337,8 +8445,11 @@
       <c r="BO10" s="2">
         <v>262</v>
       </c>
+      <c r="BP10" s="2">
+        <v>270</v>
+      </c>
     </row>
-    <row r="11" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -8540,8 +8651,11 @@
       <c r="BO11" s="2">
         <v>200</v>
       </c>
+      <c r="BP11" s="2">
+        <v>200</v>
+      </c>
     </row>
-    <row r="12" spans="1:67" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:68" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -8743,23 +8857,26 @@
       <c r="BO12" s="3">
         <v>3746</v>
       </c>
+      <c r="BP12" s="3">
+        <v>3781</v>
+      </c>
     </row>
-    <row r="14" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>

--- a/original-sources/DSHS_nursing.xlsx
+++ b/original-sources/DSHS_nursing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FF59EB72-A138-4404-A278-856BBCE213B3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2622D799-3573-4055-8519-552AF5ECCCB4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8630" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Fatalities" sheetId="2" r:id="rId3"/>
     <sheet name="Recoveries" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="17">
   <si>
     <t>4/5N</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>The above table does not show the number of new/active cases.</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -458,11 +461,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36587124-AB08-4074-9D3F-CC49D1169958}">
-  <dimension ref="A1:BP15"/>
+  <dimension ref="A1:BR15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BO7" sqref="BO7"/>
+      <selection pane="topRight" activeCell="BR9" sqref="BR9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -472,16 +475,16 @@
     <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
     <col min="28" max="48" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
     <col min="49" max="57" width="6.86328125" style="2" customWidth="1"/>
-    <col min="58" max="68" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="69" max="16384" width="9.06640625" style="2"/>
+    <col min="58" max="70" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="71" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:68" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:70" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -686,8 +689,14 @@
       <c r="BP3" s="5">
         <v>44032</v>
       </c>
+      <c r="BQ3" s="5">
+        <v>44033</v>
+      </c>
+      <c r="BR3" s="5">
+        <v>44034</v>
+      </c>
     </row>
-    <row r="4" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -892,8 +901,14 @@
       <c r="BP4" s="2">
         <v>47</v>
       </c>
+      <c r="BQ4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BR4" s="2">
+        <v>49</v>
+      </c>
     </row>
-    <row r="5" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -1098,8 +1113,14 @@
       <c r="BP5" s="2">
         <v>248</v>
       </c>
+      <c r="BQ5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BR5" s="2">
+        <v>251</v>
+      </c>
     </row>
-    <row r="6" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -1304,8 +1325,14 @@
       <c r="BP6" s="2">
         <v>91</v>
       </c>
+      <c r="BQ6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BR6" s="2">
+        <v>94</v>
+      </c>
     </row>
-    <row r="7" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -1510,8 +1537,14 @@
       <c r="BP7" s="2">
         <v>177</v>
       </c>
+      <c r="BQ7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BR7" s="2">
+        <v>178</v>
+      </c>
     </row>
-    <row r="8" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1716,8 +1749,14 @@
       <c r="BP8" s="2">
         <v>81</v>
       </c>
+      <c r="BQ8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BR8" s="2">
+        <v>82</v>
+      </c>
     </row>
-    <row r="9" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1922,8 +1961,14 @@
       <c r="BP9" s="2">
         <v>123</v>
       </c>
+      <c r="BQ9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BR9" s="2">
+        <v>126</v>
+      </c>
     </row>
-    <row r="10" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -2128,8 +2173,14 @@
       <c r="BP10" s="2">
         <v>44</v>
       </c>
+      <c r="BQ10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BR10" s="2">
+        <v>45</v>
+      </c>
     </row>
-    <row r="11" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -2334,8 +2385,14 @@
       <c r="BP11" s="2">
         <v>67</v>
       </c>
+      <c r="BQ11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BR11" s="2">
+        <v>69</v>
+      </c>
     </row>
-    <row r="12" spans="1:68" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:70" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -2544,16 +2601,22 @@
       <c r="BP12" s="3">
         <v>878</v>
       </c>
+      <c r="BQ12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="BR12" s="3">
+        <v>894</v>
+      </c>
     </row>
-    <row r="13" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:70" x14ac:dyDescent="0.3">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -2566,11 +2629,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001C2592-E91A-4D15-BF1F-41D54F92301C}">
-  <dimension ref="A1:BP16"/>
+  <dimension ref="A1:BR16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BP6" sqref="BP6"/>
+      <selection pane="topRight" activeCell="BR9" sqref="BR9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2580,16 +2643,16 @@
     <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
     <col min="28" max="48" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
     <col min="49" max="57" width="7.265625" style="2" customWidth="1"/>
-    <col min="58" max="68" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="69" max="16384" width="9.06640625" style="2"/>
+    <col min="58" max="70" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="71" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:68" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:70" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -2794,8 +2857,14 @@
       <c r="BP3" s="5">
         <v>44032</v>
       </c>
+      <c r="BQ3" s="5">
+        <v>44033</v>
+      </c>
+      <c r="BR3" s="5">
+        <v>44034</v>
+      </c>
     </row>
-    <row r="4" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -3000,8 +3069,14 @@
       <c r="BP4" s="2">
         <v>497</v>
       </c>
+      <c r="BQ4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BR4" s="2">
+        <v>538</v>
+      </c>
     </row>
-    <row r="5" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -3206,8 +3281,14 @@
       <c r="BP5" s="2">
         <v>2417</v>
       </c>
+      <c r="BQ5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BR5" s="2">
+        <v>2545</v>
+      </c>
     </row>
-    <row r="6" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -3412,8 +3493,14 @@
       <c r="BP6" s="2">
         <v>982</v>
       </c>
+      <c r="BQ6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BR6" s="2">
+        <v>1013</v>
+      </c>
     </row>
-    <row r="7" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -3618,8 +3705,14 @@
       <c r="BP7" s="2">
         <v>3027</v>
       </c>
+      <c r="BQ7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BR7" s="2">
+        <v>3300</v>
+      </c>
     </row>
-    <row r="8" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -3824,8 +3917,14 @@
       <c r="BP8" s="2">
         <v>1149</v>
       </c>
+      <c r="BQ8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BR8" s="2">
+        <v>1158</v>
+      </c>
     </row>
-    <row r="9" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -4030,8 +4129,14 @@
       <c r="BP9" s="2">
         <v>1552</v>
       </c>
+      <c r="BQ9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BR9" s="2">
+        <v>1673</v>
+      </c>
     </row>
-    <row r="10" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -4236,8 +4341,14 @@
       <c r="BP10" s="2">
         <v>746</v>
       </c>
+      <c r="BQ10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BR10" s="2">
+        <v>854</v>
+      </c>
     </row>
-    <row r="11" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -4442,8 +4553,14 @@
       <c r="BP11" s="2">
         <v>933</v>
       </c>
+      <c r="BQ11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BR11" s="2">
+        <v>1138</v>
+      </c>
     </row>
-    <row r="12" spans="1:68" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:70" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -4648,21 +4765,27 @@
       <c r="BP12" s="3">
         <v>11303</v>
       </c>
+      <c r="BQ12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="BR12" s="3">
+        <v>12219</v>
+      </c>
     </row>
-    <row r="13" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:70" x14ac:dyDescent="0.3">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>15</v>
       </c>
@@ -4675,11 +4798,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC07078-FDB2-4744-9C93-DA564120E1E6}">
-  <dimension ref="A1:BP15"/>
+  <dimension ref="A1:BR15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BQ4" sqref="BQ4"/>
+      <selection pane="topRight" activeCell="BR9" sqref="BR9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -4688,16 +4811,16 @@
     <col min="2" max="18" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
     <col min="28" max="57" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="58" max="68" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="69" max="16384" width="9.06640625" style="2"/>
+    <col min="58" max="70" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="71" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:68" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:70" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -4902,8 +5025,14 @@
       <c r="BP3" s="5">
         <v>44032</v>
       </c>
+      <c r="BQ3" s="5">
+        <v>44033</v>
+      </c>
+      <c r="BR3" s="5">
+        <v>44034</v>
+      </c>
     </row>
-    <row r="4" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -5108,8 +5237,14 @@
       <c r="BP4" s="2">
         <v>81</v>
       </c>
+      <c r="BQ4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BR4" s="2">
+        <v>94</v>
+      </c>
     </row>
-    <row r="5" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -5314,8 +5449,14 @@
       <c r="BP5" s="2">
         <v>327</v>
       </c>
+      <c r="BQ5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BR5" s="2">
+        <v>351</v>
+      </c>
     </row>
-    <row r="6" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -5520,8 +5661,14 @@
       <c r="BP6" s="2">
         <v>136</v>
       </c>
+      <c r="BQ6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BR6" s="2">
+        <v>149</v>
+      </c>
     </row>
-    <row r="7" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -5726,8 +5873,14 @@
       <c r="BP7" s="2">
         <v>309</v>
       </c>
+      <c r="BQ7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BR7" s="2">
+        <v>352</v>
+      </c>
     </row>
-    <row r="8" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -5932,8 +6085,14 @@
       <c r="BP8" s="2">
         <v>173</v>
       </c>
+      <c r="BQ8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BR8" s="2">
+        <v>173</v>
+      </c>
     </row>
-    <row r="9" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -6138,8 +6297,14 @@
       <c r="BP9" s="2">
         <v>130</v>
       </c>
+      <c r="BQ9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BR9" s="2">
+        <v>160</v>
+      </c>
     </row>
-    <row r="10" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -6344,8 +6509,14 @@
       <c r="BP10" s="2">
         <v>110</v>
       </c>
+      <c r="BQ10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BR10" s="2">
+        <v>125</v>
+      </c>
     </row>
-    <row r="11" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -6550,8 +6721,14 @@
       <c r="BP11" s="2">
         <v>156</v>
       </c>
+      <c r="BQ11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BR11" s="2">
+        <v>181</v>
+      </c>
     </row>
-    <row r="12" spans="1:68" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:70" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -6758,16 +6935,22 @@
       <c r="BP12" s="3">
         <v>1422</v>
       </c>
+      <c r="BQ12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="BR12" s="3">
+        <v>1585</v>
+      </c>
     </row>
-    <row r="13" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:70" x14ac:dyDescent="0.3">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -6779,11 +6962,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCD14BD-3EDB-4A02-AA3B-BFB82E165626}">
-  <dimension ref="A1:BP17"/>
+  <dimension ref="A1:BR17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BO6" sqref="BO6"/>
+      <selection pane="topRight" activeCell="BR9" sqref="BR9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -6792,16 +6975,16 @@
     <col min="2" max="18" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
     <col min="28" max="57" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="58" max="68" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="69" max="16384" width="9.06640625" style="2"/>
+    <col min="58" max="70" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="71" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:68" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:70" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -7006,8 +7189,14 @@
       <c r="BP3" s="5">
         <v>44032</v>
       </c>
+      <c r="BQ3" s="5">
+        <v>44033</v>
+      </c>
+      <c r="BR3" s="5">
+        <v>44034</v>
+      </c>
     </row>
-    <row r="4" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -7212,8 +7401,14 @@
       <c r="BP4" s="2">
         <v>220</v>
       </c>
+      <c r="BQ4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BR4" s="2">
+        <v>220</v>
+      </c>
     </row>
-    <row r="5" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -7418,8 +7613,14 @@
       <c r="BP5" s="2">
         <v>1063</v>
       </c>
+      <c r="BQ5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BR5" s="2">
+        <v>1073</v>
+      </c>
     </row>
-    <row r="6" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -7624,8 +7825,14 @@
       <c r="BP6" s="2">
         <v>399</v>
       </c>
+      <c r="BQ6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BR6" s="2">
+        <v>414</v>
+      </c>
     </row>
-    <row r="7" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -7830,8 +8037,14 @@
       <c r="BP7" s="2">
         <v>899</v>
       </c>
+      <c r="BQ7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BR7" s="2">
+        <v>977</v>
+      </c>
     </row>
-    <row r="8" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -8036,8 +8249,14 @@
       <c r="BP8" s="2">
         <v>464</v>
       </c>
+      <c r="BQ8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BR8" s="2">
+        <v>464</v>
+      </c>
     </row>
-    <row r="9" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -8242,8 +8461,14 @@
       <c r="BP9" s="2">
         <v>266</v>
       </c>
+      <c r="BQ9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BR9" s="2">
+        <v>353</v>
+      </c>
     </row>
-    <row r="10" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -8448,8 +8673,14 @@
       <c r="BP10" s="2">
         <v>270</v>
       </c>
+      <c r="BQ10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BR10" s="2">
+        <v>277</v>
+      </c>
     </row>
-    <row r="11" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -8654,8 +8885,14 @@
       <c r="BP11" s="2">
         <v>200</v>
       </c>
+      <c r="BQ11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BR11" s="2">
+        <v>209</v>
+      </c>
     </row>
-    <row r="12" spans="1:68" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:70" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -8860,18 +9097,24 @@
       <c r="BP12" s="3">
         <v>3781</v>
       </c>
+      <c r="BQ12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="BR12" s="3">
+        <v>3987</v>
+      </c>
     </row>
-    <row r="14" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>15</v>
       </c>

--- a/original-sources/DSHS_nursing.xlsx
+++ b/original-sources/DSHS_nursing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2622D799-3573-4055-8519-552AF5ECCCB4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E6DDD084-C6F8-48B0-97C1-DF75D9086EAE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8630" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Fatalities" sheetId="2" r:id="rId3"/>
     <sheet name="Recoveries" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -461,11 +461,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36587124-AB08-4074-9D3F-CC49D1169958}">
-  <dimension ref="A1:BR15"/>
+  <dimension ref="A1:BS15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BR9" sqref="BR9"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -475,16 +475,16 @@
     <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
     <col min="28" max="48" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
     <col min="49" max="57" width="6.86328125" style="2" customWidth="1"/>
-    <col min="58" max="70" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="71" max="16384" width="9.06640625" style="2"/>
+    <col min="58" max="71" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="72" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:70" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:71" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -695,8 +695,11 @@
       <c r="BR3" s="5">
         <v>44034</v>
       </c>
+      <c r="BS3" s="5">
+        <v>44035</v>
+      </c>
     </row>
-    <row r="4" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -907,8 +910,11 @@
       <c r="BR4" s="2">
         <v>49</v>
       </c>
+      <c r="BS4" s="2">
+        <v>49</v>
+      </c>
     </row>
-    <row r="5" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -1119,8 +1125,11 @@
       <c r="BR5" s="2">
         <v>251</v>
       </c>
+      <c r="BS5" s="2">
+        <v>256</v>
+      </c>
     </row>
-    <row r="6" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -1331,8 +1340,11 @@
       <c r="BR6" s="2">
         <v>94</v>
       </c>
+      <c r="BS6" s="2">
+        <v>95</v>
+      </c>
     </row>
-    <row r="7" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -1543,8 +1555,11 @@
       <c r="BR7" s="2">
         <v>178</v>
       </c>
+      <c r="BS7" s="2">
+        <v>180</v>
+      </c>
     </row>
-    <row r="8" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1755,8 +1770,11 @@
       <c r="BR8" s="2">
         <v>82</v>
       </c>
+      <c r="BS8" s="2">
+        <v>82</v>
+      </c>
     </row>
-    <row r="9" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1967,8 +1985,11 @@
       <c r="BR9" s="2">
         <v>126</v>
       </c>
+      <c r="BS9" s="2">
+        <v>128</v>
+      </c>
     </row>
-    <row r="10" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -2179,8 +2200,11 @@
       <c r="BR10" s="2">
         <v>45</v>
       </c>
+      <c r="BS10" s="2">
+        <v>46</v>
+      </c>
     </row>
-    <row r="11" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -2391,8 +2415,11 @@
       <c r="BR11" s="2">
         <v>69</v>
       </c>
+      <c r="BS11" s="2">
+        <v>71</v>
+      </c>
     </row>
-    <row r="12" spans="1:70" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:71" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -2607,16 +2634,19 @@
       <c r="BR12" s="3">
         <v>894</v>
       </c>
+      <c r="BS12" s="3">
+        <v>907</v>
+      </c>
     </row>
-    <row r="13" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:71" x14ac:dyDescent="0.3">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -2629,11 +2659,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001C2592-E91A-4D15-BF1F-41D54F92301C}">
-  <dimension ref="A1:BR16"/>
+  <dimension ref="A1:BS16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BR9" sqref="BR9"/>
+      <selection pane="topRight" activeCell="BS4" sqref="BS4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2643,16 +2673,16 @@
     <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
     <col min="28" max="48" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
     <col min="49" max="57" width="7.265625" style="2" customWidth="1"/>
-    <col min="58" max="70" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="71" max="16384" width="9.06640625" style="2"/>
+    <col min="58" max="71" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="72" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:70" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:71" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -2863,8 +2893,11 @@
       <c r="BR3" s="5">
         <v>44034</v>
       </c>
+      <c r="BS3" s="5">
+        <v>44035</v>
+      </c>
     </row>
-    <row r="4" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -3075,8 +3108,11 @@
       <c r="BR4" s="2">
         <v>538</v>
       </c>
+      <c r="BS4" s="2">
+        <v>541</v>
+      </c>
     </row>
-    <row r="5" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -3287,8 +3323,11 @@
       <c r="BR5" s="2">
         <v>2545</v>
       </c>
+      <c r="BS5" s="2">
+        <v>5183</v>
+      </c>
     </row>
-    <row r="6" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -3499,8 +3538,11 @@
       <c r="BR6" s="2">
         <v>1013</v>
       </c>
+      <c r="BS6" s="2">
+        <v>1118</v>
+      </c>
     </row>
-    <row r="7" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -3711,8 +3753,11 @@
       <c r="BR7" s="2">
         <v>3300</v>
       </c>
+      <c r="BS7" s="2">
+        <v>3554</v>
+      </c>
     </row>
-    <row r="8" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -3923,8 +3968,11 @@
       <c r="BR8" s="2">
         <v>1158</v>
       </c>
+      <c r="BS8" s="2">
+        <v>1169</v>
+      </c>
     </row>
-    <row r="9" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -4135,8 +4183,11 @@
       <c r="BR9" s="2">
         <v>1673</v>
       </c>
+      <c r="BS9" s="2">
+        <v>1704</v>
+      </c>
     </row>
-    <row r="10" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -4347,8 +4398,11 @@
       <c r="BR10" s="2">
         <v>854</v>
       </c>
+      <c r="BS10" s="2">
+        <v>864</v>
+      </c>
     </row>
-    <row r="11" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -4559,8 +4613,11 @@
       <c r="BR11" s="2">
         <v>1138</v>
       </c>
+      <c r="BS11" s="2">
+        <v>1364</v>
+      </c>
     </row>
-    <row r="12" spans="1:70" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:71" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -4771,21 +4828,24 @@
       <c r="BR12" s="3">
         <v>12219</v>
       </c>
+      <c r="BS12" s="3">
+        <v>15497</v>
+      </c>
     </row>
-    <row r="13" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:71" x14ac:dyDescent="0.3">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>15</v>
       </c>
@@ -4798,11 +4858,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC07078-FDB2-4744-9C93-DA564120E1E6}">
-  <dimension ref="A1:BR15"/>
+  <dimension ref="A1:BS15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BR9" sqref="BR9"/>
+      <selection pane="topRight" activeCell="BL16" sqref="BL16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -4811,16 +4871,16 @@
     <col min="2" max="18" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
     <col min="28" max="57" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="58" max="70" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="71" max="16384" width="9.06640625" style="2"/>
+    <col min="58" max="71" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="72" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:70" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:71" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -5031,8 +5091,11 @@
       <c r="BR3" s="5">
         <v>44034</v>
       </c>
+      <c r="BS3" s="5">
+        <v>44035</v>
+      </c>
     </row>
-    <row r="4" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -5243,8 +5306,11 @@
       <c r="BR4" s="2">
         <v>94</v>
       </c>
+      <c r="BS4" s="2">
+        <v>95</v>
+      </c>
     </row>
-    <row r="5" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -5455,8 +5521,11 @@
       <c r="BR5" s="2">
         <v>351</v>
       </c>
+      <c r="BS5" s="2">
+        <v>372</v>
+      </c>
     </row>
-    <row r="6" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -5667,8 +5736,11 @@
       <c r="BR6" s="2">
         <v>149</v>
       </c>
+      <c r="BS6" s="2">
+        <v>144</v>
+      </c>
     </row>
-    <row r="7" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -5879,8 +5951,11 @@
       <c r="BR7" s="2">
         <v>352</v>
       </c>
+      <c r="BS7" s="2">
+        <v>401</v>
+      </c>
     </row>
-    <row r="8" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -6091,8 +6166,11 @@
       <c r="BR8" s="2">
         <v>173</v>
       </c>
+      <c r="BS8" s="2">
+        <v>177</v>
+      </c>
     </row>
-    <row r="9" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -6303,8 +6381,11 @@
       <c r="BR9" s="2">
         <v>160</v>
       </c>
+      <c r="BS9" s="2">
+        <v>180</v>
+      </c>
     </row>
-    <row r="10" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -6515,8 +6596,11 @@
       <c r="BR10" s="2">
         <v>125</v>
       </c>
+      <c r="BS10" s="2">
+        <v>125</v>
+      </c>
     </row>
-    <row r="11" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -6727,8 +6811,11 @@
       <c r="BR11" s="2">
         <v>181</v>
       </c>
+      <c r="BS11" s="2">
+        <v>230</v>
+      </c>
     </row>
-    <row r="12" spans="1:70" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:71" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -6941,16 +7028,19 @@
       <c r="BR12" s="3">
         <v>1585</v>
       </c>
+      <c r="BS12" s="3">
+        <v>1724</v>
+      </c>
     </row>
-    <row r="13" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:71" x14ac:dyDescent="0.3">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -6962,11 +7052,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCD14BD-3EDB-4A02-AA3B-BFB82E165626}">
-  <dimension ref="A1:BR17"/>
+  <dimension ref="A1:BS17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BR9" sqref="BR9"/>
+      <selection pane="topRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -6975,16 +7065,16 @@
     <col min="2" max="18" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
     <col min="28" max="57" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="58" max="70" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="71" max="16384" width="9.06640625" style="2"/>
+    <col min="58" max="71" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="72" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:70" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:71" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -7195,8 +7285,11 @@
       <c r="BR3" s="5">
         <v>44034</v>
       </c>
+      <c r="BS3" s="5">
+        <v>44035</v>
+      </c>
     </row>
-    <row r="4" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -7407,8 +7500,11 @@
       <c r="BR4" s="2">
         <v>220</v>
       </c>
+      <c r="BS4" s="2">
+        <v>233</v>
+      </c>
     </row>
-    <row r="5" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -7619,8 +7715,11 @@
       <c r="BR5" s="2">
         <v>1073</v>
       </c>
+      <c r="BS5" s="2">
+        <v>1120</v>
+      </c>
     </row>
-    <row r="6" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -7831,8 +7930,11 @@
       <c r="BR6" s="2">
         <v>414</v>
       </c>
+      <c r="BS6" s="2">
+        <v>530</v>
+      </c>
     </row>
-    <row r="7" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -8043,8 +8145,11 @@
       <c r="BR7" s="2">
         <v>977</v>
       </c>
+      <c r="BS7" s="2">
+        <v>1134</v>
+      </c>
     </row>
-    <row r="8" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -8255,8 +8360,11 @@
       <c r="BR8" s="2">
         <v>464</v>
       </c>
+      <c r="BS8" s="2">
+        <v>500</v>
+      </c>
     </row>
-    <row r="9" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -8467,8 +8575,11 @@
       <c r="BR9" s="2">
         <v>353</v>
       </c>
+      <c r="BS9" s="2">
+        <v>419</v>
+      </c>
     </row>
-    <row r="10" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -8679,8 +8790,11 @@
       <c r="BR10" s="2">
         <v>277</v>
       </c>
+      <c r="BS10" s="2">
+        <v>277</v>
+      </c>
     </row>
-    <row r="11" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -8891,8 +9005,11 @@
       <c r="BR11" s="2">
         <v>209</v>
       </c>
+      <c r="BS11" s="2">
+        <v>227</v>
+      </c>
     </row>
-    <row r="12" spans="1:70" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:71" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -9103,18 +9220,21 @@
       <c r="BR12" s="3">
         <v>3987</v>
       </c>
+      <c r="BS12" s="3">
+        <v>4440</v>
+      </c>
     </row>
-    <row r="14" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>15</v>
       </c>

--- a/original-sources/DSHS_nursing.xlsx
+++ b/original-sources/DSHS_nursing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E6DDD084-C6F8-48B0-97C1-DF75D9086EAE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{400FF60A-94EA-48E9-A444-A516A1EB37F8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8630" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
   </bookViews>
@@ -461,11 +461,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36587124-AB08-4074-9D3F-CC49D1169958}">
-  <dimension ref="A1:BS15"/>
+  <dimension ref="A1:BT15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2"/>
+      <selection pane="topRight" activeCell="BT1" sqref="BT1:BT1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -475,16 +475,16 @@
     <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
     <col min="28" max="48" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
     <col min="49" max="57" width="6.86328125" style="2" customWidth="1"/>
-    <col min="58" max="71" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="72" max="16384" width="9.06640625" style="2"/>
+    <col min="58" max="72" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="73" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:71" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:72" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -698,8 +698,11 @@
       <c r="BS3" s="5">
         <v>44035</v>
       </c>
+      <c r="BT3" s="5">
+        <v>44036</v>
+      </c>
     </row>
-    <row r="4" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -913,8 +916,11 @@
       <c r="BS4" s="2">
         <v>49</v>
       </c>
+      <c r="BT4" s="2">
+        <v>50</v>
+      </c>
     </row>
-    <row r="5" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -1128,8 +1134,11 @@
       <c r="BS5" s="2">
         <v>256</v>
       </c>
+      <c r="BT5" s="2">
+        <v>258</v>
+      </c>
     </row>
-    <row r="6" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -1343,8 +1352,11 @@
       <c r="BS6" s="2">
         <v>95</v>
       </c>
+      <c r="BT6" s="2">
+        <v>98</v>
+      </c>
     </row>
-    <row r="7" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -1558,8 +1570,11 @@
       <c r="BS7" s="2">
         <v>180</v>
       </c>
+      <c r="BT7" s="2">
+        <v>182</v>
+      </c>
     </row>
-    <row r="8" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1773,8 +1788,11 @@
       <c r="BS8" s="2">
         <v>82</v>
       </c>
+      <c r="BT8" s="2">
+        <v>85</v>
+      </c>
     </row>
-    <row r="9" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1988,8 +2006,11 @@
       <c r="BS9" s="2">
         <v>128</v>
       </c>
+      <c r="BT9" s="2">
+        <v>128</v>
+      </c>
     </row>
-    <row r="10" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -2203,8 +2224,11 @@
       <c r="BS10" s="2">
         <v>46</v>
       </c>
+      <c r="BT10" s="2">
+        <v>46</v>
+      </c>
     </row>
-    <row r="11" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -2418,8 +2442,11 @@
       <c r="BS11" s="2">
         <v>71</v>
       </c>
+      <c r="BT11" s="2">
+        <v>71</v>
+      </c>
     </row>
-    <row r="12" spans="1:71" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:72" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -2637,16 +2664,19 @@
       <c r="BS12" s="3">
         <v>907</v>
       </c>
+      <c r="BT12" s="3">
+        <v>918</v>
+      </c>
     </row>
-    <row r="13" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:72" x14ac:dyDescent="0.3">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -2659,11 +2689,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001C2592-E91A-4D15-BF1F-41D54F92301C}">
-  <dimension ref="A1:BS16"/>
+  <dimension ref="A1:BT16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BS4" sqref="BS4"/>
+      <selection pane="topRight" activeCell="BR5" sqref="BR5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2673,16 +2703,18 @@
     <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
     <col min="28" max="48" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
     <col min="49" max="57" width="7.265625" style="2" customWidth="1"/>
-    <col min="58" max="71" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="72" max="16384" width="9.06640625" style="2"/>
+    <col min="58" max="70" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="6.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="73" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:71" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:72" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -2896,8 +2928,11 @@
       <c r="BS3" s="5">
         <v>44035</v>
       </c>
+      <c r="BT3" s="5">
+        <v>44036</v>
+      </c>
     </row>
-    <row r="4" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -3111,8 +3146,11 @@
       <c r="BS4" s="2">
         <v>541</v>
       </c>
+      <c r="BT4" s="2">
+        <v>565</v>
+      </c>
     </row>
-    <row r="5" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -3324,10 +3362,13 @@
         <v>2545</v>
       </c>
       <c r="BS5" s="2">
-        <v>5183</v>
+        <v>2683</v>
+      </c>
+      <c r="BT5" s="2">
+        <v>2764</v>
       </c>
     </row>
-    <row r="6" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -3541,8 +3582,11 @@
       <c r="BS6" s="2">
         <v>1118</v>
       </c>
+      <c r="BT6" s="2">
+        <v>1177</v>
+      </c>
     </row>
-    <row r="7" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -3756,8 +3800,11 @@
       <c r="BS7" s="2">
         <v>3554</v>
       </c>
+      <c r="BT7" s="2">
+        <v>3633</v>
+      </c>
     </row>
-    <row r="8" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -3971,8 +4018,11 @@
       <c r="BS8" s="2">
         <v>1169</v>
       </c>
+      <c r="BT8" s="2">
+        <v>1170</v>
+      </c>
     </row>
-    <row r="9" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -4186,8 +4236,11 @@
       <c r="BS9" s="2">
         <v>1704</v>
       </c>
+      <c r="BT9" s="2">
+        <v>1799</v>
+      </c>
     </row>
-    <row r="10" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -4401,8 +4454,11 @@
       <c r="BS10" s="2">
         <v>864</v>
       </c>
+      <c r="BT10" s="2">
+        <v>870</v>
+      </c>
     </row>
-    <row r="11" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -4616,8 +4672,11 @@
       <c r="BS11" s="2">
         <v>1364</v>
       </c>
+      <c r="BT11" s="2">
+        <v>1511</v>
+      </c>
     </row>
-    <row r="12" spans="1:71" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:72" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -4829,23 +4888,26 @@
         <v>12219</v>
       </c>
       <c r="BS12" s="3">
-        <v>15497</v>
+        <v>12997</v>
+      </c>
+      <c r="BT12" s="3">
+        <v>13489</v>
       </c>
     </row>
-    <row r="13" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:72" x14ac:dyDescent="0.3">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>15</v>
       </c>
@@ -4858,11 +4920,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC07078-FDB2-4744-9C93-DA564120E1E6}">
-  <dimension ref="A1:BS15"/>
+  <dimension ref="A1:BT15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BL16" sqref="BL16"/>
+      <selection pane="topRight" activeCell="BT2" sqref="BT2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -4871,16 +4933,16 @@
     <col min="2" max="18" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
     <col min="28" max="57" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="58" max="71" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="72" max="16384" width="9.06640625" style="2"/>
+    <col min="58" max="72" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="73" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:71" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:72" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -5094,8 +5156,11 @@
       <c r="BS3" s="5">
         <v>44035</v>
       </c>
+      <c r="BT3" s="5">
+        <v>44036</v>
+      </c>
     </row>
-    <row r="4" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -5309,8 +5374,11 @@
       <c r="BS4" s="2">
         <v>95</v>
       </c>
+      <c r="BT4" s="2">
+        <v>96</v>
+      </c>
     </row>
-    <row r="5" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -5524,8 +5592,11 @@
       <c r="BS5" s="2">
         <v>372</v>
       </c>
+      <c r="BT5" s="2">
+        <v>380</v>
+      </c>
     </row>
-    <row r="6" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -5739,8 +5810,11 @@
       <c r="BS6" s="2">
         <v>144</v>
       </c>
+      <c r="BT6" s="2">
+        <v>147</v>
+      </c>
     </row>
-    <row r="7" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -5954,8 +6028,11 @@
       <c r="BS7" s="2">
         <v>401</v>
       </c>
+      <c r="BT7" s="2">
+        <v>418</v>
+      </c>
     </row>
-    <row r="8" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -6169,8 +6246,11 @@
       <c r="BS8" s="2">
         <v>177</v>
       </c>
+      <c r="BT8" s="2">
+        <v>178</v>
+      </c>
     </row>
-    <row r="9" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -6384,8 +6464,11 @@
       <c r="BS9" s="2">
         <v>180</v>
       </c>
+      <c r="BT9" s="2">
+        <v>192</v>
+      </c>
     </row>
-    <row r="10" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -6599,8 +6682,11 @@
       <c r="BS10" s="2">
         <v>125</v>
       </c>
+      <c r="BT10" s="2">
+        <v>127</v>
+      </c>
     </row>
-    <row r="11" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -6814,8 +6900,11 @@
       <c r="BS11" s="2">
         <v>230</v>
       </c>
+      <c r="BT11" s="2">
+        <v>230</v>
+      </c>
     </row>
-    <row r="12" spans="1:71" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:72" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -7031,16 +7120,19 @@
       <c r="BS12" s="3">
         <v>1724</v>
       </c>
+      <c r="BT12" s="3">
+        <v>1768</v>
+      </c>
     </row>
-    <row r="13" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:72" x14ac:dyDescent="0.3">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -7052,11 +7144,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCD14BD-3EDB-4A02-AA3B-BFB82E165626}">
-  <dimension ref="A1:BS17"/>
+  <dimension ref="A1:BT17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A7" sqref="A7"/>
+      <selection pane="topRight" activeCell="BS3" sqref="BS3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -7065,16 +7157,16 @@
     <col min="2" max="18" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
     <col min="28" max="57" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="58" max="71" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="72" max="16384" width="9.06640625" style="2"/>
+    <col min="58" max="72" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="73" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:71" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:72" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -7288,8 +7380,11 @@
       <c r="BS3" s="5">
         <v>44035</v>
       </c>
+      <c r="BT3" s="5">
+        <v>44036</v>
+      </c>
     </row>
-    <row r="4" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -7503,8 +7598,11 @@
       <c r="BS4" s="2">
         <v>233</v>
       </c>
+      <c r="BT4" s="2">
+        <v>238</v>
+      </c>
     </row>
-    <row r="5" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -7718,8 +7816,11 @@
       <c r="BS5" s="2">
         <v>1120</v>
       </c>
+      <c r="BT5" s="2">
+        <v>1232</v>
+      </c>
     </row>
-    <row r="6" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -7933,8 +8034,11 @@
       <c r="BS6" s="2">
         <v>530</v>
       </c>
+      <c r="BT6" s="2">
+        <v>534</v>
+      </c>
     </row>
-    <row r="7" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -8148,8 +8252,11 @@
       <c r="BS7" s="2">
         <v>1134</v>
       </c>
+      <c r="BT7" s="2">
+        <v>1222</v>
+      </c>
     </row>
-    <row r="8" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -8363,8 +8470,11 @@
       <c r="BS8" s="2">
         <v>500</v>
       </c>
+      <c r="BT8" s="2">
+        <v>502</v>
+      </c>
     </row>
-    <row r="9" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -8578,8 +8688,11 @@
       <c r="BS9" s="2">
         <v>419</v>
       </c>
+      <c r="BT9" s="2">
+        <v>396</v>
+      </c>
     </row>
-    <row r="10" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -8793,8 +8906,11 @@
       <c r="BS10" s="2">
         <v>277</v>
       </c>
+      <c r="BT10" s="2">
+        <v>281</v>
+      </c>
     </row>
-    <row r="11" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -9008,8 +9124,11 @@
       <c r="BS11" s="2">
         <v>227</v>
       </c>
+      <c r="BT11" s="2">
+        <v>272</v>
+      </c>
     </row>
-    <row r="12" spans="1:71" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:72" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -9223,18 +9342,21 @@
       <c r="BS12" s="3">
         <v>4440</v>
       </c>
+      <c r="BT12" s="3">
+        <v>4677</v>
+      </c>
     </row>
-    <row r="14" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>15</v>
       </c>

--- a/original-sources/DSHS_nursing.xlsx
+++ b/original-sources/DSHS_nursing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{400FF60A-94EA-48E9-A444-A516A1EB37F8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F9F9850B-5C92-4B1F-9DFD-3E0F9236C819}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8630" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Fatalities" sheetId="2" r:id="rId3"/>
     <sheet name="Recoveries" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -461,11 +461,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36587124-AB08-4074-9D3F-CC49D1169958}">
-  <dimension ref="A1:BT15"/>
+  <dimension ref="A1:BU15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BT1" sqref="BT1:BT1048576"/>
+      <selection pane="topRight" activeCell="BU1" sqref="BU1:BU1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -475,16 +475,16 @@
     <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
     <col min="28" max="48" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
     <col min="49" max="57" width="6.86328125" style="2" customWidth="1"/>
-    <col min="58" max="72" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="73" max="16384" width="9.06640625" style="2"/>
+    <col min="58" max="73" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="74" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:72" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:73" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -701,8 +701,11 @@
       <c r="BT3" s="5">
         <v>44036</v>
       </c>
+      <c r="BU3" s="5">
+        <v>44037</v>
+      </c>
     </row>
-    <row r="4" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -919,8 +922,11 @@
       <c r="BT4" s="2">
         <v>50</v>
       </c>
+      <c r="BU4" s="2">
+        <v>50</v>
+      </c>
     </row>
-    <row r="5" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -1137,8 +1143,11 @@
       <c r="BT5" s="2">
         <v>258</v>
       </c>
+      <c r="BU5" s="2">
+        <v>259</v>
+      </c>
     </row>
-    <row r="6" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -1355,8 +1364,11 @@
       <c r="BT6" s="2">
         <v>98</v>
       </c>
+      <c r="BU6" s="2">
+        <v>100</v>
+      </c>
     </row>
-    <row r="7" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -1573,8 +1585,11 @@
       <c r="BT7" s="2">
         <v>182</v>
       </c>
+      <c r="BU7" s="2">
+        <v>183</v>
+      </c>
     </row>
-    <row r="8" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1791,8 +1806,11 @@
       <c r="BT8" s="2">
         <v>85</v>
       </c>
+      <c r="BU8" s="2">
+        <v>87</v>
+      </c>
     </row>
-    <row r="9" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -2009,8 +2027,11 @@
       <c r="BT9" s="2">
         <v>128</v>
       </c>
+      <c r="BU9" s="2">
+        <v>128</v>
+      </c>
     </row>
-    <row r="10" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -2227,8 +2248,11 @@
       <c r="BT10" s="2">
         <v>46</v>
       </c>
+      <c r="BU10" s="2">
+        <v>47</v>
+      </c>
     </row>
-    <row r="11" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -2445,8 +2469,11 @@
       <c r="BT11" s="2">
         <v>71</v>
       </c>
+      <c r="BU11" s="2">
+        <v>71</v>
+      </c>
     </row>
-    <row r="12" spans="1:72" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:73" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -2667,16 +2694,20 @@
       <c r="BT12" s="3">
         <v>918</v>
       </c>
+      <c r="BU12" s="3">
+        <f>SUM(BU4:BU11)</f>
+        <v>925</v>
+      </c>
     </row>
-    <row r="13" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:73" x14ac:dyDescent="0.3">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -2689,11 +2720,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001C2592-E91A-4D15-BF1F-41D54F92301C}">
-  <dimension ref="A1:BT16"/>
+  <dimension ref="A1:BU16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BR5" sqref="BR5"/>
+      <selection pane="topRight" activeCell="BU1" sqref="BU1:BU1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2705,16 +2736,16 @@
     <col min="49" max="57" width="7.265625" style="2" customWidth="1"/>
     <col min="58" max="70" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
     <col min="71" max="71" width="6.53125" style="2" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="73" max="16384" width="9.06640625" style="2"/>
+    <col min="72" max="73" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="74" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:72" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:73" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -2931,8 +2962,11 @@
       <c r="BT3" s="5">
         <v>44036</v>
       </c>
+      <c r="BU3" s="5">
+        <v>44037</v>
+      </c>
     </row>
-    <row r="4" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -3149,8 +3183,11 @@
       <c r="BT4" s="2">
         <v>565</v>
       </c>
+      <c r="BU4" s="2">
+        <v>569</v>
+      </c>
     </row>
-    <row r="5" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -3367,8 +3404,11 @@
       <c r="BT5" s="2">
         <v>2764</v>
       </c>
+      <c r="BU5" s="2">
+        <v>2866</v>
+      </c>
     </row>
-    <row r="6" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -3585,8 +3625,11 @@
       <c r="BT6" s="2">
         <v>1177</v>
       </c>
+      <c r="BU6" s="2">
+        <v>1172</v>
+      </c>
     </row>
-    <row r="7" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -3803,8 +3846,11 @@
       <c r="BT7" s="2">
         <v>3633</v>
       </c>
+      <c r="BU7" s="2">
+        <v>3649</v>
+      </c>
     </row>
-    <row r="8" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -4021,8 +4067,11 @@
       <c r="BT8" s="2">
         <v>1170</v>
       </c>
+      <c r="BU8" s="2">
+        <v>1180</v>
+      </c>
     </row>
-    <row r="9" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -4239,8 +4288,11 @@
       <c r="BT9" s="2">
         <v>1799</v>
       </c>
+      <c r="BU9" s="2">
+        <v>1900</v>
+      </c>
     </row>
-    <row r="10" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -4457,8 +4509,11 @@
       <c r="BT10" s="2">
         <v>870</v>
       </c>
+      <c r="BU10" s="2">
+        <v>1013</v>
+      </c>
     </row>
-    <row r="11" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -4675,8 +4730,11 @@
       <c r="BT11" s="2">
         <v>1511</v>
       </c>
+      <c r="BU11" s="2">
+        <v>1604</v>
+      </c>
     </row>
-    <row r="12" spans="1:72" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:73" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -4893,21 +4951,24 @@
       <c r="BT12" s="3">
         <v>13489</v>
       </c>
+      <c r="BU12" s="3">
+        <v>13953</v>
+      </c>
     </row>
-    <row r="13" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:73" x14ac:dyDescent="0.3">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>15</v>
       </c>
@@ -4920,11 +4981,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC07078-FDB2-4744-9C93-DA564120E1E6}">
-  <dimension ref="A1:BT15"/>
+  <dimension ref="A1:BU15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BT2" sqref="BT2"/>
+      <selection pane="topRight" activeCell="BU1" sqref="BU1:BU1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -4933,16 +4994,16 @@
     <col min="2" max="18" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
     <col min="28" max="57" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="58" max="72" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="73" max="16384" width="9.06640625" style="2"/>
+    <col min="58" max="73" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="74" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:72" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:73" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -5159,8 +5220,11 @@
       <c r="BT3" s="5">
         <v>44036</v>
       </c>
+      <c r="BU3" s="5">
+        <v>44037</v>
+      </c>
     </row>
-    <row r="4" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -5377,8 +5441,11 @@
       <c r="BT4" s="2">
         <v>96</v>
       </c>
+      <c r="BU4" s="2">
+        <v>96</v>
+      </c>
     </row>
-    <row r="5" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -5595,8 +5662,11 @@
       <c r="BT5" s="2">
         <v>380</v>
       </c>
+      <c r="BU5" s="2">
+        <v>386</v>
+      </c>
     </row>
-    <row r="6" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -5813,8 +5883,11 @@
       <c r="BT6" s="2">
         <v>147</v>
       </c>
+      <c r="BU6" s="2">
+        <v>149</v>
+      </c>
     </row>
-    <row r="7" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -6031,8 +6104,11 @@
       <c r="BT7" s="2">
         <v>418</v>
       </c>
+      <c r="BU7" s="2">
+        <v>431</v>
+      </c>
     </row>
-    <row r="8" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -6249,8 +6325,11 @@
       <c r="BT8" s="2">
         <v>178</v>
       </c>
+      <c r="BU8" s="2">
+        <v>179</v>
+      </c>
     </row>
-    <row r="9" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -6467,8 +6546,11 @@
       <c r="BT9" s="2">
         <v>192</v>
       </c>
+      <c r="BU9" s="2">
+        <v>201</v>
+      </c>
     </row>
-    <row r="10" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -6685,8 +6767,11 @@
       <c r="BT10" s="2">
         <v>127</v>
       </c>
+      <c r="BU10" s="2">
+        <v>139</v>
+      </c>
     </row>
-    <row r="11" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -6903,8 +6988,11 @@
       <c r="BT11" s="2">
         <v>230</v>
       </c>
+      <c r="BU11" s="2">
+        <v>243</v>
+      </c>
     </row>
-    <row r="12" spans="1:72" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:73" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -7123,16 +7211,19 @@
       <c r="BT12" s="3">
         <v>1768</v>
       </c>
+      <c r="BU12" s="3">
+        <v>1824</v>
+      </c>
     </row>
-    <row r="13" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:73" x14ac:dyDescent="0.3">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -7144,11 +7235,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCD14BD-3EDB-4A02-AA3B-BFB82E165626}">
-  <dimension ref="A1:BT17"/>
+  <dimension ref="A1:BU17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BS3" sqref="BS3"/>
+      <selection pane="topRight" activeCell="BT8" sqref="BT8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -7157,16 +7248,16 @@
     <col min="2" max="18" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
     <col min="28" max="57" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="58" max="72" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="73" max="16384" width="9.06640625" style="2"/>
+    <col min="58" max="73" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="74" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:72" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:73" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -7383,8 +7474,11 @@
       <c r="BT3" s="5">
         <v>44036</v>
       </c>
+      <c r="BU3" s="5">
+        <v>44037</v>
+      </c>
     </row>
-    <row r="4" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -7601,8 +7695,11 @@
       <c r="BT4" s="2">
         <v>238</v>
       </c>
+      <c r="BU4" s="2">
+        <v>253</v>
+      </c>
     </row>
-    <row r="5" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -7819,8 +7916,11 @@
       <c r="BT5" s="2">
         <v>1232</v>
       </c>
+      <c r="BU5" s="2">
+        <v>1257</v>
+      </c>
     </row>
-    <row r="6" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -8037,8 +8137,11 @@
       <c r="BT6" s="2">
         <v>534</v>
       </c>
+      <c r="BU6" s="2">
+        <v>544</v>
+      </c>
     </row>
-    <row r="7" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -8255,8 +8358,11 @@
       <c r="BT7" s="2">
         <v>1222</v>
       </c>
+      <c r="BU7" s="2">
+        <v>1282</v>
+      </c>
     </row>
-    <row r="8" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -8473,8 +8579,11 @@
       <c r="BT8" s="2">
         <v>502</v>
       </c>
+      <c r="BU8" s="2">
+        <v>515</v>
+      </c>
     </row>
-    <row r="9" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -8691,8 +8800,11 @@
       <c r="BT9" s="2">
         <v>396</v>
       </c>
+      <c r="BU9" s="2">
+        <v>465</v>
+      </c>
     </row>
-    <row r="10" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -8909,8 +9021,11 @@
       <c r="BT10" s="2">
         <v>281</v>
       </c>
+      <c r="BU10" s="2">
+        <v>395</v>
+      </c>
     </row>
-    <row r="11" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -9127,8 +9242,11 @@
       <c r="BT11" s="2">
         <v>272</v>
       </c>
+      <c r="BU11" s="2">
+        <v>300</v>
+      </c>
     </row>
-    <row r="12" spans="1:72" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:73" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -9345,18 +9463,22 @@
       <c r="BT12" s="3">
         <v>4677</v>
       </c>
+      <c r="BU12" s="3">
+        <f t="shared" ref="BU12" si="0">SUM(BU4:BU11)</f>
+        <v>5011</v>
+      </c>
     </row>
-    <row r="14" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>15</v>
       </c>

--- a/original-sources/DSHS_nursing.xlsx
+++ b/original-sources/DSHS_nursing.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dshs4dvchsfs01.dshs.state.tx.us\CHS Share\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F9F9850B-5C92-4B1F-9DFD-3E0F9236C819}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0798252E-572F-41EC-B532-884964BCCA2D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8630" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8633" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
   </bookViews>
   <sheets>
     <sheet name="Facilities" sheetId="1" r:id="rId1"/>
@@ -461,30 +461,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36587124-AB08-4074-9D3F-CC49D1169958}">
-  <dimension ref="A1:BU15"/>
+  <dimension ref="A1:BV15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BU1" sqref="BU1:BU1048576"/>
+      <pane xSplit="1" topLeftCell="BD1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.046875" defaultRowHeight="14.65" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.34765625" style="2" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="48" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="57" width="6.86328125" style="2" customWidth="1"/>
-    <col min="58" max="73" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="74" max="16384" width="9.06640625" style="2"/>
+    <col min="19" max="27" width="5.94921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="48" width="7.046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="57" width="6.84765625" style="2" customWidth="1"/>
+    <col min="58" max="74" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="75" max="16384" width="9.046875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:73" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:74" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -704,8 +704,11 @@
       <c r="BU3" s="5">
         <v>44037</v>
       </c>
+      <c r="BV3" s="5">
+        <v>44038</v>
+      </c>
     </row>
-    <row r="4" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -925,8 +928,11 @@
       <c r="BU4" s="2">
         <v>50</v>
       </c>
+      <c r="BV4" s="2">
+        <v>50</v>
+      </c>
     </row>
-    <row r="5" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -1146,8 +1152,11 @@
       <c r="BU5" s="2">
         <v>259</v>
       </c>
+      <c r="BV5" s="2">
+        <v>261</v>
+      </c>
     </row>
-    <row r="6" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -1367,8 +1376,11 @@
       <c r="BU6" s="2">
         <v>100</v>
       </c>
+      <c r="BV6" s="2">
+        <v>101</v>
+      </c>
     </row>
-    <row r="7" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -1588,8 +1600,11 @@
       <c r="BU7" s="2">
         <v>183</v>
       </c>
+      <c r="BV7" s="2">
+        <v>186</v>
+      </c>
     </row>
-    <row r="8" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1809,8 +1824,11 @@
       <c r="BU8" s="2">
         <v>87</v>
       </c>
+      <c r="BV8" s="2">
+        <v>87</v>
+      </c>
     </row>
-    <row r="9" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -2030,8 +2048,11 @@
       <c r="BU9" s="2">
         <v>128</v>
       </c>
+      <c r="BV9" s="2">
+        <v>128</v>
+      </c>
     </row>
-    <row r="10" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -2251,8 +2272,11 @@
       <c r="BU10" s="2">
         <v>47</v>
       </c>
+      <c r="BV10" s="2">
+        <v>47</v>
+      </c>
     </row>
-    <row r="11" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -2472,8 +2496,11 @@
       <c r="BU11" s="2">
         <v>71</v>
       </c>
+      <c r="BV11" s="2">
+        <v>71</v>
+      </c>
     </row>
-    <row r="12" spans="1:73" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:74" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -2698,16 +2725,19 @@
         <f>SUM(BU4:BU11)</f>
         <v>925</v>
       </c>
+      <c r="BV12" s="3">
+        <v>931</v>
+      </c>
     </row>
-    <row r="13" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:74" ht="15" x14ac:dyDescent="0.4">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -2720,32 +2750,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001C2592-E91A-4D15-BF1F-41D54F92301C}">
-  <dimension ref="A1:BU16"/>
+  <dimension ref="A1:BV16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BU1" sqref="BU1:BU1048576"/>
+      <pane xSplit="1" topLeftCell="BC1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BV4" sqref="BV4:BV12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.046875" defaultRowHeight="14.65" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.34765625" style="2" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="48" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="57" width="7.265625" style="2" customWidth="1"/>
+    <col min="19" max="27" width="5.94921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="48" width="7.046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="57" width="7.25" style="2" customWidth="1"/>
     <col min="58" max="70" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="6.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="6.546875" style="2" bestFit="1" customWidth="1"/>
     <col min="72" max="73" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="74" max="16384" width="9.06640625" style="2"/>
+    <col min="74" max="16384" width="9.046875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:73" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:74" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -2965,8 +2995,11 @@
       <c r="BU3" s="5">
         <v>44037</v>
       </c>
+      <c r="BV3" s="5">
+        <v>44038</v>
+      </c>
     </row>
-    <row r="4" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -3186,8 +3219,11 @@
       <c r="BU4" s="2">
         <v>569</v>
       </c>
+      <c r="BV4" s="2">
+        <v>569</v>
+      </c>
     </row>
-    <row r="5" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -3407,8 +3443,11 @@
       <c r="BU5" s="2">
         <v>2866</v>
       </c>
+      <c r="BV5" s="2">
+        <v>2959</v>
+      </c>
     </row>
-    <row r="6" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -3628,8 +3667,11 @@
       <c r="BU6" s="2">
         <v>1172</v>
       </c>
+      <c r="BV6" s="2">
+        <v>1172</v>
+      </c>
     </row>
-    <row r="7" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -3849,8 +3891,11 @@
       <c r="BU7" s="2">
         <v>3649</v>
       </c>
+      <c r="BV7" s="2">
+        <v>3741</v>
+      </c>
     </row>
-    <row r="8" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -4070,8 +4115,11 @@
       <c r="BU8" s="2">
         <v>1180</v>
       </c>
+      <c r="BV8" s="2">
+        <v>1180</v>
+      </c>
     </row>
-    <row r="9" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -4291,8 +4339,11 @@
       <c r="BU9" s="2">
         <v>1900</v>
       </c>
+      <c r="BV9" s="2">
+        <v>1919</v>
+      </c>
     </row>
-    <row r="10" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -4512,8 +4563,11 @@
       <c r="BU10" s="2">
         <v>1013</v>
       </c>
+      <c r="BV10" s="2">
+        <v>1039</v>
+      </c>
     </row>
-    <row r="11" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -4733,8 +4787,11 @@
       <c r="BU11" s="2">
         <v>1604</v>
       </c>
+      <c r="BV11" s="2">
+        <v>1719</v>
+      </c>
     </row>
-    <row r="12" spans="1:73" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:74" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -4954,21 +5011,24 @@
       <c r="BU12" s="3">
         <v>13953</v>
       </c>
+      <c r="BV12" s="3">
+        <v>14298</v>
+      </c>
     </row>
-    <row r="13" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:74" ht="15" x14ac:dyDescent="0.4">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>15</v>
       </c>
@@ -4981,29 +5041,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC07078-FDB2-4744-9C93-DA564120E1E6}">
-  <dimension ref="A1:BU15"/>
+  <dimension ref="A1:BV15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BU1" sqref="BU1:BU1048576"/>
+      <pane xSplit="1" topLeftCell="BC1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BV4" sqref="BV4:BV13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.046875" defaultRowHeight="14.65" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.34765625" style="2" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="57" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="58" max="73" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="74" max="16384" width="9.06640625" style="2"/>
+    <col min="19" max="27" width="5.94921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="57" width="7.046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="58" max="74" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="75" max="16384" width="9.046875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:73" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:74" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -5223,8 +5283,11 @@
       <c r="BU3" s="5">
         <v>44037</v>
       </c>
+      <c r="BV3" s="5">
+        <v>44038</v>
+      </c>
     </row>
-    <row r="4" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -5444,8 +5507,11 @@
       <c r="BU4" s="2">
         <v>96</v>
       </c>
+      <c r="BV4" s="2">
+        <v>96</v>
+      </c>
     </row>
-    <row r="5" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -5665,8 +5731,11 @@
       <c r="BU5" s="2">
         <v>386</v>
       </c>
+      <c r="BV5" s="2">
+        <v>395</v>
+      </c>
     </row>
-    <row r="6" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -5886,8 +5955,11 @@
       <c r="BU6" s="2">
         <v>149</v>
       </c>
+      <c r="BV6" s="2">
+        <v>153</v>
+      </c>
     </row>
-    <row r="7" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -6107,8 +6179,11 @@
       <c r="BU7" s="2">
         <v>431</v>
       </c>
+      <c r="BV7" s="2">
+        <v>437</v>
+      </c>
     </row>
-    <row r="8" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -6328,8 +6403,11 @@
       <c r="BU8" s="2">
         <v>179</v>
       </c>
+      <c r="BV8" s="2">
+        <v>179</v>
+      </c>
     </row>
-    <row r="9" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -6549,8 +6627,11 @@
       <c r="BU9" s="2">
         <v>201</v>
       </c>
+      <c r="BV9" s="2">
+        <v>210</v>
+      </c>
     </row>
-    <row r="10" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -6770,8 +6851,11 @@
       <c r="BU10" s="2">
         <v>139</v>
       </c>
+      <c r="BV10" s="2">
+        <v>146</v>
+      </c>
     </row>
-    <row r="11" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -6991,8 +7075,11 @@
       <c r="BU11" s="2">
         <v>243</v>
       </c>
+      <c r="BV11" s="2">
+        <v>253</v>
+      </c>
     </row>
-    <row r="12" spans="1:73" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:74" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -7214,16 +7301,19 @@
       <c r="BU12" s="3">
         <v>1824</v>
       </c>
+      <c r="BV12" s="3">
+        <v>1869</v>
+      </c>
     </row>
-    <row r="13" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:74" ht="15" x14ac:dyDescent="0.4">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -7235,29 +7325,29 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCD14BD-3EDB-4A02-AA3B-BFB82E165626}">
-  <dimension ref="A1:BU17"/>
+  <dimension ref="A1:BV17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BT8" sqref="BT8"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.046875" defaultRowHeight="14.65" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.34765625" style="2" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="5.9296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="57" width="7.06640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="58" max="73" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="74" max="16384" width="9.06640625" style="2"/>
+    <col min="19" max="27" width="5.94921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="57" width="7.046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="58" max="74" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="75" max="16384" width="9.046875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:73" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:74" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -7477,8 +7567,11 @@
       <c r="BU3" s="5">
         <v>44037</v>
       </c>
+      <c r="BV3" s="5">
+        <v>44038</v>
+      </c>
     </row>
-    <row r="4" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -7698,8 +7791,11 @@
       <c r="BU4" s="2">
         <v>253</v>
       </c>
+      <c r="BV4" s="2">
+        <v>253</v>
+      </c>
     </row>
-    <row r="5" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -7919,8 +8015,11 @@
       <c r="BU5" s="2">
         <v>1257</v>
       </c>
+      <c r="BV5" s="2">
+        <v>1286</v>
+      </c>
     </row>
-    <row r="6" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -8140,8 +8239,11 @@
       <c r="BU6" s="2">
         <v>544</v>
       </c>
+      <c r="BV6" s="2">
+        <v>547</v>
+      </c>
     </row>
-    <row r="7" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -8361,8 +8463,11 @@
       <c r="BU7" s="2">
         <v>1282</v>
       </c>
+      <c r="BV7" s="2">
+        <v>1313</v>
+      </c>
     </row>
-    <row r="8" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -8582,8 +8687,11 @@
       <c r="BU8" s="2">
         <v>515</v>
       </c>
+      <c r="BV8" s="2">
+        <v>515</v>
+      </c>
     </row>
-    <row r="9" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -8803,8 +8911,11 @@
       <c r="BU9" s="2">
         <v>465</v>
       </c>
+      <c r="BV9" s="2">
+        <v>554</v>
+      </c>
     </row>
-    <row r="10" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -9024,8 +9135,11 @@
       <c r="BU10" s="2">
         <v>395</v>
       </c>
+      <c r="BV10" s="2">
+        <v>415</v>
+      </c>
     </row>
-    <row r="11" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -9245,8 +9359,11 @@
       <c r="BU11" s="2">
         <v>300</v>
       </c>
+      <c r="BV11" s="2">
+        <v>318</v>
+      </c>
     </row>
-    <row r="12" spans="1:73" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:74" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -9467,23 +9584,26 @@
         <f t="shared" ref="BU12" si="0">SUM(BU4:BU11)</f>
         <v>5011</v>
       </c>
+      <c r="BV12" s="3">
+        <v>5201</v>
+      </c>
     </row>
-    <row r="14" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>

--- a/original-sources/DSHS_nursing.xlsx
+++ b/original-sources/DSHS_nursing.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dshs4dvchsfs01.dshs.state.tx.us\CHS Share\CHS-AAU\Epi\Covid\For Ektron\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0798252E-572F-41EC-B532-884964BCCA2D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{256714F7-DEEB-4304-8E2A-D44C4432C327}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8633" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8634" activeTab="3" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
   </bookViews>
   <sheets>
     <sheet name="Facilities" sheetId="1" r:id="rId1"/>
@@ -461,30 +461,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36587124-AB08-4074-9D3F-CC49D1169958}">
-  <dimension ref="A1:BV15"/>
+  <dimension ref="A1:BW15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="BD1" activePane="topRight" state="frozen"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.046875" defaultRowHeight="14.65" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.0390625" defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.34765625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.359375" style="2" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="5.94921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="48" width="7.046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="57" width="6.84765625" style="2" customWidth="1"/>
+    <col min="19" max="27" width="5.95703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="48" width="7.0390625" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="57" width="6.83984375" style="2" customWidth="1"/>
     <col min="58" max="74" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="75" max="16384" width="9.046875" style="2"/>
+    <col min="75" max="16384" width="9.0390625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:74" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:75" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -707,8 +707,11 @@
       <c r="BV3" s="5">
         <v>44038</v>
       </c>
+      <c r="BW3" s="5">
+        <v>44039</v>
+      </c>
     </row>
-    <row r="4" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -931,8 +934,11 @@
       <c r="BV4" s="2">
         <v>50</v>
       </c>
+      <c r="BW4" s="2">
+        <v>50</v>
+      </c>
     </row>
-    <row r="5" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -1155,8 +1161,11 @@
       <c r="BV5" s="2">
         <v>261</v>
       </c>
+      <c r="BW5" s="2">
+        <v>264</v>
+      </c>
     </row>
-    <row r="6" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -1379,8 +1388,11 @@
       <c r="BV6" s="2">
         <v>101</v>
       </c>
+      <c r="BW6" s="2">
+        <v>102</v>
+      </c>
     </row>
-    <row r="7" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -1603,8 +1615,11 @@
       <c r="BV7" s="2">
         <v>186</v>
       </c>
+      <c r="BW7" s="2">
+        <v>186</v>
+      </c>
     </row>
-    <row r="8" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1827,8 +1842,11 @@
       <c r="BV8" s="2">
         <v>87</v>
       </c>
+      <c r="BW8" s="2">
+        <v>88</v>
+      </c>
     </row>
-    <row r="9" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -2051,8 +2069,11 @@
       <c r="BV9" s="2">
         <v>128</v>
       </c>
+      <c r="BW9" s="2">
+        <v>128</v>
+      </c>
     </row>
-    <row r="10" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -2275,8 +2296,11 @@
       <c r="BV10" s="2">
         <v>47</v>
       </c>
+      <c r="BW10" s="2">
+        <v>47</v>
+      </c>
     </row>
-    <row r="11" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -2499,8 +2523,11 @@
       <c r="BV11" s="2">
         <v>71</v>
       </c>
+      <c r="BW11" s="2">
+        <v>72</v>
+      </c>
     </row>
-    <row r="12" spans="1:74" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:75" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -2728,16 +2755,19 @@
       <c r="BV12" s="3">
         <v>931</v>
       </c>
+      <c r="BW12" s="3">
+        <v>937</v>
+      </c>
     </row>
-    <row r="13" spans="1:74" ht="15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:75" x14ac:dyDescent="0.45">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -2750,32 +2780,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001C2592-E91A-4D15-BF1F-41D54F92301C}">
-  <dimension ref="A1:BV16"/>
+  <dimension ref="A1:BW16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="BC1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BV4" sqref="BV4:BV12"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.046875" defaultRowHeight="14.65" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.0390625" defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.34765625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.359375" style="2" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="5.94921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="48" width="7.046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="57" width="7.25" style="2" customWidth="1"/>
+    <col min="19" max="27" width="5.95703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="48" width="7.0390625" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="57" width="7.23828125" style="2" customWidth="1"/>
     <col min="58" max="70" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="6.546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="6.55859375" style="2" bestFit="1" customWidth="1"/>
     <col min="72" max="73" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="74" max="16384" width="9.046875" style="2"/>
+    <col min="74" max="16384" width="9.0390625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:74" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:75" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -2998,8 +3028,11 @@
       <c r="BV3" s="5">
         <v>44038</v>
       </c>
+      <c r="BW3" s="5">
+        <v>44039</v>
+      </c>
     </row>
-    <row r="4" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -3222,8 +3255,11 @@
       <c r="BV4" s="2">
         <v>569</v>
       </c>
+      <c r="BW4" s="2">
+        <v>572</v>
+      </c>
     </row>
-    <row r="5" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -3446,8 +3482,11 @@
       <c r="BV5" s="2">
         <v>2959</v>
       </c>
+      <c r="BW5" s="2">
+        <v>3044</v>
+      </c>
     </row>
-    <row r="6" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -3670,8 +3709,11 @@
       <c r="BV6" s="2">
         <v>1172</v>
       </c>
+      <c r="BW6" s="2">
+        <v>1145</v>
+      </c>
     </row>
-    <row r="7" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -3894,8 +3936,11 @@
       <c r="BV7" s="2">
         <v>3741</v>
       </c>
+      <c r="BW7" s="2">
+        <v>3758</v>
+      </c>
     </row>
-    <row r="8" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -4118,8 +4163,11 @@
       <c r="BV8" s="2">
         <v>1180</v>
       </c>
+      <c r="BW8" s="2">
+        <v>1182</v>
+      </c>
     </row>
-    <row r="9" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -4342,8 +4390,11 @@
       <c r="BV9" s="2">
         <v>1919</v>
       </c>
+      <c r="BW9" s="2">
+        <v>1964</v>
+      </c>
     </row>
-    <row r="10" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -4566,8 +4617,11 @@
       <c r="BV10" s="2">
         <v>1039</v>
       </c>
+      <c r="BW10" s="2">
+        <v>1045</v>
+      </c>
     </row>
-    <row r="11" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -4790,8 +4844,11 @@
       <c r="BV11" s="2">
         <v>1719</v>
       </c>
+      <c r="BW11" s="2">
+        <v>1775</v>
+      </c>
     </row>
-    <row r="12" spans="1:74" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:75" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -5014,21 +5071,24 @@
       <c r="BV12" s="3">
         <v>14298</v>
       </c>
+      <c r="BW12" s="3">
+        <v>14485</v>
+      </c>
     </row>
-    <row r="13" spans="1:74" ht="15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:75" x14ac:dyDescent="0.45">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A16" s="8" t="s">
         <v>15</v>
       </c>
@@ -5041,29 +5101,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC07078-FDB2-4744-9C93-DA564120E1E6}">
-  <dimension ref="A1:BV15"/>
+  <dimension ref="A1:BW15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="BC1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BV4" sqref="BV4:BV13"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.046875" defaultRowHeight="14.65" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.0390625" defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.34765625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.359375" style="2" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="5.94921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="57" width="7.046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="27" width="5.95703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="57" width="7.0390625" style="2" bestFit="1" customWidth="1"/>
     <col min="58" max="74" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="75" max="16384" width="9.046875" style="2"/>
+    <col min="75" max="16384" width="9.0390625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:74" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:75" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -5286,8 +5346,11 @@
       <c r="BV3" s="5">
         <v>44038</v>
       </c>
+      <c r="BW3" s="5">
+        <v>44039</v>
+      </c>
     </row>
-    <row r="4" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -5510,8 +5573,11 @@
       <c r="BV4" s="2">
         <v>96</v>
       </c>
+      <c r="BW4" s="2">
+        <v>96</v>
+      </c>
     </row>
-    <row r="5" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -5734,8 +5800,11 @@
       <c r="BV5" s="2">
         <v>395</v>
       </c>
+      <c r="BW5" s="2">
+        <v>406</v>
+      </c>
     </row>
-    <row r="6" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -5958,8 +6027,11 @@
       <c r="BV6" s="2">
         <v>153</v>
       </c>
+      <c r="BW6" s="2">
+        <v>147</v>
+      </c>
     </row>
-    <row r="7" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -6182,8 +6254,11 @@
       <c r="BV7" s="2">
         <v>437</v>
       </c>
+      <c r="BW7" s="2">
+        <v>437</v>
+      </c>
     </row>
-    <row r="8" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -6406,8 +6481,11 @@
       <c r="BV8" s="2">
         <v>179</v>
       </c>
+      <c r="BW8" s="2">
+        <v>186</v>
+      </c>
     </row>
-    <row r="9" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -6630,8 +6708,11 @@
       <c r="BV9" s="2">
         <v>210</v>
       </c>
+      <c r="BW9" s="2">
+        <v>216</v>
+      </c>
     </row>
-    <row r="10" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -6854,8 +6935,11 @@
       <c r="BV10" s="2">
         <v>146</v>
       </c>
+      <c r="BW10" s="2">
+        <v>148</v>
+      </c>
     </row>
-    <row r="11" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -7078,8 +7162,11 @@
       <c r="BV11" s="2">
         <v>253</v>
       </c>
+      <c r="BW11" s="2">
+        <v>258</v>
+      </c>
     </row>
-    <row r="12" spans="1:74" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:75" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -7304,16 +7391,19 @@
       <c r="BV12" s="3">
         <v>1869</v>
       </c>
+      <c r="BW12" s="3">
+        <v>1894</v>
+      </c>
     </row>
-    <row r="13" spans="1:74" ht="15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:75" x14ac:dyDescent="0.45">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -7325,29 +7415,29 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCD14BD-3EDB-4A02-AA3B-BFB82E165626}">
-  <dimension ref="A1:BV17"/>
+  <dimension ref="A1:BW17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AT1" activePane="topRight" state="frozen"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.046875" defaultRowHeight="14.65" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.0390625" defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.34765625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.359375" style="2" customWidth="1"/>
     <col min="2" max="18" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="5.94921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="57" width="7.046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="27" width="5.95703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="57" width="7.0390625" style="2" bestFit="1" customWidth="1"/>
     <col min="58" max="74" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="75" max="16384" width="9.046875" style="2"/>
+    <col min="75" max="16384" width="9.0390625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:74" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:75" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -7570,8 +7660,11 @@
       <c r="BV3" s="5">
         <v>44038</v>
       </c>
+      <c r="BW3" s="5">
+        <v>44039</v>
+      </c>
     </row>
-    <row r="4" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -7794,8 +7887,11 @@
       <c r="BV4" s="2">
         <v>253</v>
       </c>
+      <c r="BW4" s="2">
+        <v>253</v>
+      </c>
     </row>
-    <row r="5" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -8018,8 +8114,11 @@
       <c r="BV5" s="2">
         <v>1286</v>
       </c>
+      <c r="BW5" s="2">
+        <v>1336</v>
+      </c>
     </row>
-    <row r="6" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -8242,8 +8341,11 @@
       <c r="BV6" s="2">
         <v>547</v>
       </c>
+      <c r="BW6" s="2">
+        <v>522</v>
+      </c>
     </row>
-    <row r="7" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -8466,8 +8568,11 @@
       <c r="BV7" s="2">
         <v>1313</v>
       </c>
+      <c r="BW7" s="2">
+        <v>1318</v>
+      </c>
     </row>
-    <row r="8" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -8690,8 +8795,11 @@
       <c r="BV8" s="2">
         <v>515</v>
       </c>
+      <c r="BW8" s="2">
+        <v>516</v>
+      </c>
     </row>
-    <row r="9" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -8914,8 +9022,11 @@
       <c r="BV9" s="2">
         <v>554</v>
       </c>
+      <c r="BW9" s="2">
+        <v>568</v>
+      </c>
     </row>
-    <row r="10" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -9138,8 +9249,11 @@
       <c r="BV10" s="2">
         <v>415</v>
       </c>
+      <c r="BW10" s="2">
+        <v>419</v>
+      </c>
     </row>
-    <row r="11" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -9362,8 +9476,11 @@
       <c r="BV11" s="2">
         <v>318</v>
       </c>
+      <c r="BW11" s="2">
+        <v>325</v>
+      </c>
     </row>
-    <row r="12" spans="1:74" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:75" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -9587,23 +9704,26 @@
       <c r="BV12" s="3">
         <v>5201</v>
       </c>
+      <c r="BW12" s="3">
+        <v>5257</v>
+      </c>
     </row>
-    <row r="14" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A16" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>

--- a/original-sources/DSHS_nursing.xlsx
+++ b/original-sources/DSHS_nursing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{256714F7-DEEB-4304-8E2A-D44C4432C327}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8AEABD64-1CBD-49EE-B50E-C25576F4C01B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8634" activeTab="3" xr2:uid="{DE130A82-D813-4141-92E6-AD89D13C7B58}"/>
   </bookViews>
@@ -461,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36587124-AB08-4074-9D3F-CC49D1169958}">
-  <dimension ref="A1:BW15"/>
+  <dimension ref="A1:BX15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BD1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="BP1" activePane="topRight" state="frozen"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
@@ -479,12 +479,12 @@
     <col min="75" max="16384" width="9.0390625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:75" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:76" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -710,8 +710,11 @@
       <c r="BW3" s="5">
         <v>44039</v>
       </c>
+      <c r="BX3" s="5">
+        <v>44040</v>
+      </c>
     </row>
-    <row r="4" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -937,8 +940,11 @@
       <c r="BW4" s="2">
         <v>50</v>
       </c>
+      <c r="BX4" s="2">
+        <v>50</v>
+      </c>
     </row>
-    <row r="5" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -1164,8 +1170,11 @@
       <c r="BW5" s="2">
         <v>264</v>
       </c>
+      <c r="BX5" s="2">
+        <v>264</v>
+      </c>
     </row>
-    <row r="6" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -1391,8 +1400,11 @@
       <c r="BW6" s="2">
         <v>102</v>
       </c>
+      <c r="BX6" s="2">
+        <v>103</v>
+      </c>
     </row>
-    <row r="7" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -1618,8 +1630,11 @@
       <c r="BW7" s="2">
         <v>186</v>
       </c>
+      <c r="BX7" s="2">
+        <v>185</v>
+      </c>
     </row>
-    <row r="8" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1845,8 +1860,11 @@
       <c r="BW8" s="2">
         <v>88</v>
       </c>
+      <c r="BX8" s="2">
+        <v>92</v>
+      </c>
     </row>
-    <row r="9" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -2072,8 +2090,11 @@
       <c r="BW9" s="2">
         <v>128</v>
       </c>
+      <c r="BX9" s="2">
+        <v>128</v>
+      </c>
     </row>
-    <row r="10" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -2299,8 +2320,11 @@
       <c r="BW10" s="2">
         <v>47</v>
       </c>
+      <c r="BX10" s="2">
+        <v>47</v>
+      </c>
     </row>
-    <row r="11" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -2526,8 +2550,11 @@
       <c r="BW11" s="2">
         <v>72</v>
       </c>
+      <c r="BX11" s="2">
+        <v>72</v>
+      </c>
     </row>
-    <row r="12" spans="1:75" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:76" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -2758,16 +2785,19 @@
       <c r="BW12" s="3">
         <v>937</v>
       </c>
+      <c r="BX12" s="3">
+        <v>941</v>
+      </c>
     </row>
-    <row r="13" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:76" x14ac:dyDescent="0.45">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -2780,10 +2810,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001C2592-E91A-4D15-BF1F-41D54F92301C}">
-  <dimension ref="A1:BW16"/>
+  <dimension ref="A1:BX16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BC1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="BN1" activePane="topRight" state="frozen"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
@@ -2800,12 +2830,12 @@
     <col min="74" max="16384" width="9.0390625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:75" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:76" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -3031,8 +3061,11 @@
       <c r="BW3" s="5">
         <v>44039</v>
       </c>
+      <c r="BX3" s="5">
+        <v>44040</v>
+      </c>
     </row>
-    <row r="4" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -3258,8 +3291,11 @@
       <c r="BW4" s="2">
         <v>572</v>
       </c>
+      <c r="BX4" s="2">
+        <v>584</v>
+      </c>
     </row>
-    <row r="5" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -3485,8 +3521,11 @@
       <c r="BW5" s="2">
         <v>3044</v>
       </c>
+      <c r="BX5" s="2">
+        <v>3103</v>
+      </c>
     </row>
-    <row r="6" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -3712,8 +3751,11 @@
       <c r="BW6" s="2">
         <v>1145</v>
       </c>
+      <c r="BX6" s="2">
+        <v>1188</v>
+      </c>
     </row>
-    <row r="7" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -3939,8 +3981,11 @@
       <c r="BW7" s="2">
         <v>3758</v>
       </c>
+      <c r="BX7" s="2">
+        <v>3889</v>
+      </c>
     </row>
-    <row r="8" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -4166,8 +4211,11 @@
       <c r="BW8" s="2">
         <v>1182</v>
       </c>
+      <c r="BX8" s="2">
+        <v>1209</v>
+      </c>
     </row>
-    <row r="9" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -4393,8 +4441,11 @@
       <c r="BW9" s="2">
         <v>1964</v>
       </c>
+      <c r="BX9" s="2">
+        <v>1982</v>
+      </c>
     </row>
-    <row r="10" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -4620,8 +4671,11 @@
       <c r="BW10" s="2">
         <v>1045</v>
       </c>
+      <c r="BX10" s="2">
+        <v>1056</v>
+      </c>
     </row>
-    <row r="11" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -4847,8 +4901,11 @@
       <c r="BW11" s="2">
         <v>1775</v>
       </c>
+      <c r="BX11" s="2">
+        <v>1856</v>
+      </c>
     </row>
-    <row r="12" spans="1:75" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:76" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -5074,21 +5131,24 @@
       <c r="BW12" s="3">
         <v>14485</v>
       </c>
+      <c r="BX12" s="3">
+        <v>14867</v>
+      </c>
     </row>
-    <row r="13" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:76" x14ac:dyDescent="0.45">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A16" s="8" t="s">
         <v>15</v>
       </c>
@@ -5101,10 +5161,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC07078-FDB2-4744-9C93-DA564120E1E6}">
-  <dimension ref="A1:BW15"/>
+  <dimension ref="A1:BX15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BC1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="BM1" activePane="topRight" state="frozen"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
@@ -5118,12 +5178,12 @@
     <col min="75" max="16384" width="9.0390625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:75" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:76" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -5349,8 +5409,11 @@
       <c r="BW3" s="5">
         <v>44039</v>
       </c>
+      <c r="BX3" s="5">
+        <v>44040</v>
+      </c>
     </row>
-    <row r="4" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -5576,8 +5639,11 @@
       <c r="BW4" s="2">
         <v>96</v>
       </c>
+      <c r="BX4" s="2">
+        <v>103</v>
+      </c>
     </row>
-    <row r="5" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -5803,8 +5869,11 @@
       <c r="BW5" s="2">
         <v>406</v>
       </c>
+      <c r="BX5" s="2">
+        <v>417</v>
+      </c>
     </row>
-    <row r="6" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -6030,8 +6099,11 @@
       <c r="BW6" s="2">
         <v>147</v>
       </c>
+      <c r="BX6" s="2">
+        <v>146</v>
+      </c>
     </row>
-    <row r="7" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -6257,8 +6329,11 @@
       <c r="BW7" s="2">
         <v>437</v>
       </c>
+      <c r="BX7" s="2">
+        <v>457</v>
+      </c>
     </row>
-    <row r="8" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -6484,8 +6559,11 @@
       <c r="BW8" s="2">
         <v>186</v>
       </c>
+      <c r="BX8" s="2">
+        <v>191</v>
+      </c>
     </row>
-    <row r="9" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -6711,8 +6789,11 @@
       <c r="BW9" s="2">
         <v>216</v>
       </c>
+      <c r="BX9" s="2">
+        <v>232</v>
+      </c>
     </row>
-    <row r="10" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -6938,8 +7019,11 @@
       <c r="BW10" s="2">
         <v>148</v>
       </c>
+      <c r="BX10" s="2">
+        <v>150</v>
+      </c>
     </row>
-    <row r="11" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -7165,8 +7249,11 @@
       <c r="BW11" s="2">
         <v>258</v>
       </c>
+      <c r="BX11" s="2">
+        <v>277</v>
+      </c>
     </row>
-    <row r="12" spans="1:75" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:76" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -7394,16 +7481,19 @@
       <c r="BW12" s="3">
         <v>1894</v>
       </c>
+      <c r="BX12" s="3">
+        <v>1973</v>
+      </c>
     </row>
-    <row r="13" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:76" x14ac:dyDescent="0.45">
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -7415,10 +7505,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCD14BD-3EDB-4A02-AA3B-BFB82E165626}">
-  <dimension ref="A1:BW17"/>
+  <dimension ref="A1:BX17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AT1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="BN1" activePane="topRight" state="frozen"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
@@ -7432,12 +7522,12 @@
     <col min="75" max="16384" width="9.0390625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:75" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:76" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -7663,8 +7753,11 @@
       <c r="BW3" s="5">
         <v>44039</v>
       </c>
+      <c r="BX3" s="5">
+        <v>44040</v>
+      </c>
     </row>
-    <row r="4" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -7890,8 +7983,11 @@
       <c r="BW4" s="2">
         <v>253</v>
       </c>
+      <c r="BX4" s="2">
+        <v>292</v>
+      </c>
     </row>
-    <row r="5" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -8117,8 +8213,11 @@
       <c r="BW5" s="2">
         <v>1336</v>
       </c>
+      <c r="BX5" s="2">
+        <v>1372</v>
+      </c>
     </row>
-    <row r="6" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -8344,8 +8443,11 @@
       <c r="BW6" s="2">
         <v>522</v>
       </c>
+      <c r="BX6" s="2">
+        <v>595</v>
+      </c>
     </row>
-    <row r="7" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -8571,8 +8673,11 @@
       <c r="BW7" s="2">
         <v>1318</v>
       </c>
+      <c r="BX7" s="2">
+        <v>1386</v>
+      </c>
     </row>
-    <row r="8" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -8798,8 +8903,11 @@
       <c r="BW8" s="2">
         <v>516</v>
       </c>
+      <c r="BX8" s="2">
+        <v>523</v>
+      </c>
     </row>
-    <row r="9" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -9025,8 +9133,11 @@
       <c r="BW9" s="2">
         <v>568</v>
       </c>
+      <c r="BX9" s="2">
+        <v>584</v>
+      </c>
     </row>
-    <row r="10" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -9252,8 +9363,11 @@
       <c r="BW10" s="2">
         <v>419</v>
       </c>
+      <c r="BX10" s="2">
+        <v>442</v>
+      </c>
     </row>
-    <row r="11" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -9479,8 +9593,11 @@
       <c r="BW11" s="2">
         <v>325</v>
       </c>
+      <c r="BX11" s="2">
+        <v>350</v>
+      </c>
     </row>
-    <row r="12" spans="1:75" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:76" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -9707,18 +9824,21 @@
       <c r="BW12" s="3">
         <v>5257</v>
       </c>
+      <c r="BX12" s="3">
+        <v>5544</v>
+      </c>
     </row>
-    <row r="14" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:76" x14ac:dyDescent="0.45">
       <c r="A16" s="8" t="s">
         <v>15</v>
       </c>
